--- a/BackTest/2020-01-19 BackTest WOM.xlsx
+++ b/BackTest/2020-01-19 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:M200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>68.03</v>
+        <v>68.09</v>
       </c>
       <c r="C2" t="n">
-        <v>68.03</v>
+        <v>68.09</v>
       </c>
       <c r="D2" t="n">
-        <v>68.03</v>
+        <v>68.09</v>
       </c>
       <c r="E2" t="n">
-        <v>68.03</v>
+        <v>68.09</v>
       </c>
       <c r="F2" t="n">
-        <v>600</v>
+        <v>9440.854600000001</v>
       </c>
       <c r="G2" t="n">
-        <v>69.67383333333338</v>
+        <v>69.74166666666673</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>68.03</v>
       </c>
       <c r="F3" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="G3" t="n">
-        <v>69.60683333333337</v>
+        <v>69.67383333333338</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>68.03</v>
       </c>
       <c r="F4" t="n">
-        <v>9036.785900000001</v>
+        <v>3000</v>
       </c>
       <c r="G4" t="n">
-        <v>69.5356666666667</v>
+        <v>69.60683333333337</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68.05</v>
+        <v>68.03</v>
       </c>
       <c r="C5" t="n">
-        <v>68.01000000000001</v>
+        <v>68.03</v>
       </c>
       <c r="D5" t="n">
-        <v>68.05</v>
+        <v>68.03</v>
       </c>
       <c r="E5" t="n">
-        <v>68.01000000000001</v>
+        <v>68.03</v>
       </c>
       <c r="F5" t="n">
-        <v>40007.7963</v>
+        <v>9036.785900000001</v>
       </c>
       <c r="G5" t="n">
-        <v>69.46233333333338</v>
+        <v>69.5356666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>68.01000000000001</v>
+        <v>68.05</v>
       </c>
       <c r="C6" t="n">
         <v>68.01000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>68.01000000000001</v>
+        <v>68.05</v>
       </c>
       <c r="E6" t="n">
         <v>68.01000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>10001.949</v>
+        <v>40007.7963</v>
       </c>
       <c r="G6" t="n">
-        <v>69.38816666666671</v>
+        <v>69.46233333333338</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>69.04000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>69.04000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>69.04000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>69.04000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>1205.8303</v>
+        <v>10001.949</v>
       </c>
       <c r="G7" t="n">
-        <v>69.32550000000005</v>
+        <v>69.38816666666671</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>69.09</v>
+        <v>69.04000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>68.69</v>
+        <v>69.04000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>69.09</v>
+        <v>69.04000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>68.69</v>
+        <v>69.04000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>1396.4119</v>
+        <v>1205.8303</v>
       </c>
       <c r="G8" t="n">
-        <v>69.26866666666669</v>
+        <v>69.32550000000005</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>69.09</v>
       </c>
       <c r="C9" t="n">
-        <v>69.09</v>
+        <v>68.69</v>
       </c>
       <c r="D9" t="n">
         <v>69.09</v>
       </c>
       <c r="E9" t="n">
-        <v>69.09</v>
+        <v>68.69</v>
       </c>
       <c r="F9" t="n">
-        <v>25.516</v>
+        <v>1396.4119</v>
       </c>
       <c r="G9" t="n">
-        <v>69.17900000000003</v>
+        <v>69.26866666666669</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>69.09</v>
       </c>
       <c r="F10" t="n">
-        <v>9811.289000000001</v>
+        <v>25.516</v>
       </c>
       <c r="G10" t="n">
-        <v>69.12366666666669</v>
+        <v>69.17900000000003</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>69.09999999999999</v>
+        <v>69.09</v>
       </c>
       <c r="C11" t="n">
         <v>69.09</v>
       </c>
       <c r="D11" t="n">
-        <v>69.09999999999999</v>
+        <v>69.09</v>
       </c>
       <c r="E11" t="n">
         <v>69.09</v>
       </c>
       <c r="F11" t="n">
-        <v>17560.1731</v>
+        <v>9811.289000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>69.06833333333337</v>
+        <v>69.12366666666669</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>69.09</v>
       </c>
       <c r="F12" t="n">
-        <v>13611.3719</v>
+        <v>17560.1731</v>
       </c>
       <c r="G12" t="n">
-        <v>69.01300000000005</v>
+        <v>69.06833333333337</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>68.03</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>68.03</v>
+        <v>69.09</v>
       </c>
       <c r="D13" t="n">
-        <v>68.03</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>68.03</v>
+        <v>69.09</v>
       </c>
       <c r="F13" t="n">
-        <v>44236.7141</v>
+        <v>13611.3719</v>
       </c>
       <c r="G13" t="n">
-        <v>68.91016666666671</v>
+        <v>69.01300000000005</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>68.01000000000001</v>
+        <v>68.03</v>
       </c>
       <c r="C14" t="n">
-        <v>68.01000000000001</v>
+        <v>68.03</v>
       </c>
       <c r="D14" t="n">
-        <v>68.01000000000001</v>
+        <v>68.03</v>
       </c>
       <c r="E14" t="n">
-        <v>68.01000000000001</v>
+        <v>68.03</v>
       </c>
       <c r="F14" t="n">
-        <v>54.259</v>
+        <v>44236.7141</v>
       </c>
       <c r="G14" t="n">
-        <v>68.85016666666671</v>
+        <v>68.91016666666671</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>68.01000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>68</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D15" t="n">
         <v>68.01000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>68</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>1602.2422</v>
+        <v>54.259</v>
       </c>
       <c r="G15" t="n">
-        <v>68.79016666666671</v>
+        <v>68.85016666666671</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>68.01000000000001</v>
+      </c>
+      <c r="C16" t="n">
         <v>68</v>
       </c>
-      <c r="C16" t="n">
-        <v>67.8</v>
-      </c>
       <c r="D16" t="n">
+        <v>68.01000000000001</v>
+      </c>
+      <c r="E16" t="n">
         <v>68</v>
       </c>
-      <c r="E16" t="n">
-        <v>67.8</v>
-      </c>
       <c r="F16" t="n">
-        <v>11641.122</v>
+        <v>1602.2422</v>
       </c>
       <c r="G16" t="n">
-        <v>68.7351666666667</v>
+        <v>68.79016666666671</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>67.8</v>
+        <v>68</v>
       </c>
       <c r="C17" t="n">
         <v>67.8</v>
       </c>
       <c r="D17" t="n">
-        <v>67.8</v>
+        <v>68</v>
       </c>
       <c r="E17" t="n">
         <v>67.8</v>
       </c>
       <c r="F17" t="n">
-        <v>3418.7448</v>
+        <v>11641.122</v>
       </c>
       <c r="G17" t="n">
-        <v>68.69850000000004</v>
+        <v>68.7351666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>67.64</v>
+        <v>67.8</v>
       </c>
       <c r="C18" t="n">
-        <v>67.64</v>
+        <v>67.8</v>
       </c>
       <c r="D18" t="n">
-        <v>67.64</v>
+        <v>67.8</v>
       </c>
       <c r="E18" t="n">
-        <v>67.64</v>
+        <v>67.8</v>
       </c>
       <c r="F18" t="n">
-        <v>189.3495</v>
+        <v>3418.7448</v>
       </c>
       <c r="G18" t="n">
-        <v>68.65916666666672</v>
+        <v>68.69850000000004</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>67.63</v>
+        <v>67.64</v>
       </c>
       <c r="C19" t="n">
-        <v>67.63</v>
+        <v>67.64</v>
       </c>
       <c r="D19" t="n">
-        <v>67.63</v>
+        <v>67.64</v>
       </c>
       <c r="E19" t="n">
-        <v>67.63</v>
+        <v>67.64</v>
       </c>
       <c r="F19" t="n">
-        <v>170.4383</v>
+        <v>189.3495</v>
       </c>
       <c r="G19" t="n">
-        <v>68.61933333333337</v>
+        <v>68.65916666666672</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>67.09999999999999</v>
+        <v>67.63</v>
       </c>
       <c r="C20" t="n">
-        <v>67.09999999999999</v>
+        <v>67.63</v>
       </c>
       <c r="D20" t="n">
-        <v>67.09999999999999</v>
+        <v>67.63</v>
       </c>
       <c r="E20" t="n">
-        <v>67.09999999999999</v>
+        <v>67.63</v>
       </c>
       <c r="F20" t="n">
-        <v>10478.4959</v>
+        <v>170.4383</v>
       </c>
       <c r="G20" t="n">
-        <v>68.57050000000005</v>
+        <v>68.61933333333337</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>66.90000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>66.59999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>66.90000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>66.59999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>33210.2362</v>
+        <v>10478.4959</v>
       </c>
       <c r="G21" t="n">
-        <v>68.51216666666672</v>
+        <v>68.57050000000005</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C22" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="C22" t="n">
-        <v>66.2</v>
-      </c>
       <c r="D22" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E22" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="E22" t="n">
-        <v>66.2</v>
-      </c>
       <c r="F22" t="n">
-        <v>68284.4578</v>
+        <v>33210.2362</v>
       </c>
       <c r="G22" t="n">
-        <v>68.44850000000004</v>
+        <v>68.51216666666672</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>66.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>66.2</v>
       </c>
       <c r="D23" t="n">
-        <v>66.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E23" t="n">
         <v>66.2</v>
       </c>
       <c r="F23" t="n">
-        <v>3844.7195</v>
+        <v>68284.4578</v>
       </c>
       <c r="G23" t="n">
-        <v>68.38516666666671</v>
+        <v>68.44850000000004</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>66.59999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="C24" t="n">
-        <v>66.59999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="D24" t="n">
-        <v>66.59999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="E24" t="n">
-        <v>66.59999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="F24" t="n">
-        <v>6268.719</v>
+        <v>3844.7195</v>
       </c>
       <c r="G24" t="n">
-        <v>68.33683333333337</v>
+        <v>68.38516666666671</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C25" t="n">
         <v>66.59999999999999</v>
@@ -1247,13 +1247,13 @@
         <v>66.59999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>9305.6967</v>
+        <v>6268.719</v>
       </c>
       <c r="G25" t="n">
-        <v>68.29683333333338</v>
+        <v>68.33683333333337</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>66.59999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="C26" t="n">
         <v>66.59999999999999</v>
@@ -1282,13 +1282,13 @@
         <v>66.59999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>66.59999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="F26" t="n">
-        <v>4654.5436</v>
+        <v>9305.6967</v>
       </c>
       <c r="G26" t="n">
-        <v>68.26516666666673</v>
+        <v>68.29683333333338</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,38 +1308,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>66.61</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C27" t="n">
         <v>66.59999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>66.61</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E27" t="n">
         <v>66.59999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>2884.8388</v>
+        <v>4654.5436</v>
       </c>
       <c r="G27" t="n">
-        <v>68.22516666666674</v>
+        <v>68.26516666666673</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>66.59999999999999</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1349,38 +1343,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>66.61</v>
+      </c>
+      <c r="C28" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="C28" t="n">
-        <v>67.69</v>
-      </c>
       <c r="D28" t="n">
-        <v>67.69</v>
+        <v>66.61</v>
       </c>
       <c r="E28" t="n">
         <v>66.59999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>1459.366881503915</v>
+        <v>2884.8388</v>
       </c>
       <c r="G28" t="n">
-        <v>68.21000000000006</v>
+        <v>68.22516666666674</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>66.59999999999999</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1390,38 +1378,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>67.67</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>66.77</v>
+        <v>67.69</v>
       </c>
       <c r="D29" t="n">
-        <v>67.67</v>
+        <v>67.69</v>
       </c>
       <c r="E29" t="n">
-        <v>66.77</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>1852.376</v>
+        <v>1459.366881503915</v>
       </c>
       <c r="G29" t="n">
-        <v>68.16833333333339</v>
+        <v>68.21000000000006</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>67.69</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1431,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>66.77</v>
+        <v>67.67</v>
       </c>
       <c r="C30" t="n">
         <v>66.77</v>
       </c>
       <c r="D30" t="n">
-        <v>66.77</v>
+        <v>67.67</v>
       </c>
       <c r="E30" t="n">
         <v>66.77</v>
       </c>
       <c r="F30" t="n">
-        <v>8</v>
+        <v>1852.376</v>
       </c>
       <c r="G30" t="n">
-        <v>68.13783333333339</v>
+        <v>68.16833333333339</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1456,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1470,38 +1448,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>66.78</v>
+        <v>66.77</v>
       </c>
       <c r="C31" t="n">
-        <v>66.78</v>
+        <v>66.77</v>
       </c>
       <c r="D31" t="n">
-        <v>66.78</v>
+        <v>66.77</v>
       </c>
       <c r="E31" t="n">
-        <v>66.78</v>
+        <v>66.77</v>
       </c>
       <c r="F31" t="n">
-        <v>4320.9988</v>
+        <v>8</v>
       </c>
       <c r="G31" t="n">
-        <v>68.10916666666672</v>
+        <v>68.13783333333339</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>66.77</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1523,10 +1495,10 @@
         <v>66.78</v>
       </c>
       <c r="F32" t="n">
-        <v>738.1348</v>
+        <v>4320.9988</v>
       </c>
       <c r="G32" t="n">
-        <v>68.0688333333334</v>
+        <v>68.10916666666672</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1536,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1562,10 +1530,10 @@
         <v>66.78</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8652</v>
+        <v>738.1348</v>
       </c>
       <c r="G33" t="n">
-        <v>68.04016666666672</v>
+        <v>68.0688333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1575,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1589,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>66.2</v>
+        <v>66.78</v>
       </c>
       <c r="C34" t="n">
-        <v>66.2</v>
+        <v>66.78</v>
       </c>
       <c r="D34" t="n">
-        <v>66.2</v>
+        <v>66.78</v>
       </c>
       <c r="E34" t="n">
-        <v>66.2</v>
+        <v>66.78</v>
       </c>
       <c r="F34" t="n">
-        <v>12589.719</v>
+        <v>0.8652</v>
       </c>
       <c r="G34" t="n">
-        <v>68.00133333333339</v>
+        <v>68.04016666666672</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1640,26 +1600,20 @@
         <v>66.2</v>
       </c>
       <c r="F35" t="n">
-        <v>28755.7513</v>
+        <v>12589.719</v>
       </c>
       <c r="G35" t="n">
-        <v>67.96250000000005</v>
+        <v>68.00133333333339</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>66.2</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1669,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>66.59</v>
+        <v>66.2</v>
       </c>
       <c r="C36" t="n">
-        <v>66.59</v>
+        <v>66.2</v>
       </c>
       <c r="D36" t="n">
-        <v>66.59</v>
+        <v>66.2</v>
       </c>
       <c r="E36" t="n">
-        <v>66.59</v>
+        <v>66.2</v>
       </c>
       <c r="F36" t="n">
-        <v>18676.242</v>
+        <v>28755.7513</v>
       </c>
       <c r="G36" t="n">
-        <v>67.93033333333338</v>
+        <v>67.96250000000005</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -1695,12 +1649,10 @@
       <c r="J36" t="n">
         <v>66.2</v>
       </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1710,22 +1662,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>66.59999999999999</v>
+        <v>66.59</v>
       </c>
       <c r="C37" t="n">
         <v>66.59</v>
       </c>
       <c r="D37" t="n">
-        <v>66.59999999999999</v>
+        <v>66.59</v>
       </c>
       <c r="E37" t="n">
         <v>66.59</v>
       </c>
       <c r="F37" t="n">
-        <v>12926.0642</v>
+        <v>18676.242</v>
       </c>
       <c r="G37" t="n">
-        <v>67.89850000000004</v>
+        <v>67.93033333333338</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -1734,12 +1686,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+        <v>66.2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>66.2</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M37" t="n">
@@ -1751,22 +1705,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>66.59</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C38" t="n">
         <v>66.59</v>
       </c>
       <c r="D38" t="n">
-        <v>66.59</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E38" t="n">
         <v>66.59</v>
       </c>
       <c r="F38" t="n">
-        <v>13560.6064</v>
+        <v>12926.0642</v>
       </c>
       <c r="G38" t="n">
-        <v>67.84350000000005</v>
+        <v>67.89850000000004</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -1777,10 +1731,12 @@
       <c r="J38" t="n">
         <v>66.59</v>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>66.2</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M38" t="n">
@@ -1792,22 +1748,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="C39" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="D39" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="E39" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="F39" t="n">
-        <v>616.8745</v>
+        <v>13560.6064</v>
       </c>
       <c r="G39" t="n">
-        <v>67.79166666666671</v>
+        <v>67.84350000000005</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -1818,12 +1774,10 @@
       <c r="J39" t="n">
         <v>66.59</v>
       </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +1787,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>67.56999999999999</v>
+        <v>66.78</v>
       </c>
       <c r="C40" t="n">
-        <v>67.56999999999999</v>
+        <v>66.78</v>
       </c>
       <c r="D40" t="n">
-        <v>67.56999999999999</v>
+        <v>66.78</v>
       </c>
       <c r="E40" t="n">
-        <v>67.56999999999999</v>
+        <v>66.78</v>
       </c>
       <c r="F40" t="n">
-        <v>4439.840165754033</v>
+        <v>616.8745</v>
       </c>
       <c r="G40" t="n">
-        <v>67.77783333333339</v>
+        <v>67.79166666666671</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -1857,12 +1811,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+        <v>66.59</v>
+      </c>
+      <c r="K40" t="n">
+        <v>66.59</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M40" t="n">
@@ -1874,34 +1830,38 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>67.55</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>67.55</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>67.55</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>67.55</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>1039.659511472983</v>
+        <v>4439.840165754033</v>
       </c>
       <c r="G41" t="n">
-        <v>67.76500000000004</v>
+        <v>67.77783333333339</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="K41" t="n">
+        <v>66.59</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M41" t="n">
@@ -1913,36 +1873,36 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>66.90000000000001</v>
+        <v>67.55</v>
       </c>
       <c r="C42" t="n">
-        <v>66.8</v>
+        <v>67.55</v>
       </c>
       <c r="D42" t="n">
-        <v>66.90000000000001</v>
+        <v>67.55</v>
       </c>
       <c r="E42" t="n">
-        <v>66.8</v>
+        <v>67.55</v>
       </c>
       <c r="F42" t="n">
-        <v>7326.7116</v>
+        <v>1039.659511472983</v>
       </c>
       <c r="G42" t="n">
-        <v>67.73983333333338</v>
+        <v>67.76500000000004</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="n">
+        <v>67.56999999999999</v>
+      </c>
+      <c r="K42" t="n">
+        <v>67.56999999999999</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1952,34 +1912,38 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>66.78</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>66.59</v>
+        <v>66.8</v>
       </c>
       <c r="D43" t="n">
-        <v>66.78</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>66.59</v>
+        <v>66.8</v>
       </c>
       <c r="F43" t="n">
-        <v>17115.9778</v>
+        <v>7326.7116</v>
       </c>
       <c r="G43" t="n">
-        <v>67.71183333333337</v>
+        <v>67.73983333333338</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>67.55</v>
+      </c>
+      <c r="K43" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -1991,31 +1955,35 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>67.48999999999999</v>
+        <v>66.78</v>
       </c>
       <c r="C44" t="n">
-        <v>67.48999999999999</v>
+        <v>66.59</v>
       </c>
       <c r="D44" t="n">
-        <v>67.48999999999999</v>
+        <v>66.78</v>
       </c>
       <c r="E44" t="n">
-        <v>67.48999999999999</v>
+        <v>66.59</v>
       </c>
       <c r="F44" t="n">
-        <v>8</v>
+        <v>17115.9778</v>
       </c>
       <c r="G44" t="n">
-        <v>67.69916666666671</v>
+        <v>67.71183333333337</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K44" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2042,19 +2010,23 @@
         <v>67.48999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="G45" t="n">
-        <v>67.67733333333337</v>
+        <v>67.69916666666671</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K45" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2081,19 +2053,23 @@
         <v>67.48999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>5524.512</v>
+        <v>1000</v>
       </c>
       <c r="G46" t="n">
-        <v>67.66533333333336</v>
+        <v>67.67733333333337</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="K46" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2120,10 +2096,10 @@
         <v>67.48999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>1265.917</v>
+        <v>5524.512</v>
       </c>
       <c r="G47" t="n">
-        <v>67.65316666666669</v>
+        <v>67.66533333333336</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2132,7 +2108,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2159,19 +2137,23 @@
         <v>67.48999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>7646.1965</v>
+        <v>1265.917</v>
       </c>
       <c r="G48" t="n">
-        <v>67.64100000000003</v>
+        <v>67.65316666666669</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="K48" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2186,22 +2168,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>66.8</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>66.8</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>66.8</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>66.8</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>1965.7939</v>
+        <v>7646.1965</v>
       </c>
       <c r="G49" t="n">
-        <v>67.61750000000004</v>
+        <v>67.64100000000003</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2210,7 +2192,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2225,22 +2209,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>66.81</v>
+        <v>66.8</v>
       </c>
       <c r="C50" t="n">
-        <v>66.81</v>
+        <v>66.8</v>
       </c>
       <c r="D50" t="n">
-        <v>66.81</v>
+        <v>66.8</v>
       </c>
       <c r="E50" t="n">
-        <v>66.81</v>
+        <v>66.8</v>
       </c>
       <c r="F50" t="n">
-        <v>3578.5808</v>
+        <v>1965.7939</v>
       </c>
       <c r="G50" t="n">
-        <v>67.57450000000004</v>
+        <v>67.61750000000004</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2249,7 +2233,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2264,22 +2250,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>66.8</v>
+        <v>66.81</v>
       </c>
       <c r="C51" t="n">
-        <v>66.70999999999999</v>
+        <v>66.81</v>
       </c>
       <c r="D51" t="n">
         <v>66.81</v>
       </c>
       <c r="E51" t="n">
-        <v>66.70999999999999</v>
+        <v>66.81</v>
       </c>
       <c r="F51" t="n">
-        <v>19115.5142</v>
+        <v>3578.5808</v>
       </c>
       <c r="G51" t="n">
-        <v>67.53633333333337</v>
+        <v>67.57450000000004</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2288,7 +2274,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2303,22 +2291,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>66.70999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="C52" t="n">
         <v>66.70999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>66.70999999999999</v>
+        <v>66.81</v>
       </c>
       <c r="E52" t="n">
         <v>66.70999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>7454.345</v>
+        <v>19115.5142</v>
       </c>
       <c r="G52" t="n">
-        <v>67.51133333333337</v>
+        <v>67.53633333333337</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2327,7 +2315,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2342,22 +2332,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>66.73</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>66.73</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>66.73</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>66.73</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>1017.367</v>
+        <v>7454.345</v>
       </c>
       <c r="G53" t="n">
-        <v>67.46866666666669</v>
+        <v>67.51133333333337</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2366,7 +2356,9 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2381,22 +2373,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>67.47</v>
+        <v>66.73</v>
       </c>
       <c r="C54" t="n">
-        <v>67.47</v>
+        <v>66.73</v>
       </c>
       <c r="D54" t="n">
-        <v>67.47</v>
+        <v>66.73</v>
       </c>
       <c r="E54" t="n">
-        <v>67.47</v>
+        <v>66.73</v>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>1017.367</v>
       </c>
       <c r="G54" t="n">
-        <v>67.4561666666667</v>
+        <v>67.46866666666669</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2405,7 +2397,9 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2420,22 +2414,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>66.8</v>
+        <v>67.47</v>
       </c>
       <c r="C55" t="n">
-        <v>66.8</v>
+        <v>67.47</v>
       </c>
       <c r="D55" t="n">
-        <v>66.8</v>
+        <v>67.47</v>
       </c>
       <c r="E55" t="n">
-        <v>66.8</v>
+        <v>67.47</v>
       </c>
       <c r="F55" t="n">
-        <v>8967.812599999999</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>67.41633333333337</v>
+        <v>67.4561666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2444,7 +2438,9 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2471,10 +2467,10 @@
         <v>66.8</v>
       </c>
       <c r="F56" t="n">
-        <v>8045.618</v>
+        <v>8967.812599999999</v>
       </c>
       <c r="G56" t="n">
-        <v>67.39283333333336</v>
+        <v>67.41633333333337</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2483,7 +2479,9 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2510,10 +2508,10 @@
         <v>66.8</v>
       </c>
       <c r="F57" t="n">
-        <v>971.749</v>
+        <v>8045.618</v>
       </c>
       <c r="G57" t="n">
-        <v>67.36933333333336</v>
+        <v>67.39283333333336</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2522,7 +2520,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2537,22 +2537,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>67.45</v>
+        <v>66.8</v>
       </c>
       <c r="C58" t="n">
-        <v>68.2</v>
+        <v>66.8</v>
       </c>
       <c r="D58" t="n">
-        <v>68.2</v>
+        <v>66.8</v>
       </c>
       <c r="E58" t="n">
-        <v>67.45</v>
+        <v>66.8</v>
       </c>
       <c r="F58" t="n">
-        <v>35214.68650370968</v>
+        <v>971.749</v>
       </c>
       <c r="G58" t="n">
-        <v>67.37016666666669</v>
+        <v>67.36933333333336</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2561,7 +2561,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2576,7 +2578,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>68.2</v>
+        <v>67.45</v>
       </c>
       <c r="C59" t="n">
         <v>68.2</v>
@@ -2585,22 +2587,26 @@
         <v>68.2</v>
       </c>
       <c r="E59" t="n">
-        <v>68.2</v>
+        <v>67.45</v>
       </c>
       <c r="F59" t="n">
-        <v>82.67829999999999</v>
+        <v>35214.68650370968</v>
       </c>
       <c r="G59" t="n">
-        <v>67.37183333333336</v>
+        <v>67.37016666666669</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="K59" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2627,10 +2633,10 @@
         <v>68.2</v>
       </c>
       <c r="F60" t="n">
-        <v>750</v>
+        <v>82.67829999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>67.37350000000004</v>
+        <v>67.37183333333336</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2639,7 +2645,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2657,19 +2665,19 @@
         <v>68.2</v>
       </c>
       <c r="C61" t="n">
-        <v>68.45999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="D61" t="n">
-        <v>68.45999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="E61" t="n">
         <v>68.2</v>
       </c>
       <c r="F61" t="n">
-        <v>10545.72229629032</v>
+        <v>750</v>
       </c>
       <c r="G61" t="n">
-        <v>67.37966666666669</v>
+        <v>67.37350000000004</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2678,7 +2686,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2693,22 +2703,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>68.59999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="C62" t="n">
         <v>68.45999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>68.59999999999999</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>68.45999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="F62" t="n">
-        <v>16227.5785</v>
+        <v>10545.72229629032</v>
       </c>
       <c r="G62" t="n">
-        <v>67.38683333333336</v>
+        <v>67.37966666666669</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2717,7 +2727,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2732,22 +2744,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>69.19</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>69.19</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>69.19</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>69.19</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>2000</v>
+        <v>16227.5785</v>
       </c>
       <c r="G63" t="n">
-        <v>67.40616666666669</v>
+        <v>67.38683333333336</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2756,7 +2768,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2774,19 +2788,19 @@
         <v>69.19</v>
       </c>
       <c r="C64" t="n">
-        <v>70.3</v>
+        <v>69.19</v>
       </c>
       <c r="D64" t="n">
-        <v>70.3</v>
+        <v>69.19</v>
       </c>
       <c r="E64" t="n">
         <v>69.19</v>
       </c>
       <c r="F64" t="n">
-        <v>380</v>
+        <v>2000</v>
       </c>
       <c r="G64" t="n">
-        <v>67.44400000000002</v>
+        <v>67.40616666666669</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2795,7 +2809,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2810,22 +2826,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="C65" t="n">
         <v>70.3</v>
       </c>
-      <c r="C65" t="n">
-        <v>72.03</v>
-      </c>
       <c r="D65" t="n">
-        <v>72.03</v>
+        <v>70.3</v>
       </c>
       <c r="E65" t="n">
-        <v>70.3</v>
+        <v>69.19</v>
       </c>
       <c r="F65" t="n">
-        <v>25640.2544</v>
+        <v>380</v>
       </c>
       <c r="G65" t="n">
-        <v>67.51100000000001</v>
+        <v>67.44400000000002</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2834,7 +2850,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2849,22 +2867,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="C66" t="n">
         <v>72.03</v>
       </c>
-      <c r="C66" t="n">
-        <v>72.59</v>
-      </c>
       <c r="D66" t="n">
-        <v>72.59</v>
+        <v>72.03</v>
       </c>
       <c r="E66" t="n">
-        <v>71.43000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="F66" t="n">
-        <v>15741.9529</v>
+        <v>25640.2544</v>
       </c>
       <c r="G66" t="n">
-        <v>67.58733333333335</v>
+        <v>67.51100000000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2873,7 +2891,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2888,22 +2908,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>72.98999999999999</v>
+        <v>72.03</v>
       </c>
       <c r="C67" t="n">
-        <v>75.01000000000001</v>
+        <v>72.59</v>
       </c>
       <c r="D67" t="n">
-        <v>75.01000000000001</v>
+        <v>72.59</v>
       </c>
       <c r="E67" t="n">
-        <v>72.70999999999999</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>26759.22792119717</v>
+        <v>15741.9529</v>
       </c>
       <c r="G67" t="n">
-        <v>67.68683333333335</v>
+        <v>67.58733333333335</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2912,7 +2932,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2927,22 +2949,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="C68" t="n">
         <v>75.01000000000001</v>
       </c>
-      <c r="C68" t="n">
-        <v>77.02</v>
-      </c>
       <c r="D68" t="n">
-        <v>77.02</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>74</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>39932.12531034977</v>
+        <v>26759.22792119717</v>
       </c>
       <c r="G68" t="n">
-        <v>67.82566666666669</v>
+        <v>67.68683333333335</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2951,7 +2973,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2966,22 +2990,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>74</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>76.79000000000001</v>
+        <v>77.02</v>
       </c>
       <c r="D69" t="n">
-        <v>77</v>
+        <v>77.02</v>
       </c>
       <c r="E69" t="n">
         <v>74</v>
       </c>
       <c r="F69" t="n">
-        <v>16605.62632320615</v>
+        <v>39932.12531034977</v>
       </c>
       <c r="G69" t="n">
-        <v>67.95400000000002</v>
+        <v>67.82566666666669</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2990,35 +3014,39 @@
         <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1.134854965221252</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>74.13</v>
+        <v>74</v>
       </c>
       <c r="C70" t="n">
-        <v>72.98999999999999</v>
+        <v>76.79000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>74.13</v>
+        <v>77</v>
       </c>
       <c r="E70" t="n">
-        <v>72.98999999999999</v>
+        <v>74</v>
       </c>
       <c r="F70" t="n">
-        <v>60614.9604</v>
+        <v>16605.62632320615</v>
       </c>
       <c r="G70" t="n">
-        <v>68.01900000000002</v>
+        <v>67.95400000000002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3038,28 +3066,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>74.13</v>
+      </c>
+      <c r="C71" t="n">
         <v>72.98999999999999</v>
       </c>
-      <c r="C71" t="n">
-        <v>72.90000000000001</v>
-      </c>
       <c r="D71" t="n">
-        <v>76.69</v>
+        <v>74.13</v>
       </c>
       <c r="E71" t="n">
-        <v>68.91</v>
+        <v>72.98999999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>25624.91931371742</v>
+        <v>60614.9604</v>
       </c>
       <c r="G71" t="n">
-        <v>68.08250000000001</v>
+        <v>68.01900000000002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3073,22 +3101,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>72.89</v>
+        <v>72.98999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>72.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>72.89</v>
+        <v>76.69</v>
       </c>
       <c r="E72" t="n">
-        <v>70.20999999999999</v>
+        <v>68.91</v>
       </c>
       <c r="F72" t="n">
-        <v>21318.2509</v>
+        <v>25624.91931371742</v>
       </c>
       <c r="G72" t="n">
-        <v>68.14433333333335</v>
+        <v>68.08250000000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3108,22 +3136,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>69.59999999999999</v>
+        <v>72.89</v>
       </c>
       <c r="C73" t="n">
-        <v>70.2</v>
+        <v>72.8</v>
       </c>
       <c r="D73" t="n">
-        <v>70.2</v>
+        <v>72.89</v>
       </c>
       <c r="E73" t="n">
-        <v>69.53</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>8292.243700000001</v>
+        <v>21318.2509</v>
       </c>
       <c r="G73" t="n">
-        <v>68.18050000000001</v>
+        <v>68.14433333333335</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3143,22 +3171,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>70.20999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>70.36</v>
+        <v>70.2</v>
       </c>
       <c r="D74" t="n">
-        <v>72.59</v>
+        <v>70.2</v>
       </c>
       <c r="E74" t="n">
-        <v>70.20999999999999</v>
+        <v>69.53</v>
       </c>
       <c r="F74" t="n">
-        <v>2510.3232</v>
+        <v>8292.243700000001</v>
       </c>
       <c r="G74" t="n">
-        <v>68.21966666666667</v>
+        <v>68.18050000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3178,22 +3206,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>70.37</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>70.41</v>
+        <v>70.36</v>
       </c>
       <c r="D75" t="n">
-        <v>72.47</v>
+        <v>72.59</v>
       </c>
       <c r="E75" t="n">
-        <v>70.37</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>1358.0763</v>
+        <v>2510.3232</v>
       </c>
       <c r="G75" t="n">
-        <v>68.25983333333333</v>
+        <v>68.21966666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3213,22 +3241,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>72</v>
+        <v>70.37</v>
       </c>
       <c r="C76" t="n">
-        <v>72</v>
+        <v>70.41</v>
       </c>
       <c r="D76" t="n">
-        <v>72</v>
+        <v>72.47</v>
       </c>
       <c r="E76" t="n">
-        <v>72</v>
+        <v>70.37</v>
       </c>
       <c r="F76" t="n">
-        <v>9</v>
+        <v>1358.0763</v>
       </c>
       <c r="G76" t="n">
-        <v>68.32983333333333</v>
+        <v>68.25983333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3248,22 +3276,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>71.89</v>
+        <v>72</v>
       </c>
       <c r="C77" t="n">
-        <v>71.98999999999999</v>
+        <v>72</v>
       </c>
       <c r="D77" t="n">
-        <v>71.98999999999999</v>
+        <v>72</v>
       </c>
       <c r="E77" t="n">
-        <v>71.89</v>
+        <v>72</v>
       </c>
       <c r="F77" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G77" t="n">
-        <v>68.39966666666666</v>
+        <v>68.32983333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3283,22 +3311,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>70.02</v>
+        <v>71.89</v>
       </c>
       <c r="C78" t="n">
-        <v>70.02</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>70.02</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>70.02</v>
+        <v>71.89</v>
       </c>
       <c r="F78" t="n">
-        <v>3157.6115</v>
+        <v>16</v>
       </c>
       <c r="G78" t="n">
-        <v>68.43933333333332</v>
+        <v>68.39966666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3330,10 +3358,10 @@
         <v>70.02</v>
       </c>
       <c r="F79" t="n">
-        <v>16791.2479</v>
+        <v>3157.6115</v>
       </c>
       <c r="G79" t="n">
-        <v>68.47916666666667</v>
+        <v>68.43933333333332</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3353,22 +3381,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>69.93000000000001</v>
+        <v>70.02</v>
       </c>
       <c r="C80" t="n">
-        <v>70</v>
+        <v>70.02</v>
       </c>
       <c r="D80" t="n">
         <v>70.02</v>
       </c>
       <c r="E80" t="n">
-        <v>69.93000000000001</v>
+        <v>70.02</v>
       </c>
       <c r="F80" t="n">
-        <v>20500.3236</v>
+        <v>16791.2479</v>
       </c>
       <c r="G80" t="n">
-        <v>68.52749999999999</v>
+        <v>68.47916666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3388,22 +3416,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>70.09999999999999</v>
+        <v>69.93000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>70.09999999999999</v>
+        <v>70</v>
       </c>
       <c r="D81" t="n">
-        <v>70.09999999999999</v>
+        <v>70.02</v>
       </c>
       <c r="E81" t="n">
-        <v>70.09999999999999</v>
+        <v>69.93000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>423.291</v>
+        <v>20500.3236</v>
       </c>
       <c r="G81" t="n">
-        <v>68.58583333333333</v>
+        <v>68.52749999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3423,22 +3451,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>70.20999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>70.11</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>70.20999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>70.11</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>1677.0394</v>
+        <v>423.291</v>
       </c>
       <c r="G82" t="n">
-        <v>68.651</v>
+        <v>68.58583333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3458,22 +3486,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>70.09999999999999</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>70.09999999999999</v>
+        <v>70.11</v>
       </c>
       <c r="D83" t="n">
-        <v>70.09999999999999</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>70.09999999999999</v>
+        <v>70.11</v>
       </c>
       <c r="F83" t="n">
-        <v>2040.6684</v>
+        <v>1677.0394</v>
       </c>
       <c r="G83" t="n">
-        <v>68.71599999999999</v>
+        <v>68.651</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3505,10 +3533,10 @@
         <v>70.09999999999999</v>
       </c>
       <c r="F84" t="n">
-        <v>1332.7775</v>
+        <v>2040.6684</v>
       </c>
       <c r="G84" t="n">
-        <v>68.77433333333333</v>
+        <v>68.71599999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3540,10 +3568,10 @@
         <v>70.09999999999999</v>
       </c>
       <c r="F85" t="n">
-        <v>100</v>
+        <v>1332.7775</v>
       </c>
       <c r="G85" t="n">
-        <v>68.83266666666667</v>
+        <v>68.77433333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3563,22 +3591,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>70.2</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>70.2</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>70.2</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>70.2</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>18.1818</v>
+        <v>100</v>
       </c>
       <c r="G86" t="n">
-        <v>68.89266666666666</v>
+        <v>68.83266666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3598,22 +3626,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>71.5</v>
+        <v>70.2</v>
       </c>
       <c r="C87" t="n">
-        <v>71.5</v>
+        <v>70.2</v>
       </c>
       <c r="D87" t="n">
-        <v>71.5</v>
+        <v>70.2</v>
       </c>
       <c r="E87" t="n">
-        <v>71.5</v>
+        <v>70.2</v>
       </c>
       <c r="F87" t="n">
         <v>18.1818</v>
       </c>
       <c r="G87" t="n">
-        <v>68.97433333333332</v>
+        <v>68.89266666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3633,22 +3661,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>70.69</v>
+        <v>71.5</v>
       </c>
       <c r="C88" t="n">
-        <v>70.69</v>
+        <v>71.5</v>
       </c>
       <c r="D88" t="n">
-        <v>70.69</v>
+        <v>71.5</v>
       </c>
       <c r="E88" t="n">
-        <v>70.69</v>
+        <v>71.5</v>
       </c>
       <c r="F88" t="n">
-        <v>8105.8499</v>
+        <v>18.1818</v>
       </c>
       <c r="G88" t="n">
-        <v>69.02433333333332</v>
+        <v>68.97433333333332</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3668,22 +3696,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>70.5</v>
+        <v>70.69</v>
       </c>
       <c r="C89" t="n">
-        <v>70.59999999999999</v>
+        <v>70.69</v>
       </c>
       <c r="D89" t="n">
-        <v>70.59999999999999</v>
+        <v>70.69</v>
       </c>
       <c r="E89" t="n">
-        <v>70.5</v>
+        <v>70.69</v>
       </c>
       <c r="F89" t="n">
-        <v>2577.6561</v>
+        <v>8105.8499</v>
       </c>
       <c r="G89" t="n">
-        <v>69.08816666666665</v>
+        <v>69.02433333333332</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3703,22 +3731,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>71.94</v>
+        <v>70.5</v>
       </c>
       <c r="C90" t="n">
-        <v>71.94</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>71.94</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>71.94</v>
+        <v>70.5</v>
       </c>
       <c r="F90" t="n">
-        <v>116.4836</v>
+        <v>2577.6561</v>
       </c>
       <c r="G90" t="n">
-        <v>69.17433333333331</v>
+        <v>69.08816666666665</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3741,19 +3769,19 @@
         <v>71.94</v>
       </c>
       <c r="C91" t="n">
-        <v>70.7</v>
+        <v>71.94</v>
       </c>
       <c r="D91" t="n">
         <v>71.94</v>
       </c>
       <c r="E91" t="n">
-        <v>70.7</v>
+        <v>71.94</v>
       </c>
       <c r="F91" t="n">
-        <v>11035.52998448492</v>
+        <v>116.4836</v>
       </c>
       <c r="G91" t="n">
-        <v>69.23966666666664</v>
+        <v>69.17433333333331</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3773,22 +3801,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>70.8</v>
+        <v>71.94</v>
       </c>
       <c r="C92" t="n">
-        <v>70.8</v>
+        <v>70.7</v>
       </c>
       <c r="D92" t="n">
-        <v>70.8</v>
+        <v>71.94</v>
       </c>
       <c r="E92" t="n">
-        <v>70.8</v>
+        <v>70.7</v>
       </c>
       <c r="F92" t="n">
-        <v>1549.4998</v>
+        <v>11035.52998448492</v>
       </c>
       <c r="G92" t="n">
-        <v>69.30666666666664</v>
+        <v>69.23966666666664</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3808,22 +3836,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>70.81999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="C93" t="n">
-        <v>70.81999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="D93" t="n">
-        <v>70.81999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="E93" t="n">
-        <v>70.81999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="F93" t="n">
-        <v>16334.8241</v>
+        <v>1549.4998</v>
       </c>
       <c r="G93" t="n">
-        <v>69.37399999999998</v>
+        <v>69.30666666666664</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3843,22 +3871,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>70.81</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>70.59999999999999</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>70.81</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>70.59999999999999</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>2884.7132</v>
+        <v>16334.8241</v>
       </c>
       <c r="G94" t="n">
-        <v>69.44733333333332</v>
+        <v>69.37399999999998</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3878,22 +3906,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>70.59999999999999</v>
+        <v>70.81</v>
       </c>
       <c r="C95" t="n">
         <v>70.59999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>70.59999999999999</v>
+        <v>70.81</v>
       </c>
       <c r="E95" t="n">
         <v>70.59999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>364.1241</v>
+        <v>2884.7132</v>
       </c>
       <c r="G95" t="n">
-        <v>69.52066666666666</v>
+        <v>69.44733333333332</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3925,19 +3953,23 @@
         <v>70.59999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>245.7929</v>
+        <v>364.1241</v>
       </c>
       <c r="G96" t="n">
-        <v>69.58750000000001</v>
+        <v>69.52066666666666</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="K96" t="n">
+        <v>70.59999999999999</v>
+      </c>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
@@ -3948,32 +3980,40 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>70.3</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>70.3</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>70.3</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>70.3</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>962.749</v>
+        <v>245.7929</v>
       </c>
       <c r="G97" t="n">
-        <v>69.64933333333333</v>
+        <v>69.58750000000001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="K97" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3986,29 +4026,37 @@
         <v>70.3</v>
       </c>
       <c r="C98" t="n">
-        <v>70.16</v>
+        <v>70.3</v>
       </c>
       <c r="D98" t="n">
         <v>70.3</v>
       </c>
       <c r="E98" t="n">
-        <v>70.16</v>
+        <v>70.3</v>
       </c>
       <c r="F98" t="n">
-        <v>3042.8071</v>
+        <v>962.749</v>
       </c>
       <c r="G98" t="n">
-        <v>69.70883333333333</v>
+        <v>69.64933333333333</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="K98" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4018,32 +4066,40 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>70.16</v>
+        <v>70.3</v>
       </c>
       <c r="C99" t="n">
         <v>70.16</v>
       </c>
       <c r="D99" t="n">
-        <v>70.16</v>
+        <v>70.3</v>
       </c>
       <c r="E99" t="n">
         <v>70.16</v>
       </c>
       <c r="F99" t="n">
-        <v>1450.0641</v>
+        <v>3042.8071</v>
       </c>
       <c r="G99" t="n">
-        <v>69.76516666666666</v>
+        <v>69.70883333333333</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="K99" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4053,22 +4109,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>70.13</v>
+        <v>70.16</v>
       </c>
       <c r="C100" t="n">
-        <v>70.81999999999999</v>
+        <v>70.16</v>
       </c>
       <c r="D100" t="n">
-        <v>70.81999999999999</v>
+        <v>70.16</v>
       </c>
       <c r="E100" t="n">
-        <v>70.13</v>
+        <v>70.16</v>
       </c>
       <c r="F100" t="n">
-        <v>62406.8167</v>
+        <v>1450.0641</v>
       </c>
       <c r="G100" t="n">
-        <v>69.81933333333333</v>
+        <v>69.76516666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4077,8 +4133,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4088,22 +4150,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>70.91</v>
+        <v>70.13</v>
       </c>
       <c r="C101" t="n">
-        <v>70.91</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>70.91</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>70.91</v>
+        <v>70.13</v>
       </c>
       <c r="F101" t="n">
-        <v>691.8357999999999</v>
+        <v>62406.8167</v>
       </c>
       <c r="G101" t="n">
-        <v>69.87533333333333</v>
+        <v>69.81933333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4112,8 +4174,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4123,22 +4191,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>71.89</v>
+        <v>70.91</v>
       </c>
       <c r="C102" t="n">
-        <v>71.89</v>
+        <v>70.91</v>
       </c>
       <c r="D102" t="n">
-        <v>71.89</v>
+        <v>70.91</v>
       </c>
       <c r="E102" t="n">
-        <v>71.89</v>
+        <v>70.91</v>
       </c>
       <c r="F102" t="n">
-        <v>22.8116</v>
+        <v>691.8357999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>69.96016666666667</v>
+        <v>69.87533333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4147,8 +4215,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4158,22 +4232,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>70.92</v>
+        <v>71.89</v>
       </c>
       <c r="C103" t="n">
-        <v>70.90000000000001</v>
+        <v>71.89</v>
       </c>
       <c r="D103" t="n">
-        <v>70.92</v>
+        <v>71.89</v>
       </c>
       <c r="E103" t="n">
-        <v>70.90000000000001</v>
+        <v>71.89</v>
       </c>
       <c r="F103" t="n">
-        <v>9702.676299999999</v>
+        <v>22.8116</v>
       </c>
       <c r="G103" t="n">
-        <v>70.03199999999998</v>
+        <v>69.96016666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4182,8 +4256,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4193,22 +4273,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>70.13</v>
+        <v>70.92</v>
       </c>
       <c r="C104" t="n">
-        <v>70.13</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>70.13</v>
+        <v>70.92</v>
       </c>
       <c r="E104" t="n">
-        <v>70.13</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>1135.5785</v>
+        <v>9702.676299999999</v>
       </c>
       <c r="G104" t="n">
-        <v>70.07599999999999</v>
+        <v>70.03199999999998</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4217,8 +4297,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4240,10 +4326,10 @@
         <v>70.13</v>
       </c>
       <c r="F105" t="n">
-        <v>298.0617</v>
+        <v>1135.5785</v>
       </c>
       <c r="G105" t="n">
-        <v>70.11999999999999</v>
+        <v>70.07599999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4252,8 +4338,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4263,22 +4355,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>70.09999999999999</v>
+        <v>70.13</v>
       </c>
       <c r="C106" t="n">
-        <v>70.05</v>
+        <v>70.13</v>
       </c>
       <c r="D106" t="n">
-        <v>70.09999999999999</v>
+        <v>70.13</v>
       </c>
       <c r="E106" t="n">
-        <v>70.05</v>
+        <v>70.13</v>
       </c>
       <c r="F106" t="n">
-        <v>909.7637</v>
+        <v>298.0617</v>
       </c>
       <c r="G106" t="n">
-        <v>70.16266666666667</v>
+        <v>70.11999999999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4287,8 +4379,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4298,22 +4396,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>70</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>69.59999999999999</v>
+        <v>70.05</v>
       </c>
       <c r="D107" t="n">
-        <v>70</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>69.59999999999999</v>
+        <v>70.05</v>
       </c>
       <c r="F107" t="n">
-        <v>1726.8833</v>
+        <v>909.7637</v>
       </c>
       <c r="G107" t="n">
-        <v>70.19783333333335</v>
+        <v>70.16266666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4322,8 +4420,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4333,22 +4437,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>69.59999999999999</v>
+        <v>70</v>
       </c>
       <c r="C108" t="n">
         <v>69.59999999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>69.59999999999999</v>
+        <v>70</v>
       </c>
       <c r="E108" t="n">
         <v>69.59999999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>337.724</v>
+        <v>1726.8833</v>
       </c>
       <c r="G108" t="n">
-        <v>70.23300000000002</v>
+        <v>70.19783333333335</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4357,8 +4461,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4368,22 +4478,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>71.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>71.27</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>71.27</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>71.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>1936.273799733408</v>
+        <v>337.724</v>
       </c>
       <c r="G109" t="n">
-        <v>70.30750000000003</v>
+        <v>70.23300000000002</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4392,8 +4502,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4403,7 +4519,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>71.27</v>
+        <v>71.2</v>
       </c>
       <c r="C110" t="n">
         <v>71.27</v>
@@ -4412,13 +4528,13 @@
         <v>71.27</v>
       </c>
       <c r="E110" t="n">
-        <v>71.27</v>
+        <v>71.2</v>
       </c>
       <c r="F110" t="n">
-        <v>6072.880300266592</v>
+        <v>1936.273799733408</v>
       </c>
       <c r="G110" t="n">
-        <v>70.38183333333336</v>
+        <v>70.30750000000003</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4427,8 +4543,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4438,22 +4560,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>71.8</v>
+        <v>71.27</v>
       </c>
       <c r="C111" t="n">
-        <v>71.98</v>
+        <v>71.27</v>
       </c>
       <c r="D111" t="n">
-        <v>71.98</v>
+        <v>71.27</v>
       </c>
       <c r="E111" t="n">
-        <v>71.8</v>
+        <v>71.27</v>
       </c>
       <c r="F111" t="n">
-        <v>2878.319948610725</v>
+        <v>6072.880300266592</v>
       </c>
       <c r="G111" t="n">
-        <v>70.46966666666668</v>
+        <v>70.38183333333336</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4462,8 +4584,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4473,7 +4601,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>71.98</v>
+        <v>71.8</v>
       </c>
       <c r="C112" t="n">
         <v>71.98</v>
@@ -4482,13 +4610,13 @@
         <v>71.98</v>
       </c>
       <c r="E112" t="n">
-        <v>71.98</v>
+        <v>71.8</v>
       </c>
       <c r="F112" t="n">
-        <v>2314.905451389275</v>
+        <v>2878.319948610725</v>
       </c>
       <c r="G112" t="n">
-        <v>70.55750000000002</v>
+        <v>70.46966666666668</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4497,8 +4625,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4508,22 +4642,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>71.40000000000001</v>
+        <v>71.98</v>
       </c>
       <c r="C113" t="n">
-        <v>71.40000000000001</v>
+        <v>71.98</v>
       </c>
       <c r="D113" t="n">
-        <v>71.40000000000001</v>
+        <v>71.98</v>
       </c>
       <c r="E113" t="n">
-        <v>71.40000000000001</v>
+        <v>71.98</v>
       </c>
       <c r="F113" t="n">
-        <v>6144.2795</v>
+        <v>2314.905451389275</v>
       </c>
       <c r="G113" t="n">
-        <v>70.63533333333335</v>
+        <v>70.55750000000002</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4532,8 +4666,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4543,22 +4683,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>70.76000000000001</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>70.76000000000001</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>70.76000000000001</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>70.76000000000001</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>151.1953</v>
+        <v>6144.2795</v>
       </c>
       <c r="G114" t="n">
-        <v>70.69016666666668</v>
+        <v>70.63533333333335</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4567,8 +4707,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4578,22 +4724,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>70</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>70</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>70</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>70</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>3819.6014</v>
+        <v>151.1953</v>
       </c>
       <c r="G115" t="n">
-        <v>70.74350000000001</v>
+        <v>70.69016666666668</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4602,8 +4748,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4613,22 +4765,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>70.2</v>
+        <v>70</v>
       </c>
       <c r="C116" t="n">
-        <v>70.2</v>
+        <v>70</v>
       </c>
       <c r="D116" t="n">
-        <v>70.2</v>
+        <v>70</v>
       </c>
       <c r="E116" t="n">
-        <v>70.2</v>
+        <v>70</v>
       </c>
       <c r="F116" t="n">
-        <v>423.8133</v>
+        <v>3819.6014</v>
       </c>
       <c r="G116" t="n">
-        <v>70.80016666666667</v>
+        <v>70.74350000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4637,8 +4789,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4648,22 +4806,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>70.09999999999999</v>
+        <v>70.2</v>
       </c>
       <c r="C117" t="n">
-        <v>70.09999999999999</v>
+        <v>70.2</v>
       </c>
       <c r="D117" t="n">
-        <v>70.09999999999999</v>
+        <v>70.2</v>
       </c>
       <c r="E117" t="n">
-        <v>70.09999999999999</v>
+        <v>70.2</v>
       </c>
       <c r="F117" t="n">
-        <v>1775.6889</v>
+        <v>423.8133</v>
       </c>
       <c r="G117" t="n">
-        <v>70.85516666666668</v>
+        <v>70.80016666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4672,8 +4830,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4695,10 +4859,10 @@
         <v>70.09999999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>5619.8486</v>
+        <v>1775.6889</v>
       </c>
       <c r="G118" t="n">
-        <v>70.88683333333334</v>
+        <v>70.85516666666668</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4707,8 +4871,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4730,10 +4900,10 @@
         <v>70.09999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>430.6108</v>
+        <v>5619.8486</v>
       </c>
       <c r="G119" t="n">
-        <v>70.91850000000002</v>
+        <v>70.88683333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4742,8 +4912,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4753,7 +4929,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>70</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="C120" t="n">
         <v>70.09999999999999</v>
@@ -4762,13 +4938,13 @@
         <v>70.09999999999999</v>
       </c>
       <c r="E120" t="n">
-        <v>70</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>8719.972900000001</v>
+        <v>430.6108</v>
       </c>
       <c r="G120" t="n">
-        <v>70.9501666666667</v>
+        <v>70.91850000000002</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4777,8 +4953,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4788,10 +4970,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>70</v>
+      </c>
+      <c r="C121" t="n">
         <v>70.09999999999999</v>
-      </c>
-      <c r="C121" t="n">
-        <v>70</v>
       </c>
       <c r="D121" t="n">
         <v>70.09999999999999</v>
@@ -4800,10 +4982,10 @@
         <v>70</v>
       </c>
       <c r="F121" t="n">
-        <v>58774.7716</v>
+        <v>8719.972900000001</v>
       </c>
       <c r="G121" t="n">
-        <v>70.97583333333337</v>
+        <v>70.9501666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4812,8 +4994,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4823,22 +5011,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>69.90000000000001</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>69.90000000000001</v>
+        <v>70</v>
       </c>
       <c r="D122" t="n">
-        <v>69.90000000000001</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>69.90000000000001</v>
+        <v>70</v>
       </c>
       <c r="F122" t="n">
-        <v>4677.1205</v>
+        <v>58774.7716</v>
       </c>
       <c r="G122" t="n">
-        <v>70.99983333333336</v>
+        <v>70.97583333333337</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4847,8 +5035,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4858,22 +5052,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>69.51000000000001</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>69.51000000000001</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>69.51000000000001</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>69.51000000000001</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>523.6355</v>
+        <v>4677.1205</v>
       </c>
       <c r="G123" t="n">
-        <v>71.00516666666671</v>
+        <v>70.99983333333336</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4882,8 +5076,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4893,22 +5093,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>69.22</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>68.72</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>69.22</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>68.72</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>114515.9633</v>
+        <v>523.6355</v>
       </c>
       <c r="G124" t="n">
-        <v>70.97883333333337</v>
+        <v>71.00516666666671</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4917,8 +5117,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4928,22 +5134,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>68.72</v>
+        <v>69.22</v>
       </c>
       <c r="C125" t="n">
         <v>68.72</v>
       </c>
       <c r="D125" t="n">
-        <v>68.72</v>
+        <v>69.22</v>
       </c>
       <c r="E125" t="n">
         <v>68.72</v>
       </c>
       <c r="F125" t="n">
-        <v>1329.5908</v>
+        <v>114515.9633</v>
       </c>
       <c r="G125" t="n">
-        <v>70.92366666666672</v>
+        <v>70.97883333333337</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4952,8 +5158,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4963,22 +5175,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>68.8</v>
+        <v>68.72</v>
       </c>
       <c r="C126" t="n">
-        <v>69.90000000000001</v>
+        <v>68.72</v>
       </c>
       <c r="D126" t="n">
-        <v>69.90000000000001</v>
+        <v>68.72</v>
       </c>
       <c r="E126" t="n">
         <v>68.72</v>
       </c>
       <c r="F126" t="n">
-        <v>61841.7928</v>
+        <v>1329.5908</v>
       </c>
       <c r="G126" t="n">
-        <v>70.87883333333338</v>
+        <v>70.92366666666672</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4987,8 +5199,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4998,22 +5216,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>68.73</v>
+        <v>68.8</v>
       </c>
       <c r="C127" t="n">
-        <v>68.73</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>68.73</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>68.73</v>
+        <v>68.72</v>
       </c>
       <c r="F127" t="n">
-        <v>2093.3289</v>
+        <v>61841.7928</v>
       </c>
       <c r="G127" t="n">
-        <v>70.77416666666669</v>
+        <v>70.87883333333338</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5022,8 +5240,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5045,10 +5269,10 @@
         <v>68.73</v>
       </c>
       <c r="F128" t="n">
-        <v>3876.052</v>
+        <v>2093.3289</v>
       </c>
       <c r="G128" t="n">
-        <v>70.63600000000001</v>
+        <v>70.77416666666669</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5057,8 +5281,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5068,22 +5298,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>68.8</v>
+        <v>68.73</v>
       </c>
       <c r="C129" t="n">
-        <v>68.72</v>
+        <v>68.73</v>
       </c>
       <c r="D129" t="n">
-        <v>68.8</v>
+        <v>68.73</v>
       </c>
       <c r="E129" t="n">
-        <v>68.72</v>
+        <v>68.73</v>
       </c>
       <c r="F129" t="n">
-        <v>717.4081</v>
+        <v>3876.052</v>
       </c>
       <c r="G129" t="n">
-        <v>70.50150000000002</v>
+        <v>70.63600000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5092,8 +5322,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5115,10 +5351,10 @@
         <v>68.72</v>
       </c>
       <c r="F130" t="n">
-        <v>1855.7173</v>
+        <v>717.4081</v>
       </c>
       <c r="G130" t="n">
-        <v>70.43033333333337</v>
+        <v>70.50150000000002</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5127,8 +5363,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5138,22 +5380,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>68.72</v>
+        <v>68.8</v>
       </c>
       <c r="C131" t="n">
         <v>68.72</v>
       </c>
       <c r="D131" t="n">
-        <v>68.72</v>
+        <v>68.8</v>
       </c>
       <c r="E131" t="n">
         <v>68.72</v>
       </c>
       <c r="F131" t="n">
-        <v>5602.1946</v>
+        <v>1855.7173</v>
       </c>
       <c r="G131" t="n">
-        <v>70.3606666666667</v>
+        <v>70.43033333333337</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5162,8 +5404,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5185,10 +5433,10 @@
         <v>68.72</v>
       </c>
       <c r="F132" t="n">
-        <v>1842.6494</v>
+        <v>5602.1946</v>
       </c>
       <c r="G132" t="n">
-        <v>70.2926666666667</v>
+        <v>70.3606666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5197,8 +5445,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5220,10 +5474,10 @@
         <v>68.72</v>
       </c>
       <c r="F133" t="n">
-        <v>8409.532300000001</v>
+        <v>1842.6494</v>
       </c>
       <c r="G133" t="n">
-        <v>70.26800000000004</v>
+        <v>70.2926666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5232,8 +5486,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5243,22 +5503,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>68.7</v>
+        <v>68.72</v>
       </c>
       <c r="C134" t="n">
-        <v>68.59999999999999</v>
+        <v>68.72</v>
       </c>
       <c r="D134" t="n">
-        <v>68.7</v>
+        <v>68.72</v>
       </c>
       <c r="E134" t="n">
-        <v>68.59999999999999</v>
+        <v>68.72</v>
       </c>
       <c r="F134" t="n">
-        <v>2238.3358</v>
+        <v>8409.532300000001</v>
       </c>
       <c r="G134" t="n">
-        <v>70.23866666666672</v>
+        <v>70.26800000000004</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5267,8 +5527,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5278,22 +5544,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>68.72</v>
+        <v>68.7</v>
       </c>
       <c r="C135" t="n">
-        <v>68.72</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>68.72</v>
+        <v>68.7</v>
       </c>
       <c r="E135" t="n">
-        <v>68.72</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>9725.9023</v>
+        <v>2238.3358</v>
       </c>
       <c r="G135" t="n">
-        <v>70.21050000000007</v>
+        <v>70.23866666666672</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5302,8 +5568,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5316,19 +5588,19 @@
         <v>68.72</v>
       </c>
       <c r="C136" t="n">
-        <v>68.54000000000001</v>
+        <v>68.72</v>
       </c>
       <c r="D136" t="n">
         <v>68.72</v>
       </c>
       <c r="E136" t="n">
-        <v>68.54000000000001</v>
+        <v>68.72</v>
       </c>
       <c r="F136" t="n">
-        <v>8905.0725</v>
+        <v>9725.9023</v>
       </c>
       <c r="G136" t="n">
-        <v>70.15283333333339</v>
+        <v>70.21050000000007</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5337,8 +5609,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5348,22 +5626,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>69.3</v>
+        <v>68.72</v>
       </c>
       <c r="C137" t="n">
-        <v>69.3</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>69.3</v>
+        <v>68.72</v>
       </c>
       <c r="E137" t="n">
-        <v>69.3</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="F137" t="n">
-        <v>5921.9591</v>
+        <v>8905.0725</v>
       </c>
       <c r="G137" t="n">
-        <v>70.10800000000008</v>
+        <v>70.15283333333339</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5372,8 +5650,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5383,22 +5667,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>69.40000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="C138" t="n">
-        <v>69.40000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="D138" t="n">
-        <v>69.40000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="E138" t="n">
-        <v>69.40000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="F138" t="n">
-        <v>29.4965</v>
+        <v>5921.9591</v>
       </c>
       <c r="G138" t="n">
-        <v>70.09766666666673</v>
+        <v>70.10800000000008</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5407,8 +5691,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5418,22 +5708,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>68.59999999999999</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>68.5</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>68.59999999999999</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>68.5</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="F139" t="n">
-        <v>92265.713</v>
+        <v>29.4965</v>
       </c>
       <c r="G139" t="n">
-        <v>70.07233333333338</v>
+        <v>70.09766666666673</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5442,8 +5732,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5453,22 +5749,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>69.79000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>69.79000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="D140" t="n">
-        <v>69.79000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>69.79000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="F140" t="n">
-        <v>518.6989540048718</v>
+        <v>92265.713</v>
       </c>
       <c r="G140" t="n">
-        <v>70.06883333333339</v>
+        <v>70.07233333333338</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5477,8 +5773,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5500,10 +5802,10 @@
         <v>69.79000000000001</v>
       </c>
       <c r="F141" t="n">
-        <v>5001.6731</v>
+        <v>518.6989540048718</v>
       </c>
       <c r="G141" t="n">
-        <v>70.06366666666671</v>
+        <v>70.06883333333339</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5512,8 +5814,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5535,10 +5843,10 @@
         <v>69.79000000000001</v>
       </c>
       <c r="F142" t="n">
-        <v>3268.4593</v>
+        <v>5001.6731</v>
       </c>
       <c r="G142" t="n">
-        <v>70.05833333333338</v>
+        <v>70.06366666666671</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5547,8 +5855,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5558,22 +5872,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>68.59999999999999</v>
+        <v>69.79000000000001</v>
       </c>
       <c r="C143" t="n">
-        <v>68.5</v>
+        <v>69.79000000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>68.59999999999999</v>
+        <v>69.79000000000001</v>
       </c>
       <c r="E143" t="n">
-        <v>68.5</v>
+        <v>69.79000000000001</v>
       </c>
       <c r="F143" t="n">
-        <v>13401.5013</v>
+        <v>3268.4593</v>
       </c>
       <c r="G143" t="n">
-        <v>70.03166666666671</v>
+        <v>70.05833333333338</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5582,8 +5896,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5593,22 +5913,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>69.59</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>69.59</v>
+        <v>68.5</v>
       </c>
       <c r="D144" t="n">
-        <v>69.59</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E144" t="n">
-        <v>69.59</v>
+        <v>68.5</v>
       </c>
       <c r="F144" t="n">
-        <v>8</v>
+        <v>13401.5013</v>
       </c>
       <c r="G144" t="n">
-        <v>70.0231666666667</v>
+        <v>70.03166666666671</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5617,8 +5937,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5640,10 +5966,10 @@
         <v>69.59</v>
       </c>
       <c r="F145" t="n">
-        <v>1459.7631</v>
+        <v>8</v>
       </c>
       <c r="G145" t="n">
-        <v>70.0146666666667</v>
+        <v>70.0231666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5652,8 +5978,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5675,10 +6007,10 @@
         <v>69.59</v>
       </c>
       <c r="F146" t="n">
-        <v>395.7399</v>
+        <v>1459.7631</v>
       </c>
       <c r="G146" t="n">
-        <v>70.00450000000004</v>
+        <v>70.0146666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5687,8 +6019,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5710,10 +6048,10 @@
         <v>69.59</v>
       </c>
       <c r="F147" t="n">
-        <v>3976.1255</v>
+        <v>395.7399</v>
       </c>
       <c r="G147" t="n">
-        <v>69.97266666666671</v>
+        <v>70.00450000000004</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5722,8 +6060,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5733,22 +6077,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>69.7</v>
+        <v>69.59</v>
       </c>
       <c r="C148" t="n">
-        <v>69.7</v>
+        <v>69.59</v>
       </c>
       <c r="D148" t="n">
-        <v>69.7</v>
+        <v>69.59</v>
       </c>
       <c r="E148" t="n">
-        <v>69.7</v>
+        <v>69.59</v>
       </c>
       <c r="F148" t="n">
-        <v>2069.0102</v>
+        <v>3976.1255</v>
       </c>
       <c r="G148" t="n">
-        <v>69.9561666666667</v>
+        <v>69.97266666666671</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5757,8 +6101,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5768,22 +6118,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>68.5</v>
+        <v>69.7</v>
       </c>
       <c r="C149" t="n">
-        <v>68.3</v>
+        <v>69.7</v>
       </c>
       <c r="D149" t="n">
-        <v>68.5</v>
+        <v>69.7</v>
       </c>
       <c r="E149" t="n">
-        <v>68.3</v>
+        <v>69.7</v>
       </c>
       <c r="F149" t="n">
-        <v>12428.1659</v>
+        <v>2069.0102</v>
       </c>
       <c r="G149" t="n">
-        <v>69.91783333333338</v>
+        <v>69.9561666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5792,8 +6142,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5803,22 +6159,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>69.59</v>
+        <v>68.5</v>
       </c>
       <c r="C150" t="n">
-        <v>69.59</v>
+        <v>68.3</v>
       </c>
       <c r="D150" t="n">
-        <v>69.59</v>
+        <v>68.5</v>
       </c>
       <c r="E150" t="n">
-        <v>69.59</v>
+        <v>68.3</v>
       </c>
       <c r="F150" t="n">
-        <v>29.6186</v>
+        <v>12428.1659</v>
       </c>
       <c r="G150" t="n">
-        <v>69.87866666666672</v>
+        <v>69.91783333333338</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5827,8 +6183,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5838,22 +6200,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>68.3</v>
+        <v>69.59</v>
       </c>
       <c r="C151" t="n">
-        <v>68.3</v>
+        <v>69.59</v>
       </c>
       <c r="D151" t="n">
-        <v>68.3</v>
+        <v>69.59</v>
       </c>
       <c r="E151" t="n">
-        <v>68.3</v>
+        <v>69.59</v>
       </c>
       <c r="F151" t="n">
-        <v>120</v>
+        <v>29.6186</v>
       </c>
       <c r="G151" t="n">
-        <v>69.83866666666673</v>
+        <v>69.87866666666672</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5862,8 +6224,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5873,22 +6241,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>68.34</v>
+        <v>68.3</v>
       </c>
       <c r="C152" t="n">
-        <v>68.34</v>
+        <v>68.3</v>
       </c>
       <c r="D152" t="n">
-        <v>68.34</v>
+        <v>68.3</v>
       </c>
       <c r="E152" t="n">
-        <v>68.34</v>
+        <v>68.3</v>
       </c>
       <c r="F152" t="n">
-        <v>2404.7364</v>
+        <v>120</v>
       </c>
       <c r="G152" t="n">
-        <v>69.79766666666673</v>
+        <v>69.83866666666673</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5897,8 +6265,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5908,22 +6282,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>69.39</v>
+        <v>68.34</v>
       </c>
       <c r="C153" t="n">
-        <v>69.39</v>
+        <v>68.34</v>
       </c>
       <c r="D153" t="n">
-        <v>69.39</v>
+        <v>68.34</v>
       </c>
       <c r="E153" t="n">
-        <v>69.39</v>
+        <v>68.34</v>
       </c>
       <c r="F153" t="n">
-        <v>939.4596</v>
+        <v>2404.7364</v>
       </c>
       <c r="G153" t="n">
-        <v>69.7738333333334</v>
+        <v>69.79766666666673</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5932,8 +6306,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5943,22 +6323,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>68.34</v>
+        <v>69.39</v>
       </c>
       <c r="C154" t="n">
-        <v>68.34</v>
+        <v>69.39</v>
       </c>
       <c r="D154" t="n">
-        <v>68.34</v>
+        <v>69.39</v>
       </c>
       <c r="E154" t="n">
-        <v>68.34</v>
+        <v>69.39</v>
       </c>
       <c r="F154" t="n">
-        <v>251.9952</v>
+        <v>939.4596</v>
       </c>
       <c r="G154" t="n">
-        <v>69.73616666666673</v>
+        <v>69.7738333333334</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5967,8 +6347,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5978,22 +6364,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>69.39</v>
+        <v>68.34</v>
       </c>
       <c r="C155" t="n">
-        <v>69.39</v>
+        <v>68.34</v>
       </c>
       <c r="D155" t="n">
-        <v>69.39</v>
+        <v>68.34</v>
       </c>
       <c r="E155" t="n">
-        <v>69.39</v>
+        <v>68.34</v>
       </c>
       <c r="F155" t="n">
-        <v>700</v>
+        <v>251.9952</v>
       </c>
       <c r="G155" t="n">
-        <v>69.71600000000007</v>
+        <v>69.73616666666673</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6002,8 +6388,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6025,10 +6417,10 @@
         <v>69.39</v>
       </c>
       <c r="F156" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="G156" t="n">
-        <v>69.6958333333334</v>
+        <v>69.71600000000007</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6037,8 +6429,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6048,22 +6446,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>68.34</v>
+        <v>69.39</v>
       </c>
       <c r="C157" t="n">
-        <v>68.34</v>
+        <v>69.39</v>
       </c>
       <c r="D157" t="n">
-        <v>68.34</v>
+        <v>69.39</v>
       </c>
       <c r="E157" t="n">
-        <v>68.34</v>
+        <v>69.39</v>
       </c>
       <c r="F157" t="n">
-        <v>4540.794</v>
+        <v>1400</v>
       </c>
       <c r="G157" t="n">
-        <v>69.66316666666673</v>
+        <v>69.6958333333334</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6072,8 +6470,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6086,19 +6490,19 @@
         <v>68.34</v>
       </c>
       <c r="C158" t="n">
-        <v>68.3</v>
+        <v>68.34</v>
       </c>
       <c r="D158" t="n">
         <v>68.34</v>
       </c>
       <c r="E158" t="n">
-        <v>68.3</v>
+        <v>68.34</v>
       </c>
       <c r="F158" t="n">
-        <v>2270.397</v>
+        <v>4540.794</v>
       </c>
       <c r="G158" t="n">
-        <v>69.63216666666673</v>
+        <v>69.66316666666673</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6107,8 +6511,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6118,22 +6528,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>68.33</v>
+        <v>68.34</v>
       </c>
       <c r="C159" t="n">
         <v>68.3</v>
       </c>
       <c r="D159" t="n">
-        <v>68.33</v>
+        <v>68.34</v>
       </c>
       <c r="E159" t="n">
         <v>68.3</v>
       </c>
       <c r="F159" t="n">
-        <v>13795.2514</v>
+        <v>2270.397</v>
       </c>
       <c r="G159" t="n">
-        <v>69.60116666666674</v>
+        <v>69.63216666666673</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6142,8 +6552,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6153,22 +6569,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>69.29000000000001</v>
+        <v>68.33</v>
       </c>
       <c r="C160" t="n">
-        <v>69.29000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="D160" t="n">
-        <v>69.29000000000001</v>
+        <v>68.33</v>
       </c>
       <c r="E160" t="n">
-        <v>69.29000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="F160" t="n">
-        <v>7.3</v>
+        <v>13795.2514</v>
       </c>
       <c r="G160" t="n">
-        <v>69.57566666666675</v>
+        <v>69.60116666666674</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6177,8 +6593,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6188,22 +6610,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>68.34999999999999</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="C161" t="n">
-        <v>68.34999999999999</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="D161" t="n">
-        <v>68.34999999999999</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="E161" t="n">
-        <v>68.34999999999999</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="F161" t="n">
-        <v>14827.7606</v>
+        <v>7.3</v>
       </c>
       <c r="G161" t="n">
-        <v>69.53300000000009</v>
+        <v>69.57566666666675</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6212,8 +6634,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6223,22 +6651,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>68.36</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="C162" t="n">
-        <v>68.36</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="D162" t="n">
-        <v>68.36</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="E162" t="n">
-        <v>68.36</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="F162" t="n">
-        <v>13610.5456</v>
+        <v>14827.7606</v>
       </c>
       <c r="G162" t="n">
-        <v>69.47416666666673</v>
+        <v>69.53300000000009</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6247,8 +6675,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6258,22 +6692,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>69.29000000000001</v>
+        <v>68.36</v>
       </c>
       <c r="C163" t="n">
-        <v>69.29000000000001</v>
+        <v>68.36</v>
       </c>
       <c r="D163" t="n">
-        <v>69.29000000000001</v>
+        <v>68.36</v>
       </c>
       <c r="E163" t="n">
-        <v>69.29000000000001</v>
+        <v>68.36</v>
       </c>
       <c r="F163" t="n">
-        <v>4159.406</v>
+        <v>13610.5456</v>
       </c>
       <c r="G163" t="n">
-        <v>69.44733333333342</v>
+        <v>69.47416666666673</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6282,8 +6716,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6305,10 +6745,10 @@
         <v>69.29000000000001</v>
       </c>
       <c r="F164" t="n">
-        <v>1840.2402</v>
+        <v>4159.406</v>
       </c>
       <c r="G164" t="n">
-        <v>69.43333333333341</v>
+        <v>69.44733333333342</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6317,8 +6757,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6340,10 +6786,10 @@
         <v>69.29000000000001</v>
       </c>
       <c r="F165" t="n">
-        <v>3355.8962</v>
+        <v>1840.2402</v>
       </c>
       <c r="G165" t="n">
-        <v>69.41933333333341</v>
+        <v>69.43333333333341</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6352,8 +6798,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6363,22 +6815,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>69.7</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="C166" t="n">
-        <v>69.79000000000001</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="D166" t="n">
-        <v>69.79000000000001</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="E166" t="n">
-        <v>69.7</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="F166" t="n">
-        <v>3998.964423298467</v>
+        <v>3355.8962</v>
       </c>
       <c r="G166" t="n">
-        <v>69.41500000000006</v>
+        <v>69.41933333333341</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6387,8 +6839,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6398,22 +6856,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>68.94</v>
+        <v>69.7</v>
       </c>
       <c r="C167" t="n">
-        <v>68.94</v>
+        <v>69.79000000000001</v>
       </c>
       <c r="D167" t="n">
-        <v>68.94</v>
+        <v>69.79000000000001</v>
       </c>
       <c r="E167" t="n">
-        <v>68.94</v>
+        <v>69.7</v>
       </c>
       <c r="F167" t="n">
-        <v>10445.4983</v>
+        <v>3998.964423298467</v>
       </c>
       <c r="G167" t="n">
-        <v>69.40400000000005</v>
+        <v>69.41500000000006</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6422,8 +6880,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6433,22 +6897,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>69.78</v>
+        <v>68.94</v>
       </c>
       <c r="C168" t="n">
-        <v>69</v>
+        <v>68.94</v>
       </c>
       <c r="D168" t="n">
-        <v>69.78</v>
+        <v>68.94</v>
       </c>
       <c r="E168" t="n">
-        <v>69</v>
+        <v>68.94</v>
       </c>
       <c r="F168" t="n">
-        <v>4989.5695</v>
+        <v>10445.4983</v>
       </c>
       <c r="G168" t="n">
-        <v>69.39400000000005</v>
+        <v>69.40400000000005</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6457,8 +6921,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6471,19 +6941,19 @@
         <v>69.78</v>
       </c>
       <c r="C169" t="n">
-        <v>69.79000000000001</v>
+        <v>69</v>
       </c>
       <c r="D169" t="n">
-        <v>69.79000000000001</v>
+        <v>69.78</v>
       </c>
       <c r="E169" t="n">
-        <v>69.78</v>
+        <v>69</v>
       </c>
       <c r="F169" t="n">
-        <v>4010.0198</v>
+        <v>4989.5695</v>
       </c>
       <c r="G169" t="n">
-        <v>69.36933333333337</v>
+        <v>69.39400000000005</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6492,8 +6962,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6503,22 +6979,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
+        <v>69.78</v>
+      </c>
+      <c r="C170" t="n">
         <v>69.79000000000001</v>
       </c>
-      <c r="C170" t="n">
-        <v>69.89</v>
-      </c>
       <c r="D170" t="n">
-        <v>69.89</v>
+        <v>69.79000000000001</v>
       </c>
       <c r="E170" t="n">
-        <v>69.79000000000001</v>
+        <v>69.78</v>
       </c>
       <c r="F170" t="n">
-        <v>16085.51977670153</v>
+        <v>4010.0198</v>
       </c>
       <c r="G170" t="n">
-        <v>69.34633333333338</v>
+        <v>69.36933333333337</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6527,8 +7003,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6538,22 +7020,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>70.63</v>
+        <v>69.79000000000001</v>
       </c>
       <c r="C171" t="n">
-        <v>70.63</v>
+        <v>69.89</v>
       </c>
       <c r="D171" t="n">
-        <v>70.63</v>
+        <v>69.89</v>
       </c>
       <c r="E171" t="n">
-        <v>70.63</v>
+        <v>69.79000000000001</v>
       </c>
       <c r="F171" t="n">
-        <v>161.7863</v>
+        <v>16085.51977670153</v>
       </c>
       <c r="G171" t="n">
-        <v>69.32383333333338</v>
+        <v>69.34633333333338</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6562,8 +7044,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6573,22 +7061,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>70.98999999999999</v>
+        <v>70.63</v>
       </c>
       <c r="C172" t="n">
         <v>70.63</v>
       </c>
       <c r="D172" t="n">
-        <v>70.98999999999999</v>
+        <v>70.63</v>
       </c>
       <c r="E172" t="n">
         <v>70.63</v>
       </c>
       <c r="F172" t="n">
-        <v>661.6052</v>
+        <v>161.7863</v>
       </c>
       <c r="G172" t="n">
-        <v>69.30133333333339</v>
+        <v>69.32383333333338</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6597,8 +7085,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6608,22 +7102,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>70.69</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="C173" t="n">
-        <v>70.69</v>
+        <v>70.63</v>
       </c>
       <c r="D173" t="n">
-        <v>70.69</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="E173" t="n">
-        <v>70.69</v>
+        <v>70.63</v>
       </c>
       <c r="F173" t="n">
-        <v>5571.1194</v>
+        <v>661.6052</v>
       </c>
       <c r="G173" t="n">
-        <v>69.28950000000006</v>
+        <v>69.30133333333339</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6632,8 +7126,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6643,22 +7143,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>70.90000000000001</v>
+        <v>70.69</v>
       </c>
       <c r="C174" t="n">
-        <v>70.98999999999999</v>
+        <v>70.69</v>
       </c>
       <c r="D174" t="n">
-        <v>70.98999999999999</v>
+        <v>70.69</v>
       </c>
       <c r="E174" t="n">
-        <v>70.90000000000001</v>
+        <v>70.69</v>
       </c>
       <c r="F174" t="n">
-        <v>4591.0567</v>
+        <v>5571.1194</v>
       </c>
       <c r="G174" t="n">
-        <v>69.29333333333338</v>
+        <v>69.28950000000006</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6667,8 +7167,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6678,22 +7184,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="C175" t="n">
         <v>70.98999999999999</v>
       </c>
-      <c r="C175" t="n">
-        <v>71</v>
-      </c>
       <c r="D175" t="n">
-        <v>71</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="E175" t="n">
-        <v>70.98999999999999</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="F175" t="n">
-        <v>2151.9741</v>
+        <v>4591.0567</v>
       </c>
       <c r="G175" t="n">
-        <v>69.31000000000004</v>
+        <v>69.29333333333338</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6702,8 +7208,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6713,7 +7225,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>71</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="C176" t="n">
         <v>71</v>
@@ -6722,13 +7234,13 @@
         <v>71</v>
       </c>
       <c r="E176" t="n">
-        <v>71</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="F176" t="n">
-        <v>5948.249</v>
+        <v>2151.9741</v>
       </c>
       <c r="G176" t="n">
-        <v>69.32333333333339</v>
+        <v>69.31000000000004</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6737,8 +7249,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6748,22 +7266,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>70.13</v>
+        <v>71</v>
       </c>
       <c r="C177" t="n">
-        <v>70.13</v>
+        <v>71</v>
       </c>
       <c r="D177" t="n">
-        <v>70.13</v>
+        <v>71</v>
       </c>
       <c r="E177" t="n">
-        <v>70.13</v>
+        <v>71</v>
       </c>
       <c r="F177" t="n">
-        <v>1562.8465</v>
+        <v>5948.249</v>
       </c>
       <c r="G177" t="n">
-        <v>69.32383333333338</v>
+        <v>69.32333333333339</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6772,8 +7290,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6783,22 +7307,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>70.12</v>
+        <v>70.13</v>
       </c>
       <c r="C178" t="n">
-        <v>70.12</v>
+        <v>70.13</v>
       </c>
       <c r="D178" t="n">
-        <v>70.12</v>
+        <v>70.13</v>
       </c>
       <c r="E178" t="n">
-        <v>70.12</v>
+        <v>70.13</v>
       </c>
       <c r="F178" t="n">
-        <v>12323.4002</v>
+        <v>1562.8465</v>
       </c>
       <c r="G178" t="n">
-        <v>69.32416666666671</v>
+        <v>69.32383333333338</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6807,8 +7331,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6818,19 +7348,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>70.2</v>
+        <v>70.12</v>
       </c>
       <c r="C179" t="n">
-        <v>70.09999999999999</v>
+        <v>70.12</v>
       </c>
       <c r="D179" t="n">
-        <v>70.2</v>
+        <v>70.12</v>
       </c>
       <c r="E179" t="n">
-        <v>70.09999999999999</v>
+        <v>70.12</v>
       </c>
       <c r="F179" t="n">
-        <v>6933.9776</v>
+        <v>12323.4002</v>
       </c>
       <c r="G179" t="n">
         <v>69.32416666666671</v>
@@ -6842,8 +7372,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6853,22 +7389,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>70.98999999999999</v>
+        <v>70.2</v>
       </c>
       <c r="C180" t="n">
-        <v>70.98999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="D180" t="n">
-        <v>70.98999999999999</v>
+        <v>70.2</v>
       </c>
       <c r="E180" t="n">
-        <v>70.98999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F180" t="n">
-        <v>1405.1364</v>
+        <v>6933.9776</v>
       </c>
       <c r="G180" t="n">
-        <v>69.33900000000003</v>
+        <v>69.32416666666671</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6877,8 +7413,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6888,22 +7430,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>70.20999999999999</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="C181" t="n">
-        <v>70.20999999999999</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="D181" t="n">
-        <v>70.20999999999999</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="E181" t="n">
-        <v>70.20999999999999</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="F181" t="n">
-        <v>6240.5798</v>
+        <v>1405.1364</v>
       </c>
       <c r="G181" t="n">
-        <v>69.34250000000003</v>
+        <v>69.33900000000003</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6912,8 +7454,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6923,22 +7471,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>70.98999999999999</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="C182" t="n">
-        <v>70.98999999999999</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="D182" t="n">
-        <v>70.98999999999999</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="E182" t="n">
-        <v>70.98999999999999</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="F182" t="n">
-        <v>42.14</v>
+        <v>6240.5798</v>
       </c>
       <c r="G182" t="n">
-        <v>69.3606666666667</v>
+        <v>69.34250000000003</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6947,8 +7495,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6970,10 +7524,10 @@
         <v>70.98999999999999</v>
       </c>
       <c r="F183" t="n">
-        <v>20000</v>
+        <v>42.14</v>
       </c>
       <c r="G183" t="n">
-        <v>69.38533333333336</v>
+        <v>69.3606666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6982,8 +7536,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7005,10 +7565,10 @@
         <v>70.98999999999999</v>
       </c>
       <c r="F184" t="n">
-        <v>799.4788</v>
+        <v>20000</v>
       </c>
       <c r="G184" t="n">
-        <v>69.42316666666669</v>
+        <v>69.38533333333336</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7017,8 +7577,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7028,22 +7594,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>71.2</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="C185" t="n">
-        <v>71.2</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="D185" t="n">
-        <v>71.2</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="E185" t="n">
-        <v>71.2</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="F185" t="n">
-        <v>1654.6165</v>
+        <v>799.4788</v>
       </c>
       <c r="G185" t="n">
-        <v>69.46450000000002</v>
+        <v>69.42316666666669</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7052,8 +7618,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7063,22 +7635,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>71.23999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="C186" t="n">
-        <v>71.25</v>
+        <v>71.2</v>
       </c>
       <c r="D186" t="n">
-        <v>71.25</v>
+        <v>71.2</v>
       </c>
       <c r="E186" t="n">
-        <v>71.23999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="F186" t="n">
-        <v>10174.859</v>
+        <v>1654.6165</v>
       </c>
       <c r="G186" t="n">
-        <v>69.48700000000002</v>
+        <v>69.46450000000002</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7087,8 +7659,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7098,7 +7676,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>71.25</v>
+        <v>71.23999999999999</v>
       </c>
       <c r="C187" t="n">
         <v>71.25</v>
@@ -7107,13 +7685,13 @@
         <v>71.25</v>
       </c>
       <c r="E187" t="n">
-        <v>71.25</v>
+        <v>71.23999999999999</v>
       </c>
       <c r="F187" t="n">
-        <v>2265.508</v>
+        <v>10174.859</v>
       </c>
       <c r="G187" t="n">
-        <v>69.52900000000002</v>
+        <v>69.48700000000002</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7122,8 +7700,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7133,22 +7717,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>70.25</v>
+        <v>71.25</v>
       </c>
       <c r="C188" t="n">
-        <v>70.25</v>
+        <v>71.25</v>
       </c>
       <c r="D188" t="n">
-        <v>70.25</v>
+        <v>71.25</v>
       </c>
       <c r="E188" t="n">
-        <v>70.25</v>
+        <v>71.25</v>
       </c>
       <c r="F188" t="n">
-        <v>5232.3445</v>
+        <v>2265.508</v>
       </c>
       <c r="G188" t="n">
-        <v>69.55433333333336</v>
+        <v>69.52900000000002</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7157,8 +7741,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7168,22 +7758,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>70.8</v>
+        <v>70.25</v>
       </c>
       <c r="C189" t="n">
-        <v>70.65000000000001</v>
+        <v>70.25</v>
       </c>
       <c r="D189" t="n">
-        <v>70.8</v>
+        <v>70.25</v>
       </c>
       <c r="E189" t="n">
-        <v>70.65000000000001</v>
+        <v>70.25</v>
       </c>
       <c r="F189" t="n">
-        <v>5001.6731</v>
+        <v>5232.3445</v>
       </c>
       <c r="G189" t="n">
-        <v>69.58650000000003</v>
+        <v>69.55433333333336</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7192,8 +7782,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7203,22 +7799,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>71</v>
+        <v>70.8</v>
       </c>
       <c r="C190" t="n">
-        <v>71</v>
+        <v>70.65000000000001</v>
       </c>
       <c r="D190" t="n">
-        <v>71</v>
+        <v>70.8</v>
       </c>
       <c r="E190" t="n">
-        <v>71</v>
+        <v>70.65000000000001</v>
       </c>
       <c r="F190" t="n">
-        <v>21350.8964</v>
+        <v>5001.6731</v>
       </c>
       <c r="G190" t="n">
-        <v>69.62450000000003</v>
+        <v>69.58650000000003</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7227,8 +7823,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7238,22 +7840,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>70.90000000000001</v>
+        <v>71</v>
       </c>
       <c r="C191" t="n">
-        <v>70.90000000000001</v>
+        <v>71</v>
       </c>
       <c r="D191" t="n">
-        <v>70.90000000000001</v>
+        <v>71</v>
       </c>
       <c r="E191" t="n">
-        <v>70.90000000000001</v>
+        <v>71</v>
       </c>
       <c r="F191" t="n">
-        <v>14.1605</v>
+        <v>21350.8964</v>
       </c>
       <c r="G191" t="n">
-        <v>69.66083333333334</v>
+        <v>69.62450000000003</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7262,8 +7864,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7273,22 +7881,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>70.65000000000001</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="C192" t="n">
-        <v>70.65000000000001</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="D192" t="n">
-        <v>70.65000000000001</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="E192" t="n">
-        <v>70.65000000000001</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="F192" t="n">
-        <v>70.4036</v>
+        <v>14.1605</v>
       </c>
       <c r="G192" t="n">
-        <v>69.693</v>
+        <v>69.66083333333334</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7297,8 +7905,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7308,22 +7922,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>70.90000000000001</v>
+        <v>70.65000000000001</v>
       </c>
       <c r="C193" t="n">
-        <v>70.90000000000001</v>
+        <v>70.65000000000001</v>
       </c>
       <c r="D193" t="n">
-        <v>70.90000000000001</v>
+        <v>70.65000000000001</v>
       </c>
       <c r="E193" t="n">
-        <v>70.90000000000001</v>
+        <v>70.65000000000001</v>
       </c>
       <c r="F193" t="n">
-        <v>2081.8941</v>
+        <v>70.4036</v>
       </c>
       <c r="G193" t="n">
-        <v>69.72933333333332</v>
+        <v>69.693</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7332,8 +7946,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7343,22 +7963,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>71</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="C194" t="n">
-        <v>71</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="D194" t="n">
-        <v>71</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="E194" t="n">
-        <v>71</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="F194" t="n">
-        <v>4103.2685</v>
+        <v>2081.8941</v>
       </c>
       <c r="G194" t="n">
-        <v>69.76933333333332</v>
+        <v>69.72933333333332</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7367,8 +7987,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7390,10 +8016,10 @@
         <v>71</v>
       </c>
       <c r="F195" t="n">
-        <v>6910.5479</v>
+        <v>4103.2685</v>
       </c>
       <c r="G195" t="n">
-        <v>69.80733333333332</v>
+        <v>69.76933333333332</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7402,8 +8028,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7425,10 +8057,10 @@
         <v>71</v>
       </c>
       <c r="F196" t="n">
-        <v>1767.0671</v>
+        <v>6910.5479</v>
       </c>
       <c r="G196" t="n">
-        <v>69.84833333333331</v>
+        <v>69.80733333333332</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7437,8 +8069,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7451,19 +8089,19 @@
         <v>71</v>
       </c>
       <c r="C197" t="n">
-        <v>71.2</v>
+        <v>71</v>
       </c>
       <c r="D197" t="n">
-        <v>71.2</v>
+        <v>71</v>
       </c>
       <c r="E197" t="n">
         <v>71</v>
       </c>
       <c r="F197" t="n">
-        <v>5772.6384</v>
+        <v>1767.0671</v>
       </c>
       <c r="G197" t="n">
-        <v>69.87999999999997</v>
+        <v>69.84833333333331</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7472,8 +8110,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7483,22 +8127,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>70.8</v>
+        <v>71</v>
       </c>
       <c r="C198" t="n">
-        <v>70.65000000000001</v>
+        <v>71.2</v>
       </c>
       <c r="D198" t="n">
-        <v>70.8</v>
+        <v>71.2</v>
       </c>
       <c r="E198" t="n">
-        <v>70.65000000000001</v>
+        <v>71</v>
       </c>
       <c r="F198" t="n">
-        <v>8500</v>
+        <v>5772.6384</v>
       </c>
       <c r="G198" t="n">
-        <v>69.90083333333331</v>
+        <v>69.87999999999997</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7507,8 +8151,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7518,33 +8168,80 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="C199" t="n">
         <v>70.65000000000001</v>
       </c>
-      <c r="C199" t="n">
+      <c r="D199" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="E199" t="n">
+        <v>70.65000000000001</v>
+      </c>
+      <c r="F199" t="n">
+        <v>8500</v>
+      </c>
+      <c r="G199" t="n">
+        <v>69.90083333333331</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>70.65000000000001</v>
+      </c>
+      <c r="C200" t="n">
         <v>70.5</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D200" t="n">
         <v>70.65000000000001</v>
       </c>
-      <c r="E199" t="n">
+      <c r="E200" t="n">
         <v>70.5</v>
       </c>
-      <c r="F199" t="n">
+      <c r="F200" t="n">
         <v>400</v>
       </c>
-      <c r="G199" t="n">
+      <c r="G200" t="n">
         <v>69.93416666666664</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest WOM.xlsx
+++ b/BackTest/2020-01-19 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M200"/>
+  <dimension ref="A1:N210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>9440.854600000001</v>
       </c>
       <c r="G2" t="n">
+        <v>68.45400000000001</v>
+      </c>
+      <c r="H2" t="n">
         <v>69.74166666666673</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>600</v>
       </c>
       <c r="G3" t="n">
+        <v>68.44133333333335</v>
+      </c>
+      <c r="H3" t="n">
         <v>69.67383333333338</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>3000</v>
       </c>
       <c r="G4" t="n">
+        <v>68.42866666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>69.60683333333337</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>9036.785900000001</v>
       </c>
       <c r="G5" t="n">
+        <v>68.41666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>69.5356666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>40007.7963</v>
       </c>
       <c r="G6" t="n">
+        <v>68.32466666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>69.46233333333338</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>10001.949</v>
       </c>
       <c r="G7" t="n">
+        <v>68.25866666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>69.38816666666671</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1205.8303</v>
       </c>
       <c r="G8" t="n">
+        <v>68.31399999999999</v>
+      </c>
+      <c r="H8" t="n">
         <v>69.32550000000005</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1396.4119</v>
       </c>
       <c r="G9" t="n">
+        <v>68.27399999999999</v>
+      </c>
+      <c r="H9" t="n">
         <v>69.26866666666669</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>25.516</v>
       </c>
       <c r="G10" t="n">
+        <v>68.33199999999998</v>
+      </c>
+      <c r="H10" t="n">
         <v>69.17900000000003</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>9811.289000000001</v>
       </c>
       <c r="G11" t="n">
+        <v>68.3253333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>69.12366666666669</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>17560.1731</v>
       </c>
       <c r="G12" t="n">
+        <v>68.38399999999997</v>
+      </c>
+      <c r="H12" t="n">
         <v>69.06833333333337</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>13611.3719</v>
       </c>
       <c r="G13" t="n">
+        <v>68.44266666666663</v>
+      </c>
+      <c r="H13" t="n">
         <v>69.01300000000005</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>44236.7141</v>
       </c>
       <c r="G14" t="n">
+        <v>68.43466666666662</v>
+      </c>
+      <c r="H14" t="n">
         <v>68.91016666666671</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>54.259</v>
       </c>
       <c r="G15" t="n">
+        <v>68.42866666666663</v>
+      </c>
+      <c r="H15" t="n">
         <v>68.85016666666671</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>1602.2422</v>
       </c>
       <c r="G16" t="n">
+        <v>68.42199999999997</v>
+      </c>
+      <c r="H16" t="n">
         <v>68.79016666666671</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>11641.122</v>
       </c>
       <c r="G17" t="n">
+        <v>68.40266666666663</v>
+      </c>
+      <c r="H17" t="n">
         <v>68.7351666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>3418.7448</v>
       </c>
       <c r="G18" t="n">
+        <v>68.3873333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>68.69850000000004</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>189.3495</v>
       </c>
       <c r="G19" t="n">
+        <v>68.36133333333331</v>
+      </c>
+      <c r="H19" t="n">
         <v>68.65916666666672</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>170.4383</v>
       </c>
       <c r="G20" t="n">
+        <v>68.33466666666665</v>
+      </c>
+      <c r="H20" t="n">
         <v>68.61933333333337</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>10478.4959</v>
       </c>
       <c r="G21" t="n">
+        <v>68.27399999999997</v>
+      </c>
+      <c r="H21" t="n">
         <v>68.57050000000005</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>33210.2362</v>
       </c>
       <c r="G22" t="n">
+        <v>68.17999999999998</v>
+      </c>
+      <c r="H22" t="n">
         <v>68.51216666666672</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>68284.4578</v>
       </c>
       <c r="G23" t="n">
+        <v>67.99066666666664</v>
+      </c>
+      <c r="H23" t="n">
         <v>68.44850000000004</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>3844.7195</v>
       </c>
       <c r="G24" t="n">
+        <v>67.82466666666664</v>
+      </c>
+      <c r="H24" t="n">
         <v>68.38516666666671</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>6268.719</v>
       </c>
       <c r="G25" t="n">
+        <v>67.65866666666663</v>
+      </c>
+      <c r="H25" t="n">
         <v>68.33683333333337</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>9305.6967</v>
       </c>
       <c r="G26" t="n">
+        <v>67.49266666666664</v>
+      </c>
+      <c r="H26" t="n">
         <v>68.29683333333338</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>4654.5436</v>
       </c>
       <c r="G27" t="n">
+        <v>67.32666666666664</v>
+      </c>
+      <c r="H27" t="n">
         <v>68.26516666666673</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>2884.8388</v>
       </c>
       <c r="G28" t="n">
+        <v>67.16066666666663</v>
+      </c>
+      <c r="H28" t="n">
         <v>68.22516666666674</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>1459.366881503915</v>
       </c>
       <c r="G29" t="n">
+        <v>67.13799999999996</v>
+      </c>
+      <c r="H29" t="n">
         <v>68.21000000000006</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>1852.376</v>
       </c>
       <c r="G30" t="n">
+        <v>67.05533333333329</v>
+      </c>
+      <c r="H30" t="n">
         <v>68.16833333333339</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>8</v>
       </c>
       <c r="G31" t="n">
+        <v>66.9733333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>68.13783333333339</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>4320.9988</v>
       </c>
       <c r="G32" t="n">
+        <v>66.9053333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>68.10916666666672</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>738.1348</v>
       </c>
       <c r="G33" t="n">
+        <v>66.83733333333331</v>
+      </c>
+      <c r="H33" t="n">
         <v>68.0688333333334</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>0.8652</v>
       </c>
       <c r="G34" t="n">
+        <v>66.77999999999996</v>
+      </c>
+      <c r="H34" t="n">
         <v>68.04016666666672</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>12589.719</v>
       </c>
       <c r="G35" t="n">
+        <v>66.68466666666663</v>
+      </c>
+      <c r="H35" t="n">
         <v>68.00133333333339</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,22 +1745,21 @@
         <v>28755.7513</v>
       </c>
       <c r="G36" t="n">
+        <v>66.62466666666663</v>
+      </c>
+      <c r="H36" t="n">
         <v>67.96250000000005</v>
       </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="K36" t="n">
-        <v>66.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1677,1388 +1783,1468 @@
         <v>18676.242</v>
       </c>
       <c r="G37" t="n">
+        <v>66.62399999999995</v>
+      </c>
+      <c r="H37" t="n">
         <v>67.93033333333338</v>
       </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="L37" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C38" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="D38" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E38" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="F38" t="n">
+        <v>12926.0642</v>
+      </c>
+      <c r="G38" t="n">
+        <v>66.64999999999995</v>
+      </c>
+      <c r="H38" t="n">
+        <v>67.89850000000004</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="C39" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="D39" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="E39" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="F39" t="n">
+        <v>13560.6064</v>
+      </c>
+      <c r="G39" t="n">
+        <v>66.67599999999995</v>
+      </c>
+      <c r="H39" t="n">
+        <v>67.84350000000005</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="C40" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="D40" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="E40" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="F40" t="n">
+        <v>616.8745</v>
+      </c>
+      <c r="G40" t="n">
+        <v>66.68799999999995</v>
+      </c>
+      <c r="H40" t="n">
+        <v>67.79166666666671</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>67.56999999999999</v>
+      </c>
+      <c r="C41" t="n">
+        <v>67.56999999999999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>67.56999999999999</v>
+      </c>
+      <c r="E41" t="n">
+        <v>67.56999999999999</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4439.840165754033</v>
+      </c>
+      <c r="G41" t="n">
+        <v>66.75266666666661</v>
+      </c>
+      <c r="H41" t="n">
+        <v>67.77783333333339</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="L41" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>67.55</v>
+      </c>
+      <c r="C42" t="n">
+        <v>67.55</v>
+      </c>
+      <c r="D42" t="n">
+        <v>67.55</v>
+      </c>
+      <c r="E42" t="n">
+        <v>67.55</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1039.659511472983</v>
+      </c>
+      <c r="G42" t="n">
+        <v>66.81599999999995</v>
+      </c>
+      <c r="H42" t="n">
+        <v>67.76500000000004</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>67.56999999999999</v>
+      </c>
+      <c r="L42" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="C38" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="D38" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="E38" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="F38" t="n">
-        <v>12926.0642</v>
-      </c>
-      <c r="G38" t="n">
-        <v>67.89850000000004</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K38" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C43" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D43" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E43" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7326.7116</v>
+      </c>
+      <c r="G43" t="n">
+        <v>66.82933333333328</v>
+      </c>
+      <c r="H43" t="n">
+        <v>67.73983333333338</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="C44" t="n">
         <v>66.59</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D44" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="E44" t="n">
         <v>66.59</v>
       </c>
-      <c r="D39" t="n">
+      <c r="F44" t="n">
+        <v>17115.9778</v>
+      </c>
+      <c r="G44" t="n">
+        <v>66.75599999999994</v>
+      </c>
+      <c r="H44" t="n">
+        <v>67.71183333333337</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="C45" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="D45" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="E45" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="F45" t="n">
+        <v>8</v>
+      </c>
+      <c r="G45" t="n">
+        <v>66.80399999999995</v>
+      </c>
+      <c r="H45" t="n">
+        <v>67.69916666666671</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>66.59</v>
       </c>
-      <c r="E39" t="n">
+      <c r="L45" t="n">
         <v>66.59</v>
       </c>
-      <c r="F39" t="n">
-        <v>13560.6064</v>
-      </c>
-      <c r="G39" t="n">
-        <v>67.84350000000005</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="C46" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="D46" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="E46" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>66.85199999999995</v>
+      </c>
+      <c r="H46" t="n">
+        <v>67.67733333333337</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="L46" t="n">
         <v>66.59</v>
       </c>
-      <c r="K39" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="C40" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="D40" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="E40" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="F40" t="n">
-        <v>616.8745</v>
-      </c>
-      <c r="G40" t="n">
-        <v>67.79166666666671</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K40" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="C41" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="D41" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="E41" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="F41" t="n">
-        <v>4439.840165754033</v>
-      </c>
-      <c r="G41" t="n">
-        <v>67.77783333333339</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="C47" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="D47" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="E47" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5524.512</v>
+      </c>
+      <c r="G47" t="n">
+        <v>66.89933333333329</v>
+      </c>
+      <c r="H47" t="n">
+        <v>67.66533333333336</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
         <v>66.59</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>67.55</v>
-      </c>
-      <c r="C42" t="n">
-        <v>67.55</v>
-      </c>
-      <c r="D42" t="n">
-        <v>67.55</v>
-      </c>
-      <c r="E42" t="n">
-        <v>67.55</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1039.659511472983</v>
-      </c>
-      <c r="G42" t="n">
-        <v>67.76500000000004</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="K42" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="C43" t="n">
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="C48" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="D48" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="E48" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1265.917</v>
+      </c>
+      <c r="G48" t="n">
+        <v>66.94666666666663</v>
+      </c>
+      <c r="H48" t="n">
+        <v>67.65316666666669</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="L48" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="C49" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="D49" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="E49" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="F49" t="n">
+        <v>7646.1965</v>
+      </c>
+      <c r="G49" t="n">
+        <v>66.99399999999996</v>
+      </c>
+      <c r="H49" t="n">
+        <v>67.64100000000003</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="L49" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
         <v>66.8</v>
       </c>
-      <c r="D43" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="C50" t="n">
         <v>66.8</v>
       </c>
-      <c r="F43" t="n">
-        <v>7326.7116</v>
-      </c>
-      <c r="G43" t="n">
-        <v>67.73983333333338</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>67.55</v>
-      </c>
-      <c r="K43" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="D50" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E50" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1965.7939</v>
+      </c>
+      <c r="G50" t="n">
+        <v>67.03399999999995</v>
+      </c>
+      <c r="H50" t="n">
+        <v>67.61750000000004</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="L50" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>66.81</v>
+      </c>
+      <c r="C51" t="n">
+        <v>66.81</v>
+      </c>
+      <c r="D51" t="n">
+        <v>66.81</v>
+      </c>
+      <c r="E51" t="n">
+        <v>66.81</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3578.5808</v>
+      </c>
+      <c r="G51" t="n">
+        <v>67.07466666666662</v>
+      </c>
+      <c r="H51" t="n">
+        <v>67.57450000000004</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="L51" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C52" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="D52" t="n">
+        <v>66.81</v>
+      </c>
+      <c r="E52" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="F52" t="n">
+        <v>19115.5142</v>
+      </c>
+      <c r="G52" t="n">
+        <v>67.08266666666661</v>
+      </c>
+      <c r="H52" t="n">
+        <v>67.53633333333337</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>66.81</v>
+      </c>
+      <c r="L52" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="C44" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="D44" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="E44" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="F44" t="n">
-        <v>17115.9778</v>
-      </c>
-      <c r="G44" t="n">
-        <v>67.71183333333337</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="C53" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="D53" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="E53" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="F53" t="n">
+        <v>7454.345</v>
+      </c>
+      <c r="G53" t="n">
+        <v>67.09066666666661</v>
+      </c>
+      <c r="H53" t="n">
+        <v>67.51133333333337</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L53" t="n">
         <v>66.8</v>
       </c>
-      <c r="K44" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="C45" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="D45" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="E45" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="F45" t="n">
-        <v>8</v>
-      </c>
-      <c r="G45" t="n">
-        <v>67.69916666666671</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K45" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>66.73</v>
+      </c>
+      <c r="C54" t="n">
+        <v>66.73</v>
+      </c>
+      <c r="D54" t="n">
+        <v>66.73</v>
+      </c>
+      <c r="E54" t="n">
+        <v>66.73</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1017.367</v>
+      </c>
+      <c r="G54" t="n">
+        <v>67.09999999999994</v>
+      </c>
+      <c r="H54" t="n">
+        <v>67.46866666666669</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="L54" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="C46" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="D46" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="E46" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G46" t="n">
-        <v>67.67733333333337</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="K46" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="C55" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="D55" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="E55" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="F55" t="n">
+        <v>10</v>
+      </c>
+      <c r="G55" t="n">
+        <v>67.14599999999993</v>
+      </c>
+      <c r="H55" t="n">
+        <v>67.4561666666667</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>66.73</v>
+      </c>
+      <c r="L55" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="C47" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="D47" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="E47" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="F47" t="n">
-        <v>5524.512</v>
-      </c>
-      <c r="G47" t="n">
-        <v>67.66533333333336</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C56" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D56" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E56" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F56" t="n">
+        <v>8967.812599999999</v>
+      </c>
+      <c r="G56" t="n">
+        <v>67.0946666666666</v>
+      </c>
+      <c r="H56" t="n">
+        <v>67.41633333333337</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="L56" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="C48" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="D48" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="E48" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1265.917</v>
-      </c>
-      <c r="G48" t="n">
-        <v>67.65316666666669</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="K48" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C57" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D57" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E57" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F57" t="n">
+        <v>8045.618</v>
+      </c>
+      <c r="G57" t="n">
+        <v>67.0446666666666</v>
+      </c>
+      <c r="H57" t="n">
+        <v>67.39283333333336</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="L57" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="C49" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="D49" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="E49" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="F49" t="n">
-        <v>7646.1965</v>
-      </c>
-      <c r="G49" t="n">
-        <v>67.64100000000003</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C58" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D58" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E58" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F58" t="n">
+        <v>971.749</v>
+      </c>
+      <c r="G58" t="n">
+        <v>67.0446666666666</v>
+      </c>
+      <c r="H58" t="n">
+        <v>67.36933333333336</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="L58" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>67.45</v>
+      </c>
+      <c r="C59" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>67.45</v>
+      </c>
+      <c r="F59" t="n">
+        <v>35214.68650370968</v>
+      </c>
+      <c r="G59" t="n">
+        <v>67.15199999999993</v>
+      </c>
+      <c r="H59" t="n">
+        <v>67.37016666666669</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
         <v>66.8</v>
       </c>
-      <c r="C50" t="n">
+      <c r="L59" t="n">
         <v>66.8</v>
       </c>
-      <c r="D50" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="E50" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1965.7939</v>
-      </c>
-      <c r="G50" t="n">
-        <v>67.61750000000004</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>66.81</v>
-      </c>
-      <c r="C51" t="n">
-        <v>66.81</v>
-      </c>
-      <c r="D51" t="n">
-        <v>66.81</v>
-      </c>
-      <c r="E51" t="n">
-        <v>66.81</v>
-      </c>
-      <c r="F51" t="n">
-        <v>3578.5808</v>
-      </c>
-      <c r="G51" t="n">
-        <v>67.57450000000004</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="C60" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>82.67829999999999</v>
+      </c>
+      <c r="G60" t="n">
+        <v>67.19933333333326</v>
+      </c>
+      <c r="H60" t="n">
+        <v>67.37183333333336</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="C61" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>750</v>
+      </c>
+      <c r="G61" t="n">
+        <v>67.2466666666666</v>
+      </c>
+      <c r="H61" t="n">
+        <v>67.37350000000004</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
         <v>66.8</v>
       </c>
-      <c r="C52" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="D52" t="n">
-        <v>66.81</v>
-      </c>
-      <c r="E52" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="F52" t="n">
-        <v>19115.5142</v>
-      </c>
-      <c r="G52" t="n">
-        <v>67.53633333333337</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="C53" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="D53" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="E53" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="F53" t="n">
-        <v>7454.345</v>
-      </c>
-      <c r="G53" t="n">
-        <v>67.51133333333337</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="C62" t="n">
+        <v>68.45999999999999</v>
+      </c>
+      <c r="D62" t="n">
+        <v>68.45999999999999</v>
+      </c>
+      <c r="E62" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>10545.72229629032</v>
+      </c>
+      <c r="G62" t="n">
+        <v>67.31133333333327</v>
+      </c>
+      <c r="H62" t="n">
+        <v>67.37966666666669</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>66.73</v>
-      </c>
-      <c r="C54" t="n">
-        <v>66.73</v>
-      </c>
-      <c r="D54" t="n">
-        <v>66.73</v>
-      </c>
-      <c r="E54" t="n">
-        <v>66.73</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1017.367</v>
-      </c>
-      <c r="G54" t="n">
-        <v>67.46866666666669</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="C63" t="n">
+        <v>68.45999999999999</v>
+      </c>
+      <c r="D63" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="E63" t="n">
+        <v>68.45999999999999</v>
+      </c>
+      <c r="F63" t="n">
+        <v>16227.5785</v>
+      </c>
+      <c r="G63" t="n">
+        <v>67.37599999999993</v>
+      </c>
+      <c r="H63" t="n">
+        <v>67.38683333333336</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>67.47</v>
-      </c>
-      <c r="C55" t="n">
-        <v>67.47</v>
-      </c>
-      <c r="D55" t="n">
-        <v>67.47</v>
-      </c>
-      <c r="E55" t="n">
-        <v>67.47</v>
-      </c>
-      <c r="F55" t="n">
-        <v>10</v>
-      </c>
-      <c r="G55" t="n">
-        <v>67.4561666666667</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="C64" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="D64" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="E64" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G64" t="n">
+        <v>67.48933333333326</v>
+      </c>
+      <c r="H64" t="n">
+        <v>67.40616666666669</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="C65" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="E65" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="F65" t="n">
+        <v>380</v>
+      </c>
+      <c r="G65" t="n">
+        <v>67.7226666666666</v>
+      </c>
+      <c r="H65" t="n">
+        <v>67.44400000000002</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
         <v>66.8</v>
       </c>
-      <c r="C56" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="D56" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="E56" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="F56" t="n">
-        <v>8967.812599999999</v>
-      </c>
-      <c r="G56" t="n">
-        <v>67.41633333333337</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="C66" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="D66" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="E66" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="F66" t="n">
+        <v>25640.2544</v>
+      </c>
+      <c r="G66" t="n">
+        <v>68.0706666666666</v>
+      </c>
+      <c r="H66" t="n">
+        <v>67.51100000000001</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
         <v>66.8</v>
       </c>
-      <c r="C57" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="D57" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="E57" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="F57" t="n">
-        <v>8045.618</v>
-      </c>
-      <c r="G57" t="n">
-        <v>67.39283333333336</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="C67" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="D67" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="E67" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="F67" t="n">
+        <v>15741.9529</v>
+      </c>
+      <c r="G67" t="n">
+        <v>68.46266666666659</v>
+      </c>
+      <c r="H67" t="n">
+        <v>67.58733333333335</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
         <v>66.8</v>
       </c>
-      <c r="C58" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="D58" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="E58" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="F58" t="n">
-        <v>971.749</v>
-      </c>
-      <c r="G58" t="n">
-        <v>67.36933333333336</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>67.45</v>
-      </c>
-      <c r="C59" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="D59" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E59" t="n">
-        <v>67.45</v>
-      </c>
-      <c r="F59" t="n">
-        <v>35214.68650370968</v>
-      </c>
-      <c r="G59" t="n">
-        <v>67.37016666666669</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="C68" t="n">
+        <v>75.01000000000001</v>
+      </c>
+      <c r="D68" t="n">
+        <v>75.01000000000001</v>
+      </c>
+      <c r="E68" t="n">
+        <v>72.70999999999999</v>
+      </c>
+      <c r="F68" t="n">
+        <v>26759.22792119717</v>
+      </c>
+      <c r="G68" t="n">
+        <v>69.01599999999992</v>
+      </c>
+      <c r="H68" t="n">
+        <v>67.68683333333335</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
         <v>66.8</v>
       </c>
-      <c r="K59" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="C60" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="D60" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E60" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="F60" t="n">
-        <v>82.67829999999999</v>
-      </c>
-      <c r="G60" t="n">
-        <v>67.37183333333336</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>75.01000000000001</v>
+      </c>
+      <c r="C69" t="n">
+        <v>77.02</v>
+      </c>
+      <c r="D69" t="n">
+        <v>77.02</v>
+      </c>
+      <c r="E69" t="n">
+        <v>74</v>
+      </c>
+      <c r="F69" t="n">
+        <v>39932.12531034977</v>
+      </c>
+      <c r="G69" t="n">
+        <v>69.70199999999993</v>
+      </c>
+      <c r="H69" t="n">
+        <v>67.82566666666669</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="C61" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="D61" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E61" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="F61" t="n">
-        <v>750</v>
-      </c>
-      <c r="G61" t="n">
-        <v>67.37350000000004</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="C62" t="n">
-        <v>68.45999999999999</v>
-      </c>
-      <c r="D62" t="n">
-        <v>68.45999999999999</v>
-      </c>
-      <c r="E62" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="F62" t="n">
-        <v>10545.72229629032</v>
-      </c>
-      <c r="G62" t="n">
-        <v>67.37966666666669</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="C63" t="n">
-        <v>68.45999999999999</v>
-      </c>
-      <c r="D63" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="E63" t="n">
-        <v>68.45999999999999</v>
-      </c>
-      <c r="F63" t="n">
-        <v>16227.5785</v>
-      </c>
-      <c r="G63" t="n">
-        <v>67.38683333333336</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>69.19</v>
-      </c>
-      <c r="C64" t="n">
-        <v>69.19</v>
-      </c>
-      <c r="D64" t="n">
-        <v>69.19</v>
-      </c>
-      <c r="E64" t="n">
-        <v>69.19</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G64" t="n">
-        <v>67.40616666666669</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>69.19</v>
-      </c>
-      <c r="C65" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="D65" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="E65" t="n">
-        <v>69.19</v>
-      </c>
-      <c r="F65" t="n">
-        <v>380</v>
-      </c>
-      <c r="G65" t="n">
-        <v>67.44400000000002</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="C66" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="D66" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="E66" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="F66" t="n">
-        <v>25640.2544</v>
-      </c>
-      <c r="G66" t="n">
-        <v>67.51100000000001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="C67" t="n">
-        <v>72.59</v>
-      </c>
-      <c r="D67" t="n">
-        <v>72.59</v>
-      </c>
-      <c r="E67" t="n">
-        <v>71.43000000000001</v>
-      </c>
-      <c r="F67" t="n">
-        <v>15741.9529</v>
-      </c>
-      <c r="G67" t="n">
-        <v>67.58733333333335</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>72.98999999999999</v>
-      </c>
-      <c r="C68" t="n">
-        <v>75.01000000000001</v>
-      </c>
-      <c r="D68" t="n">
-        <v>75.01000000000001</v>
-      </c>
-      <c r="E68" t="n">
-        <v>72.70999999999999</v>
-      </c>
-      <c r="F68" t="n">
-        <v>26759.22792119717</v>
-      </c>
-      <c r="G68" t="n">
-        <v>67.68683333333335</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>75.01000000000001</v>
-      </c>
-      <c r="C69" t="n">
-        <v>77.02</v>
-      </c>
-      <c r="D69" t="n">
-        <v>77.02</v>
-      </c>
-      <c r="E69" t="n">
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
         <v>74</v>
       </c>
-      <c r="F69" t="n">
-        <v>39932.12531034977</v>
-      </c>
-      <c r="G69" t="n">
-        <v>67.82566666666669</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="C70" t="n">
+        <v>76.79000000000001</v>
+      </c>
+      <c r="D70" t="n">
+        <v>77</v>
+      </c>
+      <c r="E70" t="n">
+        <v>74</v>
+      </c>
+      <c r="F70" t="n">
+        <v>16605.62632320615</v>
+      </c>
+      <c r="G70" t="n">
+        <v>70.32333333333325</v>
+      </c>
+      <c r="H70" t="n">
+        <v>67.95400000000002</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1.134854965221252</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>74</v>
-      </c>
-      <c r="C70" t="n">
-        <v>76.79000000000001</v>
-      </c>
-      <c r="D70" t="n">
-        <v>77</v>
-      </c>
-      <c r="E70" t="n">
-        <v>74</v>
-      </c>
-      <c r="F70" t="n">
-        <v>16605.62632320615</v>
-      </c>
-      <c r="G70" t="n">
-        <v>67.95400000000002</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
+      <c r="N70" t="n">
+        <v>1.144550898203593</v>
       </c>
     </row>
     <row r="71">
@@ -3081,18 +3267,21 @@
         <v>60614.9604</v>
       </c>
       <c r="G71" t="n">
+        <v>70.73599999999992</v>
+      </c>
+      <c r="H71" t="n">
         <v>68.01900000000002</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3116,18 +3305,21 @@
         <v>25624.91931371742</v>
       </c>
       <c r="G72" t="n">
+        <v>71.1426666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>68.08250000000001</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,18 +3343,21 @@
         <v>21318.2509</v>
       </c>
       <c r="G73" t="n">
+        <v>71.54266666666659</v>
+      </c>
+      <c r="H73" t="n">
         <v>68.14433333333335</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3186,18 +3381,21 @@
         <v>8292.243700000001</v>
       </c>
       <c r="G74" t="n">
+        <v>71.67599999999993</v>
+      </c>
+      <c r="H74" t="n">
         <v>68.18050000000001</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3221,18 +3419,21 @@
         <v>2510.3232</v>
       </c>
       <c r="G75" t="n">
+        <v>71.81999999999992</v>
+      </c>
+      <c r="H75" t="n">
         <v>68.21966666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3256,18 +3457,21 @@
         <v>1358.0763</v>
       </c>
       <c r="G76" t="n">
+        <v>71.96733333333326</v>
+      </c>
+      <c r="H76" t="n">
         <v>68.25983333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3291,18 +3495,21 @@
         <v>9</v>
       </c>
       <c r="G77" t="n">
+        <v>72.20333333333325</v>
+      </c>
+      <c r="H77" t="n">
         <v>68.32983333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,18 +3533,21 @@
         <v>16</v>
       </c>
       <c r="G78" t="n">
+        <v>72.43866666666659</v>
+      </c>
+      <c r="H78" t="n">
         <v>68.39966666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3361,18 +3571,21 @@
         <v>3157.6115</v>
       </c>
       <c r="G79" t="n">
+        <v>72.49399999999991</v>
+      </c>
+      <c r="H79" t="n">
         <v>68.43933333333332</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3396,18 +3609,21 @@
         <v>16791.2479</v>
       </c>
       <c r="G80" t="n">
+        <v>72.47533333333325</v>
+      </c>
+      <c r="H80" t="n">
         <v>68.47916666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3431,18 +3647,21 @@
         <v>20500.3236</v>
       </c>
       <c r="G81" t="n">
+        <v>72.33999999999992</v>
+      </c>
+      <c r="H81" t="n">
         <v>68.52749999999999</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3466,18 +3685,21 @@
         <v>423.291</v>
       </c>
       <c r="G82" t="n">
+        <v>72.17399999999992</v>
+      </c>
+      <c r="H82" t="n">
         <v>68.58583333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3501,18 +3723,21 @@
         <v>1677.0394</v>
       </c>
       <c r="G83" t="n">
+        <v>71.84733333333324</v>
+      </c>
+      <c r="H83" t="n">
         <v>68.651</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3536,18 +3761,21 @@
         <v>2040.6684</v>
       </c>
       <c r="G84" t="n">
+        <v>71.38599999999991</v>
+      </c>
+      <c r="H84" t="n">
         <v>68.71599999999999</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3571,18 +3799,21 @@
         <v>1332.7775</v>
       </c>
       <c r="G85" t="n">
+        <v>70.9399999999999</v>
+      </c>
+      <c r="H85" t="n">
         <v>68.77433333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3606,18 +3837,21 @@
         <v>100</v>
       </c>
       <c r="G86" t="n">
+        <v>70.74733333333323</v>
+      </c>
+      <c r="H86" t="n">
         <v>68.83266666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3641,18 +3875,21 @@
         <v>18.1818</v>
       </c>
       <c r="G87" t="n">
+        <v>70.56733333333322</v>
+      </c>
+      <c r="H87" t="n">
         <v>68.89266666666666</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3676,18 +3913,21 @@
         <v>18.1818</v>
       </c>
       <c r="G88" t="n">
+        <v>70.48066666666656</v>
+      </c>
+      <c r="H88" t="n">
         <v>68.97433333333332</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3711,18 +3951,21 @@
         <v>8105.8499</v>
       </c>
       <c r="G89" t="n">
+        <v>70.51333333333324</v>
+      </c>
+      <c r="H89" t="n">
         <v>69.02433333333332</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3746,18 +3989,21 @@
         <v>2577.6561</v>
       </c>
       <c r="G90" t="n">
+        <v>70.52933333333323</v>
+      </c>
+      <c r="H90" t="n">
         <v>69.08816666666665</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3781,18 +4027,21 @@
         <v>116.4836</v>
       </c>
       <c r="G91" t="n">
+        <v>70.63133333333323</v>
+      </c>
+      <c r="H91" t="n">
         <v>69.17433333333331</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3816,18 +4065,21 @@
         <v>11035.52998448492</v>
       </c>
       <c r="G92" t="n">
+        <v>70.54466666666657</v>
+      </c>
+      <c r="H92" t="n">
         <v>69.23966666666664</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3851,18 +4103,21 @@
         <v>1549.4998</v>
       </c>
       <c r="G93" t="n">
+        <v>70.46533333333323</v>
+      </c>
+      <c r="H93" t="n">
         <v>69.30666666666664</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3886,18 +4141,21 @@
         <v>16334.8241</v>
       </c>
       <c r="G94" t="n">
+        <v>70.51866666666656</v>
+      </c>
+      <c r="H94" t="n">
         <v>69.37399999999998</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3921,18 +4179,21 @@
         <v>2884.7132</v>
       </c>
       <c r="G95" t="n">
+        <v>70.55733333333322</v>
+      </c>
+      <c r="H95" t="n">
         <v>69.44733333333332</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3956,22 +4217,21 @@
         <v>364.1241</v>
       </c>
       <c r="G96" t="n">
+        <v>70.59733333333321</v>
+      </c>
+      <c r="H96" t="n">
         <v>69.52066666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="K96" t="n">
-        <v>70.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3995,26 +4255,21 @@
         <v>245.7929</v>
       </c>
       <c r="G97" t="n">
+        <v>70.63066666666654</v>
+      </c>
+      <c r="H97" t="n">
         <v>69.58750000000001</v>
       </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="K97" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4038,26 +4293,21 @@
         <v>962.749</v>
       </c>
       <c r="G98" t="n">
+        <v>70.64333333333322</v>
+      </c>
+      <c r="H98" t="n">
         <v>69.64933333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="K98" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4081,26 +4331,21 @@
         <v>3042.8071</v>
       </c>
       <c r="G99" t="n">
+        <v>70.64733333333324</v>
+      </c>
+      <c r="H99" t="n">
         <v>69.70883333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="K99" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,24 +4369,21 @@
         <v>1450.0641</v>
       </c>
       <c r="G100" t="n">
+        <v>70.65133333333324</v>
+      </c>
+      <c r="H100" t="n">
         <v>69.76516666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4165,24 +4407,21 @@
         <v>62406.8167</v>
       </c>
       <c r="G101" t="n">
+        <v>70.69933333333324</v>
+      </c>
+      <c r="H101" t="n">
         <v>69.81933333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4206,24 +4445,21 @@
         <v>691.8357999999999</v>
       </c>
       <c r="G102" t="n">
+        <v>70.74666666666658</v>
+      </c>
+      <c r="H102" t="n">
         <v>69.87533333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4247,24 +4483,21 @@
         <v>22.8116</v>
       </c>
       <c r="G103" t="n">
+        <v>70.77266666666658</v>
+      </c>
+      <c r="H103" t="n">
         <v>69.96016666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4288,24 +4521,21 @@
         <v>9702.676299999999</v>
       </c>
       <c r="G104" t="n">
+        <v>70.78666666666659</v>
+      </c>
+      <c r="H104" t="n">
         <v>70.03199999999998</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4329,24 +4559,21 @@
         <v>1135.5785</v>
       </c>
       <c r="G105" t="n">
+        <v>70.75533333333327</v>
+      </c>
+      <c r="H105" t="n">
         <v>70.07599999999999</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4370,24 +4597,21 @@
         <v>298.0617</v>
       </c>
       <c r="G106" t="n">
+        <v>70.6346666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>70.11999999999999</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4411,24 +4635,21 @@
         <v>909.7637</v>
       </c>
       <c r="G107" t="n">
+        <v>70.59133333333327</v>
+      </c>
+      <c r="H107" t="n">
         <v>70.16266666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4452,24 +4673,21 @@
         <v>1726.8833</v>
       </c>
       <c r="G108" t="n">
+        <v>70.51133333333327</v>
+      </c>
+      <c r="H108" t="n">
         <v>70.19783333333335</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4493,24 +4711,21 @@
         <v>337.724</v>
       </c>
       <c r="G109" t="n">
+        <v>70.42999999999992</v>
+      </c>
+      <c r="H109" t="n">
         <v>70.23300000000002</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4534,24 +4749,21 @@
         <v>1936.273799733408</v>
       </c>
       <c r="G110" t="n">
+        <v>70.47466666666659</v>
+      </c>
+      <c r="H110" t="n">
         <v>70.30750000000003</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4575,24 +4787,21 @@
         <v>6072.880300266592</v>
       </c>
       <c r="G111" t="n">
+        <v>70.51933333333326</v>
+      </c>
+      <c r="H111" t="n">
         <v>70.38183333333336</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4616,24 +4825,21 @@
         <v>2878.319948610725</v>
       </c>
       <c r="G112" t="n">
+        <v>70.61133333333328</v>
+      </c>
+      <c r="H112" t="n">
         <v>70.46966666666668</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4657,24 +4863,21 @@
         <v>2314.905451389275</v>
       </c>
       <c r="G113" t="n">
+        <v>70.72333333333329</v>
+      </c>
+      <c r="H113" t="n">
         <v>70.55750000000002</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4698,24 +4901,21 @@
         <v>6144.2795</v>
       </c>
       <c r="G114" t="n">
+        <v>70.80599999999995</v>
+      </c>
+      <c r="H114" t="n">
         <v>70.63533333333335</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4739,24 +4939,21 @@
         <v>151.1953</v>
       </c>
       <c r="G115" t="n">
+        <v>70.84599999999995</v>
+      </c>
+      <c r="H115" t="n">
         <v>70.69016666666668</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4780,24 +4977,21 @@
         <v>3819.6014</v>
       </c>
       <c r="G116" t="n">
+        <v>70.79133333333328</v>
+      </c>
+      <c r="H116" t="n">
         <v>70.74350000000001</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4821,24 +5015,21 @@
         <v>423.8133</v>
       </c>
       <c r="G117" t="n">
+        <v>70.74399999999994</v>
+      </c>
+      <c r="H117" t="n">
         <v>70.80016666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4862,24 +5053,21 @@
         <v>1775.6889</v>
       </c>
       <c r="G118" t="n">
+        <v>70.6246666666666</v>
+      </c>
+      <c r="H118" t="n">
         <v>70.85516666666668</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4903,24 +5091,21 @@
         <v>5619.8486</v>
       </c>
       <c r="G119" t="n">
+        <v>70.57133333333326</v>
+      </c>
+      <c r="H119" t="n">
         <v>70.88683333333334</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,24 +5129,21 @@
         <v>430.6108</v>
       </c>
       <c r="G120" t="n">
+        <v>70.56933333333323</v>
+      </c>
+      <c r="H120" t="n">
         <v>70.91850000000002</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4985,24 +5167,21 @@
         <v>8719.972900000001</v>
       </c>
       <c r="G121" t="n">
+        <v>70.56733333333322</v>
+      </c>
+      <c r="H121" t="n">
         <v>70.9501666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5026,24 +5205,21 @@
         <v>58774.7716</v>
       </c>
       <c r="G122" t="n">
+        <v>70.56399999999989</v>
+      </c>
+      <c r="H122" t="n">
         <v>70.97583333333337</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5067,24 +5243,21 @@
         <v>4677.1205</v>
       </c>
       <c r="G123" t="n">
+        <v>70.5839999999999</v>
+      </c>
+      <c r="H123" t="n">
         <v>70.99983333333336</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5108,24 +5281,21 @@
         <v>523.6355</v>
       </c>
       <c r="G124" t="n">
+        <v>70.57799999999992</v>
+      </c>
+      <c r="H124" t="n">
         <v>71.00516666666671</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5149,24 +5319,21 @@
         <v>114515.9633</v>
       </c>
       <c r="G125" t="n">
+        <v>70.40799999999992</v>
+      </c>
+      <c r="H125" t="n">
         <v>70.97883333333337</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5190,24 +5357,21 @@
         <v>1329.5908</v>
       </c>
       <c r="G126" t="n">
+        <v>70.23799999999991</v>
+      </c>
+      <c r="H126" t="n">
         <v>70.92366666666672</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5231,24 +5395,21 @@
         <v>61841.7928</v>
       </c>
       <c r="G127" t="n">
+        <v>70.09933333333326</v>
+      </c>
+      <c r="H127" t="n">
         <v>70.87883333333338</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5272,24 +5433,21 @@
         <v>2093.3289</v>
       </c>
       <c r="G128" t="n">
+        <v>69.88266666666659</v>
+      </c>
+      <c r="H128" t="n">
         <v>70.77416666666669</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,24 +5471,21 @@
         <v>3876.052</v>
       </c>
       <c r="G129" t="n">
+        <v>69.70466666666658</v>
+      </c>
+      <c r="H129" t="n">
         <v>70.63600000000001</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5354,24 +5509,21 @@
         <v>717.4081</v>
       </c>
       <c r="G130" t="n">
+        <v>69.56866666666659</v>
+      </c>
+      <c r="H130" t="n">
         <v>70.50150000000002</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,24 +5547,21 @@
         <v>1855.7173</v>
       </c>
       <c r="G131" t="n">
+        <v>69.48333333333326</v>
+      </c>
+      <c r="H131" t="n">
         <v>70.43033333333337</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5436,24 +5585,21 @@
         <v>5602.1946</v>
       </c>
       <c r="G132" t="n">
+        <v>69.38466666666659</v>
+      </c>
+      <c r="H132" t="n">
         <v>70.3606666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5477,24 +5623,21 @@
         <v>1842.6494</v>
       </c>
       <c r="G133" t="n">
+        <v>69.29266666666659</v>
+      </c>
+      <c r="H133" t="n">
         <v>70.2926666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5518,24 +5661,21 @@
         <v>8409.532300000001</v>
       </c>
       <c r="G134" t="n">
+        <v>69.20066666666661</v>
+      </c>
+      <c r="H134" t="n">
         <v>70.26800000000004</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5559,24 +5699,21 @@
         <v>2238.3358</v>
       </c>
       <c r="G135" t="n">
+        <v>69.10066666666661</v>
+      </c>
+      <c r="H135" t="n">
         <v>70.23866666666672</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5600,24 +5737,21 @@
         <v>9725.9023</v>
       </c>
       <c r="G136" t="n">
+        <v>69.00866666666661</v>
+      </c>
+      <c r="H136" t="n">
         <v>70.21050000000007</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5641,24 +5775,21 @@
         <v>8905.0725</v>
       </c>
       <c r="G137" t="n">
+        <v>68.91133333333327</v>
+      </c>
+      <c r="H137" t="n">
         <v>70.15283333333339</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5682,24 +5813,21 @@
         <v>5921.9591</v>
       </c>
       <c r="G138" t="n">
+        <v>68.87133333333327</v>
+      </c>
+      <c r="H138" t="n">
         <v>70.10800000000008</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5723,24 +5851,21 @@
         <v>29.4965</v>
       </c>
       <c r="G139" t="n">
+        <v>68.86399999999995</v>
+      </c>
+      <c r="H139" t="n">
         <v>70.09766666666673</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5764,24 +5889,21 @@
         <v>92265.713</v>
       </c>
       <c r="G140" t="n">
+        <v>68.84933333333328</v>
+      </c>
+      <c r="H140" t="n">
         <v>70.07233333333338</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5805,24 +5927,21 @@
         <v>518.6989540048718</v>
       </c>
       <c r="G141" t="n">
+        <v>68.92066666666661</v>
+      </c>
+      <c r="H141" t="n">
         <v>70.06883333333339</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5846,24 +5965,21 @@
         <v>5001.6731</v>
       </c>
       <c r="G142" t="n">
+        <v>68.91333333333326</v>
+      </c>
+      <c r="H142" t="n">
         <v>70.06366666666671</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5887,24 +6003,21 @@
         <v>3268.4593</v>
       </c>
       <c r="G143" t="n">
+        <v>68.98399999999992</v>
+      </c>
+      <c r="H143" t="n">
         <v>70.05833333333338</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5928,24 +6041,21 @@
         <v>13401.5013</v>
       </c>
       <c r="G144" t="n">
+        <v>68.96866666666659</v>
+      </c>
+      <c r="H144" t="n">
         <v>70.03166666666671</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5969,24 +6079,21 @@
         <v>8</v>
       </c>
       <c r="G145" t="n">
+        <v>69.02666666666659</v>
+      </c>
+      <c r="H145" t="n">
         <v>70.0231666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6010,24 +6117,21 @@
         <v>1459.7631</v>
       </c>
       <c r="G146" t="n">
+        <v>69.08466666666658</v>
+      </c>
+      <c r="H146" t="n">
         <v>70.0146666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6051,24 +6155,21 @@
         <v>395.7399</v>
       </c>
       <c r="G147" t="n">
+        <v>69.14266666666657</v>
+      </c>
+      <c r="H147" t="n">
         <v>70.00450000000004</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6092,24 +6193,21 @@
         <v>3976.1255</v>
       </c>
       <c r="G148" t="n">
+        <v>69.20066666666656</v>
+      </c>
+      <c r="H148" t="n">
         <v>69.97266666666671</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6133,24 +6231,21 @@
         <v>2069.0102</v>
       </c>
       <c r="G149" t="n">
+        <v>69.26599999999989</v>
+      </c>
+      <c r="H149" t="n">
         <v>69.9561666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6174,24 +6269,21 @@
         <v>12428.1659</v>
       </c>
       <c r="G150" t="n">
+        <v>69.2459999999999</v>
+      </c>
+      <c r="H150" t="n">
         <v>69.91783333333338</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6215,24 +6307,21 @@
         <v>29.6186</v>
       </c>
       <c r="G151" t="n">
+        <v>69.30399999999989</v>
+      </c>
+      <c r="H151" t="n">
         <v>69.87866666666672</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6256,24 +6345,21 @@
         <v>120</v>
       </c>
       <c r="G152" t="n">
+        <v>69.28799999999988</v>
+      </c>
+      <c r="H152" t="n">
         <v>69.83866666666673</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6297,24 +6383,21 @@
         <v>2404.7364</v>
       </c>
       <c r="G153" t="n">
+        <v>69.22399999999989</v>
+      </c>
+      <c r="H153" t="n">
         <v>69.79766666666673</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6338,24 +6421,21 @@
         <v>939.4596</v>
       </c>
       <c r="G154" t="n">
+        <v>69.22333333333322</v>
+      </c>
+      <c r="H154" t="n">
         <v>69.7738333333334</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6379,24 +6459,21 @@
         <v>251.9952</v>
       </c>
       <c r="G155" t="n">
+        <v>69.21266666666655</v>
+      </c>
+      <c r="H155" t="n">
         <v>69.73616666666673</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6420,24 +6497,21 @@
         <v>700</v>
       </c>
       <c r="G156" t="n">
+        <v>69.18599999999989</v>
+      </c>
+      <c r="H156" t="n">
         <v>69.71600000000007</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6461,24 +6535,21 @@
         <v>1400</v>
       </c>
       <c r="G157" t="n">
+        <v>69.15933333333324</v>
+      </c>
+      <c r="H157" t="n">
         <v>69.6958333333334</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6502,24 +6573,21 @@
         <v>4540.794</v>
       </c>
       <c r="G158" t="n">
+        <v>69.06266666666656</v>
+      </c>
+      <c r="H158" t="n">
         <v>69.66316666666673</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6543,24 +6611,21 @@
         <v>2270.397</v>
       </c>
       <c r="G159" t="n">
+        <v>69.04933333333322</v>
+      </c>
+      <c r="H159" t="n">
         <v>69.63216666666673</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6584,24 +6649,21 @@
         <v>13795.2514</v>
       </c>
       <c r="G160" t="n">
+        <v>68.96333333333322</v>
+      </c>
+      <c r="H160" t="n">
         <v>69.60116666666674</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6625,24 +6687,21 @@
         <v>7.3</v>
       </c>
       <c r="G161" t="n">
+        <v>68.94333333333323</v>
+      </c>
+      <c r="H161" t="n">
         <v>69.57566666666675</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6666,24 +6725,21 @@
         <v>14827.7606</v>
       </c>
       <c r="G162" t="n">
+        <v>68.86066666666656</v>
+      </c>
+      <c r="H162" t="n">
         <v>69.53300000000009</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6707,24 +6763,21 @@
         <v>13610.5456</v>
       </c>
       <c r="G163" t="n">
+        <v>68.77866666666657</v>
+      </c>
+      <c r="H163" t="n">
         <v>69.47416666666673</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,24 +6801,21 @@
         <v>4159.406</v>
       </c>
       <c r="G164" t="n">
+        <v>68.75133333333322</v>
+      </c>
+      <c r="H164" t="n">
         <v>69.44733333333342</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6789,24 +6839,21 @@
         <v>1840.2402</v>
       </c>
       <c r="G165" t="n">
+        <v>68.81733333333322</v>
+      </c>
+      <c r="H165" t="n">
         <v>69.43333333333341</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6830,24 +6877,21 @@
         <v>3355.8962</v>
       </c>
       <c r="G166" t="n">
+        <v>68.79733333333323</v>
+      </c>
+      <c r="H166" t="n">
         <v>69.41933333333341</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6871,24 +6915,21 @@
         <v>3998.964423298467</v>
       </c>
       <c r="G167" t="n">
+        <v>68.89666666666656</v>
+      </c>
+      <c r="H167" t="n">
         <v>69.41500000000006</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6912,24 +6953,21 @@
         <v>10445.4983</v>
       </c>
       <c r="G168" t="n">
+        <v>68.93666666666657</v>
+      </c>
+      <c r="H168" t="n">
         <v>69.40400000000005</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6953,24 +6991,21 @@
         <v>4989.5695</v>
       </c>
       <c r="G169" t="n">
+        <v>68.91066666666657</v>
+      </c>
+      <c r="H169" t="n">
         <v>69.39400000000005</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6994,24 +7029,21 @@
         <v>4010.0198</v>
       </c>
       <c r="G170" t="n">
+        <v>69.00733333333324</v>
+      </c>
+      <c r="H170" t="n">
         <v>69.36933333333337</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7035,24 +7067,21 @@
         <v>16085.51977670153</v>
       </c>
       <c r="G171" t="n">
+        <v>69.04066666666657</v>
+      </c>
+      <c r="H171" t="n">
         <v>69.34633333333338</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7076,24 +7105,21 @@
         <v>161.7863</v>
       </c>
       <c r="G172" t="n">
+        <v>69.12333333333322</v>
+      </c>
+      <c r="H172" t="n">
         <v>69.32383333333338</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7117,24 +7143,21 @@
         <v>661.6052</v>
       </c>
       <c r="G173" t="n">
+        <v>69.27599999999988</v>
+      </c>
+      <c r="H173" t="n">
         <v>69.30133333333339</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7158,24 +7181,21 @@
         <v>5571.1194</v>
       </c>
       <c r="G174" t="n">
+        <v>69.43533333333322</v>
+      </c>
+      <c r="H174" t="n">
         <v>69.28950000000006</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7199,24 +7219,21 @@
         <v>4591.0567</v>
       </c>
       <c r="G175" t="n">
+        <v>69.61466666666657</v>
+      </c>
+      <c r="H175" t="n">
         <v>69.29333333333338</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7240,24 +7257,21 @@
         <v>2151.9741</v>
       </c>
       <c r="G176" t="n">
+        <v>69.72866666666657</v>
+      </c>
+      <c r="H176" t="n">
         <v>69.31000000000004</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7281,24 +7295,21 @@
         <v>5948.249</v>
       </c>
       <c r="G177" t="n">
+        <v>69.90533333333323</v>
+      </c>
+      <c r="H177" t="n">
         <v>69.32333333333339</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7322,24 +7333,21 @@
         <v>1562.8465</v>
       </c>
       <c r="G178" t="n">
+        <v>70.02333333333326</v>
+      </c>
+      <c r="H178" t="n">
         <v>69.32383333333338</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7363,24 +7371,21 @@
         <v>12323.4002</v>
       </c>
       <c r="G179" t="n">
+        <v>70.07866666666659</v>
+      </c>
+      <c r="H179" t="n">
         <v>69.32416666666671</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7404,24 +7409,21 @@
         <v>6933.9776</v>
       </c>
       <c r="G180" t="n">
+        <v>70.13266666666659</v>
+      </c>
+      <c r="H180" t="n">
         <v>69.32416666666671</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7445,24 +7447,21 @@
         <v>1405.1364</v>
       </c>
       <c r="G181" t="n">
+        <v>70.24599999999992</v>
+      </c>
+      <c r="H181" t="n">
         <v>69.33900000000003</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,24 +7485,21 @@
         <v>6240.5798</v>
       </c>
       <c r="G182" t="n">
+        <v>70.27399999999993</v>
+      </c>
+      <c r="H182" t="n">
         <v>69.34250000000003</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7527,24 +7523,21 @@
         <v>42.14</v>
       </c>
       <c r="G183" t="n">
+        <v>70.4106666666666</v>
+      </c>
+      <c r="H183" t="n">
         <v>69.3606666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7568,24 +7561,21 @@
         <v>20000</v>
       </c>
       <c r="G184" t="n">
+        <v>70.54333333333327</v>
+      </c>
+      <c r="H184" t="n">
         <v>69.38533333333336</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7609,24 +7599,21 @@
         <v>799.4788</v>
       </c>
       <c r="G185" t="n">
+        <v>70.62333333333326</v>
+      </c>
+      <c r="H185" t="n">
         <v>69.42316666666669</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7650,24 +7637,21 @@
         <v>1654.6165</v>
       </c>
       <c r="G186" t="n">
+        <v>70.7106666666666</v>
+      </c>
+      <c r="H186" t="n">
         <v>69.46450000000002</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7691,24 +7675,21 @@
         <v>10174.859</v>
       </c>
       <c r="G187" t="n">
+        <v>70.75199999999992</v>
+      </c>
+      <c r="H187" t="n">
         <v>69.48700000000002</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7732,24 +7713,21 @@
         <v>2265.508</v>
       </c>
       <c r="G188" t="n">
+        <v>70.79333333333325</v>
+      </c>
+      <c r="H188" t="n">
         <v>69.52900000000002</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7773,24 +7751,21 @@
         <v>5232.3445</v>
       </c>
       <c r="G189" t="n">
+        <v>70.76399999999991</v>
+      </c>
+      <c r="H189" t="n">
         <v>69.55433333333336</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7814,24 +7789,21 @@
         <v>5001.6731</v>
       </c>
       <c r="G190" t="n">
+        <v>70.74133333333324</v>
+      </c>
+      <c r="H190" t="n">
         <v>69.58650000000003</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7855,24 +7827,21 @@
         <v>21350.8964</v>
       </c>
       <c r="G191" t="n">
+        <v>70.74133333333324</v>
+      </c>
+      <c r="H191" t="n">
         <v>69.62450000000003</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7896,24 +7865,21 @@
         <v>14.1605</v>
       </c>
       <c r="G192" t="n">
+        <v>70.73466666666658</v>
+      </c>
+      <c r="H192" t="n">
         <v>69.66083333333334</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7937,24 +7903,21 @@
         <v>70.4036</v>
       </c>
       <c r="G193" t="n">
+        <v>70.76933333333326</v>
+      </c>
+      <c r="H193" t="n">
         <v>69.693</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7978,24 +7941,21 @@
         <v>2081.8941</v>
       </c>
       <c r="G194" t="n">
+        <v>70.82133333333329</v>
+      </c>
+      <c r="H194" t="n">
         <v>69.72933333333332</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8019,24 +7979,21 @@
         <v>4103.2685</v>
       </c>
       <c r="G195" t="n">
+        <v>70.88133333333329</v>
+      </c>
+      <c r="H195" t="n">
         <v>69.76933333333332</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8060,24 +8017,21 @@
         <v>6910.5479</v>
       </c>
       <c r="G196" t="n">
+        <v>70.88199999999996</v>
+      </c>
+      <c r="H196" t="n">
         <v>69.80733333333332</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8101,24 +8055,21 @@
         <v>1767.0671</v>
       </c>
       <c r="G197" t="n">
+        <v>70.93466666666662</v>
+      </c>
+      <c r="H197" t="n">
         <v>69.84833333333331</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8142,24 +8093,21 @@
         <v>5772.6384</v>
       </c>
       <c r="G198" t="n">
+        <v>70.94866666666663</v>
+      </c>
+      <c r="H198" t="n">
         <v>69.87999999999997</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8183,24 +8131,21 @@
         <v>8500</v>
       </c>
       <c r="G199" t="n">
+        <v>70.92599999999996</v>
+      </c>
+      <c r="H199" t="n">
         <v>69.90083333333331</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8224,24 +8169,401 @@
         <v>400</v>
       </c>
       <c r="G200" t="n">
+        <v>70.89333333333329</v>
+      </c>
+      <c r="H200" t="n">
         <v>69.93416666666664</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="C201" t="n">
+        <v>70.22</v>
+      </c>
+      <c r="D201" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="E201" t="n">
+        <v>70.22</v>
+      </c>
+      <c r="F201" t="n">
+        <v>4191.0567</v>
+      </c>
+      <c r="G201" t="n">
+        <v>70.82799999999996</v>
+      </c>
+      <c r="H201" t="n">
+        <v>69.9413333333333</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>70.23</v>
+      </c>
+      <c r="C202" t="n">
+        <v>70.23</v>
+      </c>
+      <c r="D202" t="n">
+        <v>70.23</v>
+      </c>
+      <c r="E202" t="n">
+        <v>70.23</v>
+      </c>
+      <c r="F202" t="n">
+        <v>10</v>
+      </c>
+      <c r="G202" t="n">
+        <v>70.75999999999996</v>
+      </c>
+      <c r="H202" t="n">
+        <v>69.94866666666664</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>70.23</v>
+      </c>
+      <c r="C203" t="n">
+        <v>70.23</v>
+      </c>
+      <c r="D203" t="n">
+        <v>70.23</v>
+      </c>
+      <c r="E203" t="n">
+        <v>70.23</v>
+      </c>
+      <c r="F203" t="n">
+        <v>455.0835</v>
+      </c>
+      <c r="G203" t="n">
+        <v>70.69199999999996</v>
+      </c>
+      <c r="H203" t="n">
+        <v>69.95599999999996</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="C204" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="D204" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="E204" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="F204" t="n">
+        <v>10</v>
+      </c>
+      <c r="G204" t="n">
+        <v>70.74866666666662</v>
+      </c>
+      <c r="H204" t="n">
+        <v>69.9993333333333</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="D205" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="E205" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="F205" t="n">
+        <v>10</v>
+      </c>
+      <c r="G205" t="n">
+        <v>70.77866666666661</v>
+      </c>
+      <c r="H205" t="n">
+        <v>70.02449999999997</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="C206" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="D206" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="E206" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="F206" t="n">
+        <v>10</v>
+      </c>
+      <c r="G206" t="n">
+        <v>70.78533333333327</v>
+      </c>
+      <c r="H206" t="n">
+        <v>70.04966666666664</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>70.23999999999999</v>
+      </c>
+      <c r="C207" t="n">
+        <v>70.23999999999999</v>
+      </c>
+      <c r="D207" t="n">
+        <v>70.23999999999999</v>
+      </c>
+      <c r="E207" t="n">
+        <v>70.23999999999999</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G207" t="n">
+        <v>70.74133333333326</v>
+      </c>
+      <c r="H207" t="n">
+        <v>70.06049999999998</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>70.23999999999999</v>
+      </c>
+      <c r="C208" t="n">
+        <v>70.23999999999999</v>
+      </c>
+      <c r="D208" t="n">
+        <v>70.23999999999999</v>
+      </c>
+      <c r="E208" t="n">
+        <v>70.23999999999999</v>
+      </c>
+      <c r="F208" t="n">
+        <v>5772.6384</v>
+      </c>
+      <c r="G208" t="n">
+        <v>70.71399999999993</v>
+      </c>
+      <c r="H208" t="n">
+        <v>70.0713333333333</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>70.23999999999999</v>
+      </c>
+      <c r="C209" t="n">
+        <v>70.23999999999999</v>
+      </c>
+      <c r="D209" t="n">
+        <v>70.23999999999999</v>
+      </c>
+      <c r="E209" t="n">
+        <v>70.23999999999999</v>
+      </c>
+      <c r="F209" t="n">
+        <v>5616.5218</v>
+      </c>
+      <c r="G209" t="n">
+        <v>70.66999999999992</v>
+      </c>
+      <c r="H209" t="n">
+        <v>70.0803333333333</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>70.25</v>
+      </c>
+      <c r="C210" t="n">
+        <v>70.25</v>
+      </c>
+      <c r="D210" t="n">
+        <v>70.25</v>
+      </c>
+      <c r="E210" t="n">
+        <v>70.25</v>
+      </c>
+      <c r="F210" t="n">
+        <v>7109.87</v>
+      </c>
+      <c r="G210" t="n">
+        <v>70.61999999999992</v>
+      </c>
+      <c r="H210" t="n">
+        <v>70.1128333333333</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest WOM.xlsx
+++ b/BackTest/2020-01-19 BackTest WOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N268"/>
+  <dimension ref="A1:M268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>173682.6485407723</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>174615.0009407723</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>204151.8270407723</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>208098.2485407723</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>189396.6310407723</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>189396.6310407723</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>189473.6310407723</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>178740.0287407723</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-171923.1510592277</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,1966 +3289,1760 @@
         <v>-894063.450819434</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>67.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>66.77</v>
+      </c>
+      <c r="C89" t="n">
+        <v>66.77</v>
+      </c>
+      <c r="D89" t="n">
+        <v>66.77</v>
+      </c>
+      <c r="E89" t="n">
+        <v>66.77</v>
+      </c>
+      <c r="F89" t="n">
+        <v>8</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-894063.450819434</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="C90" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="D90" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="E90" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4320.9988</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-889742.4520194341</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="C91" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="D91" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="E91" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="F91" t="n">
+        <v>738.1348</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-889742.4520194341</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="C92" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="D92" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="E92" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.8652</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-889742.4520194341</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I92" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="J92" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E93" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F93" t="n">
+        <v>12589.719</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-902332.1710194341</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="J93" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="C94" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E94" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F94" t="n">
+        <v>28755.7513</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-902332.1710194341</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J94" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="C95" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="D95" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="E95" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="F95" t="n">
+        <v>18676.242</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-883655.9290194341</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+      <c r="I95" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C96" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="D96" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E96" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="F96" t="n">
+        <v>12926.0642</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-883655.9290194341</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+      <c r="I96" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="J96" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="C97" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="D97" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="E97" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="F97" t="n">
+        <v>13560.6064</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-883655.9290194341</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+      <c r="I97" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="J97" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="C98" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="D98" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="E98" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="F98" t="n">
+        <v>616.8745</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-883039.0545194341</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+      <c r="I98" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="J98" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>67.56999999999999</v>
+      </c>
+      <c r="C99" t="n">
+        <v>67.56999999999999</v>
+      </c>
+      <c r="D99" t="n">
+        <v>67.56999999999999</v>
+      </c>
+      <c r="E99" t="n">
+        <v>67.56999999999999</v>
+      </c>
+      <c r="F99" t="n">
+        <v>4439.840165754033</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-878599.21435368</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+      <c r="I99" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="J99" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>67.55</v>
+      </c>
+      <c r="C100" t="n">
+        <v>67.55</v>
+      </c>
+      <c r="D100" t="n">
+        <v>67.55</v>
+      </c>
+      <c r="E100" t="n">
+        <v>67.55</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1039.659511472983</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-879638.8738651531</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I100" t="n">
+        <v>67.56999999999999</v>
+      </c>
+      <c r="J100" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C101" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D101" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E101" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F101" t="n">
+        <v>7326.7116</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-886965.5854651531</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="C102" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="D102" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="E102" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="F102" t="n">
+        <v>17115.9778</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-904081.5632651531</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="C103" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="D103" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="E103" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="F103" t="n">
+        <v>8</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-904073.5632651531</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="C104" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="D104" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="E104" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-904073.5632651531</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+      <c r="I104" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="J104" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="C105" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="D105" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="E105" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="F105" t="n">
+        <v>5524.512</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-904073.5632651531</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="C106" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="D106" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="E106" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1265.917</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-904073.5632651531</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="C107" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="D107" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="E107" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="F107" t="n">
+        <v>7646.1965</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-904073.5632651531</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C108" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D108" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E108" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1965.7939</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-906039.3571651531</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>66.81</v>
+      </c>
+      <c r="C109" t="n">
+        <v>66.81</v>
+      </c>
+      <c r="D109" t="n">
+        <v>66.81</v>
+      </c>
+      <c r="E109" t="n">
+        <v>66.81</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3578.5808</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-902460.7763651531</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C110" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="D110" t="n">
+        <v>66.81</v>
+      </c>
+      <c r="E110" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="F110" t="n">
+        <v>19115.5142</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-921576.2905651531</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+      <c r="I110" t="n">
+        <v>66.81</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>66.77</v>
-      </c>
-      <c r="C89" t="n">
-        <v>66.77</v>
-      </c>
-      <c r="D89" t="n">
-        <v>66.77</v>
-      </c>
-      <c r="E89" t="n">
-        <v>66.77</v>
-      </c>
-      <c r="F89" t="n">
-        <v>8</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-894063.450819434</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="C111" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="D111" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="E111" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="F111" t="n">
+        <v>7454.345</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-921576.2905651531</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+      <c r="I111" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="C90" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="D90" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="E90" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="F90" t="n">
-        <v>4320.9988</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-889742.4520194341</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>66.77</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>66.73</v>
+      </c>
+      <c r="C112" t="n">
+        <v>66.73</v>
+      </c>
+      <c r="D112" t="n">
+        <v>66.73</v>
+      </c>
+      <c r="E112" t="n">
+        <v>66.73</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1017.367</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-920558.9235651531</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+      <c r="I112" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="C91" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="D91" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="E91" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="F91" t="n">
-        <v>738.1348</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-889742.4520194341</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="C113" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="D113" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="E113" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="F113" t="n">
+        <v>10</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-920548.9235651531</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+      <c r="I113" t="n">
+        <v>66.73</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="C92" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="D92" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="E92" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.8652</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-889742.4520194341</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C114" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D114" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E114" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F114" t="n">
+        <v>8967.812599999999</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-929516.7361651531</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+      <c r="I114" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="C93" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="D93" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="E93" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="F93" t="n">
-        <v>12589.719</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-902332.1710194341</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C115" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D115" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E115" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F115" t="n">
+        <v>8045.618</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-929516.7361651531</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+      <c r="I115" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="C94" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="D94" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="E94" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="F94" t="n">
-        <v>28755.7513</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-902332.1710194341</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C116" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D116" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E116" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F116" t="n">
+        <v>971.749</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-929516.7361651531</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+      <c r="I116" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="C95" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="D95" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="E95" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="F95" t="n">
-        <v>18676.242</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-883655.9290194341</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>67.45</v>
+      </c>
+      <c r="C117" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D117" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E117" t="n">
+        <v>67.45</v>
+      </c>
+      <c r="F117" t="n">
+        <v>35214.68650370968</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-894302.0496614435</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="C96" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="D96" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="E96" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="F96" t="n">
-        <v>12926.0642</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-883655.9290194341</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="C118" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>82.67829999999999</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-894302.0496614435</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="C97" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="D97" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="E97" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="F97" t="n">
-        <v>13560.6064</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-883655.9290194341</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="C119" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>750</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-894302.0496614435</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="C98" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="D98" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="E98" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="F98" t="n">
-        <v>616.8745</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-883039.0545194341</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="C120" t="n">
+        <v>68.45999999999999</v>
+      </c>
+      <c r="D120" t="n">
+        <v>68.45999999999999</v>
+      </c>
+      <c r="E120" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="F120" t="n">
+        <v>10545.72229629032</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-883756.3273651531</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="C99" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="D99" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="E99" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="F99" t="n">
-        <v>4439.840165754033</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-878599.21435368</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="C121" t="n">
+        <v>68.45999999999999</v>
+      </c>
+      <c r="D121" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="E121" t="n">
+        <v>68.45999999999999</v>
+      </c>
+      <c r="F121" t="n">
+        <v>16227.5785</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-883756.3273651531</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>67.55</v>
-      </c>
-      <c r="C100" t="n">
-        <v>67.55</v>
-      </c>
-      <c r="D100" t="n">
-        <v>67.55</v>
-      </c>
-      <c r="E100" t="n">
-        <v>67.55</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1039.659511472983</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-879638.8738651531</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="C122" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="D122" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="E122" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-881756.3273651531</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="C101" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="D101" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="E101" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="F101" t="n">
-        <v>7326.7116</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-886965.5854651531</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>67.55</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="C123" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="D123" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="E123" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="F123" t="n">
+        <v>380</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-881376.3273651531</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="C102" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="D102" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="E102" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="F102" t="n">
-        <v>17115.9778</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-904081.5632651531</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="C124" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="D124" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="E124" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="F124" t="n">
+        <v>25640.2544</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-855736.0729651531</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="C103" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="D103" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="E103" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="F103" t="n">
-        <v>8</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-904073.5632651531</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="C125" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="D125" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="E125" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="F125" t="n">
+        <v>15741.9529</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-839994.1200651531</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="C104" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="D104" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="E104" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-904073.5632651531</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="C126" t="n">
+        <v>75.01000000000001</v>
+      </c>
+      <c r="D126" t="n">
+        <v>75.01000000000001</v>
+      </c>
+      <c r="E126" t="n">
+        <v>72.70999999999999</v>
+      </c>
+      <c r="F126" t="n">
+        <v>26759.22792119717</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-813234.8921439559</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="C105" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="D105" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="E105" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="F105" t="n">
-        <v>5524.512</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-904073.5632651531</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>75.01000000000001</v>
+      </c>
+      <c r="C127" t="n">
+        <v>77.02</v>
+      </c>
+      <c r="D127" t="n">
+        <v>77.02</v>
+      </c>
+      <c r="E127" t="n">
+        <v>74</v>
+      </c>
+      <c r="F127" t="n">
+        <v>39932.12531034977</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-773302.7668336062</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="C106" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="D106" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="E106" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1265.917</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-904073.5632651531</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>74</v>
+      </c>
+      <c r="C128" t="n">
+        <v>76.79000000000001</v>
+      </c>
+      <c r="D128" t="n">
+        <v>77</v>
+      </c>
+      <c r="E128" t="n">
+        <v>74</v>
+      </c>
+      <c r="F128" t="n">
+        <v>16605.62632320615</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-789908.3931568123</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="C107" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="D107" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="E107" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="F107" t="n">
-        <v>7646.1965</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-904073.5632651531</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>74.13</v>
+      </c>
+      <c r="C129" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="D129" t="n">
+        <v>74.13</v>
+      </c>
+      <c r="E129" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="F129" t="n">
+        <v>60614.9604</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-850523.3535568123</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="C108" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="D108" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="E108" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1965.7939</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-906039.3571651531</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="C130" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="D130" t="n">
+        <v>76.69</v>
+      </c>
+      <c r="E130" t="n">
+        <v>68.91</v>
+      </c>
+      <c r="F130" t="n">
+        <v>25624.91931371742</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-876148.2728705297</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>66.81</v>
-      </c>
-      <c r="C109" t="n">
-        <v>66.81</v>
-      </c>
-      <c r="D109" t="n">
-        <v>66.81</v>
-      </c>
-      <c r="E109" t="n">
-        <v>66.81</v>
-      </c>
-      <c r="F109" t="n">
-        <v>3578.5808</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-902460.7763651531</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>72.89</v>
+      </c>
+      <c r="C131" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="D131" t="n">
+        <v>72.89</v>
+      </c>
+      <c r="E131" t="n">
+        <v>70.20999999999999</v>
+      </c>
+      <c r="F131" t="n">
+        <v>21318.2509</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-897466.5237705297</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="C110" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="D110" t="n">
-        <v>66.81</v>
-      </c>
-      <c r="E110" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="F110" t="n">
-        <v>19115.5142</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-921576.2905651531</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>66.81</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="C132" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="D132" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="E132" t="n">
+        <v>69.53</v>
+      </c>
+      <c r="F132" t="n">
+        <v>8292.243700000001</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-905758.7674705297</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="C111" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="D111" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="E111" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="F111" t="n">
-        <v>7454.345</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-921576.2905651531</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>70.20999999999999</v>
+      </c>
+      <c r="C133" t="n">
+        <v>70.36</v>
+      </c>
+      <c r="D133" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="E133" t="n">
+        <v>70.20999999999999</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2510.3232</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-903248.4442705297</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>66.73</v>
-      </c>
-      <c r="C112" t="n">
-        <v>66.73</v>
-      </c>
-      <c r="D112" t="n">
-        <v>66.73</v>
-      </c>
-      <c r="E112" t="n">
-        <v>66.73</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1017.367</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-920558.9235651531</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>70.37</v>
+      </c>
+      <c r="C134" t="n">
+        <v>70.41</v>
+      </c>
+      <c r="D134" t="n">
+        <v>72.47</v>
+      </c>
+      <c r="E134" t="n">
+        <v>70.37</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1358.0763</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-901890.3679705297</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>67.47</v>
-      </c>
-      <c r="C113" t="n">
-        <v>67.47</v>
-      </c>
-      <c r="D113" t="n">
-        <v>67.47</v>
-      </c>
-      <c r="E113" t="n">
-        <v>67.47</v>
-      </c>
-      <c r="F113" t="n">
-        <v>10</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-920548.9235651531</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>66.73</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>72</v>
+      </c>
+      <c r="C135" t="n">
+        <v>72</v>
+      </c>
+      <c r="D135" t="n">
+        <v>72</v>
+      </c>
+      <c r="E135" t="n">
+        <v>72</v>
+      </c>
+      <c r="F135" t="n">
+        <v>9</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-901881.3679705297</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="C114" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="D114" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="E114" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="F114" t="n">
-        <v>8967.812599999999</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-929516.7361651531</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>67.47</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="C115" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="D115" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="E115" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="F115" t="n">
-        <v>8045.618</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-929516.7361651531</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="C116" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="D116" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="E116" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="F116" t="n">
-        <v>971.749</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-929516.7361651531</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>67.45</v>
-      </c>
-      <c r="C117" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="D117" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E117" t="n">
-        <v>67.45</v>
-      </c>
-      <c r="F117" t="n">
-        <v>35214.68650370968</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-894302.0496614435</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="C118" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="D118" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E118" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="F118" t="n">
-        <v>82.67829999999999</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-894302.0496614435</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="C119" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="D119" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="E119" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="F119" t="n">
-        <v>750</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-894302.0496614435</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="C120" t="n">
-        <v>68.45999999999999</v>
-      </c>
-      <c r="D120" t="n">
-        <v>68.45999999999999</v>
-      </c>
-      <c r="E120" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="F120" t="n">
-        <v>10545.72229629032</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-883756.3273651531</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="C121" t="n">
-        <v>68.45999999999999</v>
-      </c>
-      <c r="D121" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="E121" t="n">
-        <v>68.45999999999999</v>
-      </c>
-      <c r="F121" t="n">
-        <v>16227.5785</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-883756.3273651531</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>69.19</v>
-      </c>
-      <c r="C122" t="n">
-        <v>69.19</v>
-      </c>
-      <c r="D122" t="n">
-        <v>69.19</v>
-      </c>
-      <c r="E122" t="n">
-        <v>69.19</v>
-      </c>
-      <c r="F122" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-881756.3273651531</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>69.19</v>
-      </c>
-      <c r="C123" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="D123" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="E123" t="n">
-        <v>69.19</v>
-      </c>
-      <c r="F123" t="n">
-        <v>380</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-881376.3273651531</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="C124" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="D124" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="E124" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="F124" t="n">
-        <v>25640.2544</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-855736.0729651531</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="C125" t="n">
-        <v>72.59</v>
-      </c>
-      <c r="D125" t="n">
-        <v>72.59</v>
-      </c>
-      <c r="E125" t="n">
-        <v>71.43000000000001</v>
-      </c>
-      <c r="F125" t="n">
-        <v>15741.9529</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-839994.1200651531</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>72.98999999999999</v>
-      </c>
-      <c r="C126" t="n">
-        <v>75.01000000000001</v>
-      </c>
-      <c r="D126" t="n">
-        <v>75.01000000000001</v>
-      </c>
-      <c r="E126" t="n">
-        <v>72.70999999999999</v>
-      </c>
-      <c r="F126" t="n">
-        <v>26759.22792119717</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-813234.8921439559</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>75.01000000000001</v>
-      </c>
-      <c r="C127" t="n">
-        <v>77.02</v>
-      </c>
-      <c r="D127" t="n">
-        <v>77.02</v>
-      </c>
-      <c r="E127" t="n">
-        <v>74</v>
-      </c>
-      <c r="F127" t="n">
-        <v>39932.12531034977</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-773302.7668336062</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>74</v>
-      </c>
-      <c r="C128" t="n">
-        <v>76.79000000000001</v>
-      </c>
-      <c r="D128" t="n">
-        <v>77</v>
-      </c>
-      <c r="E128" t="n">
-        <v>74</v>
-      </c>
-      <c r="F128" t="n">
-        <v>16605.62632320615</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-789908.3931568123</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>74.13</v>
-      </c>
-      <c r="C129" t="n">
-        <v>72.98999999999999</v>
-      </c>
-      <c r="D129" t="n">
-        <v>74.13</v>
-      </c>
-      <c r="E129" t="n">
-        <v>72.98999999999999</v>
-      </c>
-      <c r="F129" t="n">
-        <v>60614.9604</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-850523.3535568123</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>72.98999999999999</v>
-      </c>
-      <c r="C130" t="n">
-        <v>72.90000000000001</v>
-      </c>
-      <c r="D130" t="n">
-        <v>76.69</v>
-      </c>
-      <c r="E130" t="n">
-        <v>68.91</v>
-      </c>
-      <c r="F130" t="n">
-        <v>25624.91931371742</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-876148.2728705297</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>72.89</v>
-      </c>
-      <c r="C131" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="D131" t="n">
-        <v>72.89</v>
-      </c>
-      <c r="E131" t="n">
-        <v>70.20999999999999</v>
-      </c>
-      <c r="F131" t="n">
-        <v>21318.2509</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-897466.5237705297</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="C132" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="D132" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="E132" t="n">
-        <v>69.53</v>
-      </c>
-      <c r="F132" t="n">
-        <v>8292.243700000001</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-905758.7674705297</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>70.20999999999999</v>
-      </c>
-      <c r="C133" t="n">
-        <v>70.36</v>
-      </c>
-      <c r="D133" t="n">
-        <v>72.59</v>
-      </c>
-      <c r="E133" t="n">
-        <v>70.20999999999999</v>
-      </c>
-      <c r="F133" t="n">
-        <v>2510.3232</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-903248.4442705297</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>70.37</v>
-      </c>
-      <c r="C134" t="n">
-        <v>70.41</v>
-      </c>
-      <c r="D134" t="n">
-        <v>72.47</v>
-      </c>
-      <c r="E134" t="n">
-        <v>70.37</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1358.0763</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-901890.3679705297</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>72</v>
-      </c>
-      <c r="C135" t="n">
-        <v>72</v>
-      </c>
-      <c r="D135" t="n">
-        <v>72</v>
-      </c>
-      <c r="E135" t="n">
-        <v>72</v>
-      </c>
-      <c r="F135" t="n">
-        <v>9</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-901881.3679705297</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5536,22 +5067,17 @@
         <v>-901897.3679705297</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
+      <c r="K136" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5576,22 +5102,15 @@
         <v>-905054.9794705297</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5616,22 +5135,15 @@
         <v>-905054.9794705297</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5656,22 +5168,15 @@
         <v>-925555.3030705297</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5698,20 +5203,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5738,20 +5236,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5778,20 +5269,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5818,20 +5302,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5858,20 +5335,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5898,20 +5368,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5938,20 +5401,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5978,20 +5434,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6018,20 +5467,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6058,20 +5500,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6098,20 +5533,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6138,20 +5566,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6178,20 +5599,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6218,20 +5632,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6258,20 +5665,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6298,20 +5698,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6338,20 +5731,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6378,20 +5764,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6418,20 +5797,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6458,20 +5830,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6498,20 +5863,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6538,20 +5896,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6578,20 +5929,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6618,20 +5962,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6658,20 +5995,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6698,20 +6028,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6738,20 +6061,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6778,20 +6094,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6818,20 +6127,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6858,20 +6160,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6898,20 +6193,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6938,20 +6226,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6978,20 +6259,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7018,20 +6292,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7058,20 +6325,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7098,20 +6358,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7138,20 +6391,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7178,20 +6424,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7218,20 +6457,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7258,20 +6490,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7298,20 +6523,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7338,20 +6556,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7378,20 +6589,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7418,20 +6622,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7458,20 +6655,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7498,20 +6688,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7538,20 +6721,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7578,20 +6754,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7618,20 +6787,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7658,20 +6820,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7698,20 +6853,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7738,20 +6886,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7778,20 +6919,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7818,20 +6952,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7858,20 +6985,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7898,20 +7018,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7938,20 +7051,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7978,20 +7084,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8018,20 +7117,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8058,20 +7150,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8098,20 +7183,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8138,20 +7216,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8178,20 +7249,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8218,20 +7282,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8258,20 +7315,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8298,20 +7348,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8338,20 +7381,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8378,20 +7414,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8418,20 +7447,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8458,20 +7480,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8498,20 +7513,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8538,20 +7546,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8578,20 +7579,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8618,20 +7612,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8658,20 +7645,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8698,20 +7678,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8738,20 +7711,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8778,20 +7744,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8818,20 +7777,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8858,20 +7810,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8898,20 +7843,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8938,20 +7876,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8978,20 +7909,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9018,20 +7942,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9058,20 +7975,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9098,20 +8008,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9138,20 +8041,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9178,20 +8074,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9218,20 +8107,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9258,20 +8140,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9298,20 +8173,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9338,20 +8206,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9378,20 +8239,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9418,20 +8272,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9458,20 +8305,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9498,20 +8338,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9538,20 +8371,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9578,20 +8404,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9618,20 +8437,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9658,20 +8470,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9698,20 +8503,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9738,20 +8536,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9778,20 +8569,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9818,20 +8602,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9858,20 +8635,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9898,20 +8668,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9938,20 +8701,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9978,20 +8734,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10018,20 +8767,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10058,20 +8800,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10098,20 +8833,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10138,20 +8866,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10178,20 +8899,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10218,20 +8932,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10258,20 +8965,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10298,20 +8998,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10338,20 +9031,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10378,20 +9064,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10418,20 +9097,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10458,20 +9130,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10498,20 +9163,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10538,20 +9196,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10578,20 +9229,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10618,20 +9262,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10658,20 +9295,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10698,20 +9328,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10738,20 +9361,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10778,20 +9394,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10818,22 +9427,15 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest WOM.xlsx
+++ b/BackTest/2020-01-19 BackTest WOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>173682.6485407723</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>174615.0009407723</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>193951.8270407723</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>204151.8270407723</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>215510.5636407723</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>208088.9017407723</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>208098.2485407723</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>189396.6310407723</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>189396.6310407723</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>189396.6310407723</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>189473.6310407723</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>178740.0287407723</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>108359.5993407723</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>58333.40494077229</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-172054.2497592277</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-172054.2497592277</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-171963.8368592277</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-171923.1510592277</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-577742.4503753567</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-572863.6816753567</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-574085.6816753567</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-534956.0388753567</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-564718.6490753567</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-568765.0984753567</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-568757.7874753567</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-562993.0836753568</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-562993.0836753568</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-570493.0836753568</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-578186.3246753569</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-564738.9541753569</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -3157,11 +3157,17 @@
         <v>-893670.4417009379</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>66.59999999999999</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3196,17 @@
         <v>-893670.4417009379</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>66.59999999999999</v>
+      </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3235,17 @@
         <v>-893670.4417009379</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>66.59999999999999</v>
+      </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3274,17 @@
         <v>-892211.074819434</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>66.59999999999999</v>
+      </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3313,17 @@
         <v>-894063.450819434</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>67.69</v>
+      </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3352,17 @@
         <v>-894063.450819434</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>66.77</v>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3391,17 @@
         <v>-889742.4520194341</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>66.77</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3430,17 @@
         <v>-889742.4520194341</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>66.78</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,15 +3469,17 @@
         <v>-889742.4520194341</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>66.78</v>
       </c>
-      <c r="J92" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,17 +3508,15 @@
         <v>-902332.1710194341</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>66.78</v>
       </c>
-      <c r="J93" t="n">
-        <v>66.78</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -3499,17 +3547,15 @@
         <v>-902332.1710194341</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>66.2</v>
       </c>
-      <c r="J94" t="n">
-        <v>66.78</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -3540,15 +3586,17 @@
         <v>-883655.9290194341</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>66.2</v>
       </c>
-      <c r="J95" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3577,17 +3625,15 @@
         <v>-883655.9290194341</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>66.59</v>
       </c>
-      <c r="J96" t="n">
-        <v>66.2</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -3618,17 +3664,15 @@
         <v>-883655.9290194341</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>66.59</v>
       </c>
-      <c r="J97" t="n">
-        <v>66.2</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3659,15 +3703,17 @@
         <v>-883039.0545194341</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>66.59</v>
       </c>
-      <c r="J98" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3696,17 +3742,15 @@
         <v>-878599.21435368</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>66.78</v>
       </c>
-      <c r="J99" t="n">
-        <v>66.59</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -3737,17 +3781,15 @@
         <v>-879638.8738651531</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>67.56999999999999</v>
       </c>
-      <c r="J100" t="n">
-        <v>66.59</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -3778,11 +3820,17 @@
         <v>-886965.5854651531</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>67.55</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3811,11 +3859,17 @@
         <v>-904081.5632651531</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>66.8</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3844,11 +3898,17 @@
         <v>-904073.5632651531</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>66.59</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3877,15 +3937,17 @@
         <v>-904073.5632651531</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>67.48999999999999</v>
       </c>
-      <c r="J104" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3914,15 +3976,15 @@
         <v>-904073.5632651531</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
         <v>67.48999999999999</v>
       </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L105" t="n">
@@ -3953,15 +4015,15 @@
         <v>-904073.5632651531</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
         <v>67.48999999999999</v>
       </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L106" t="n">
@@ -3992,11 +4054,17 @@
         <v>-904073.5632651531</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>67.48999999999999</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4025,11 +4093,17 @@
         <v>-906039.3571651531</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>67.48999999999999</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4058,11 +4132,17 @@
         <v>-902460.7763651531</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>66.8</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4091,7 +4171,7 @@
         <v>-921576.2905651531</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>66.81</v>
@@ -4099,7 +4179,7 @@
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -4130,7 +4210,7 @@
         <v>-921576.2905651531</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>66.70999999999999</v>
@@ -4169,7 +4249,7 @@
         <v>-920558.9235651531</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>66.70999999999999</v>
@@ -4208,7 +4288,7 @@
         <v>-920548.9235651531</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>66.73</v>
@@ -4247,7 +4327,7 @@
         <v>-929516.7361651531</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>67.47</v>
@@ -4286,7 +4366,7 @@
         <v>-929516.7361651531</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>66.8</v>
@@ -4325,7 +4405,7 @@
         <v>-929516.7361651531</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>66.8</v>
@@ -4364,9 +4444,11 @@
         <v>-894302.0496614435</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>66.8</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4401,9 +4483,11 @@
         <v>-894302.0496614435</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>68.2</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4438,9 +4522,11 @@
         <v>-894302.0496614435</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>68.2</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4475,9 +4561,11 @@
         <v>-883756.3273651531</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>68.2</v>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -4808,7 +4896,7 @@
         <v>-850523.3535568123</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4845,7 +4933,7 @@
         <v>-876148.2728705297</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4882,7 +4970,7 @@
         <v>-897466.5237705297</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4919,7 +5007,7 @@
         <v>-905758.7674705297</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4956,7 +5044,7 @@
         <v>-903248.4442705297</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4993,7 +5081,7 @@
         <v>-901890.3679705297</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5030,7 +5118,7 @@
         <v>-901881.3679705297</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5067,16 +5155,18 @@
         <v>-901897.3679705297</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
       <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
@@ -5102,11 +5192,15 @@
         <v>-905054.9794705297</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5135,11 +5229,15 @@
         <v>-905054.9794705297</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5168,11 +5266,15 @@
         <v>-925555.3030705297</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5205,7 +5307,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5234,11 +5340,17 @@
         <v>-923454.9726705297</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>70.09999999999999</v>
+      </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5267,11 +5379,17 @@
         <v>-925495.6410705297</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>70.11</v>
+      </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5304,7 +5422,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5337,7 +5459,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5370,7 +5496,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5399,11 +5529,17 @@
         <v>-925459.2774705297</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>70.2</v>
+      </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5432,11 +5568,17 @@
         <v>-933565.1273705297</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>71.5</v>
+      </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5465,11 +5607,17 @@
         <v>-936142.7834705297</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>70.69</v>
+      </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5498,11 +5646,17 @@
         <v>-936026.2998705297</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>70.59999999999999</v>
+      </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5531,11 +5685,17 @@
         <v>-947061.8298550146</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>71.94</v>
+      </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5568,7 +5728,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5597,11 +5761,17 @@
         <v>-929177.5059550146</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>70.8</v>
+      </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5634,7 +5804,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5667,7 +5841,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5700,7 +5878,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5733,7 +5915,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5762,11 +5948,17 @@
         <v>-936067.7752550145</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>70.3</v>
+      </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5799,7 +5991,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5832,7 +6028,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5865,7 +6065,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5898,7 +6102,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5931,7 +6139,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5964,7 +6176,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5997,7 +6213,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6026,11 +6246,17 @@
         <v>-884694.3296550146</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>70.13</v>
+      </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6059,11 +6285,17 @@
         <v>-886421.2129550145</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>70.05</v>
+      </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6092,11 +6324,17 @@
         <v>-886421.2129550145</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>69.59999999999999</v>
+      </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6125,11 +6363,17 @@
         <v>-884484.9391552812</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>69.59999999999999</v>
+      </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6162,7 +6406,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6195,7 +6443,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6228,7 +6480,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6261,7 +6517,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6294,7 +6554,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6327,7 +6591,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6360,7 +6628,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6393,7 +6665,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6426,7 +6702,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6459,7 +6739,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6492,7 +6776,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6525,7 +6813,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6558,7 +6850,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6591,7 +6887,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6624,7 +6924,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6657,7 +6961,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6690,7 +6998,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6723,7 +7035,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6756,7 +7072,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6789,7 +7109,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6822,7 +7146,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6855,7 +7183,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6888,7 +7220,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6921,7 +7257,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6954,7 +7294,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6987,7 +7331,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7020,7 +7368,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7053,7 +7405,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7086,7 +7442,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7119,7 +7479,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7152,7 +7516,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7185,7 +7553,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7218,7 +7590,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7251,7 +7627,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7284,7 +7664,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7317,7 +7701,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7350,7 +7738,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7383,7 +7775,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7416,7 +7812,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7449,7 +7849,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7482,7 +7886,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7515,7 +7923,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7548,7 +7960,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7581,7 +7997,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7614,7 +8034,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7647,7 +8071,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7680,7 +8108,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7713,7 +8145,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7746,7 +8182,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7779,7 +8219,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7812,7 +8256,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7845,7 +8293,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7878,7 +8330,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7911,7 +8367,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7944,7 +8404,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7977,7 +8441,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8010,7 +8478,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8043,7 +8515,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8076,7 +8552,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8109,7 +8589,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8142,7 +8626,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8175,7 +8663,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8208,7 +8700,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8241,7 +8737,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8274,7 +8774,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8307,7 +8811,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8340,7 +8848,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8373,7 +8885,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8406,7 +8922,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8439,7 +8959,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8472,7 +8996,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8505,7 +9033,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8538,7 +9070,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8571,7 +9107,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8604,7 +9144,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8637,7 +9181,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8670,7 +9218,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8703,7 +9255,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8736,7 +9292,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8769,7 +9329,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8802,7 +9366,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8835,7 +9403,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8868,7 +9440,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8901,7 +9477,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8934,7 +9514,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8967,7 +9551,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9000,7 +9588,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9033,7 +9625,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9066,7 +9662,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9099,7 +9699,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9132,7 +9736,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9165,7 +9773,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9198,7 +9810,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9231,7 +9847,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9264,7 +9884,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9297,7 +9921,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9330,7 +9958,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9363,7 +9995,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9396,7 +10032,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9429,13 +10069,17 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
       <c r="M268" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest WOM.xlsx
+++ b/BackTest/2020-01-19 BackTest WOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>173682.6485407723</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>174615.0009407723</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>193951.8270407723</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>204151.8270407723</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>215510.5636407723</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>208088.9017407723</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>208098.2485407723</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>189396.6310407723</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>189396.6310407723</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>189396.6310407723</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>189473.6310407723</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>178740.0287407723</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>108359.5993407723</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>58333.40494077229</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-172054.2497592277</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-172054.2497592277</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-171923.1510592277</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-577742.4503753567</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-572863.6816753567</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-574085.6816753567</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-534956.0388753567</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-564718.6490753567</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-568765.0984753567</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-568757.7874753567</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-562993.0836753568</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-562993.0836753568</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-570493.0836753568</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-578186.3246753569</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-564738.9541753569</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -3157,17 +3157,11 @@
         <v>-893670.4417009379</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>66.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3196,17 +3190,11 @@
         <v>-893670.4417009379</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>66.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3235,17 +3223,11 @@
         <v>-893670.4417009379</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>66.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3274,17 +3256,11 @@
         <v>-892211.074819434</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>66.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3313,17 +3289,11 @@
         <v>-894063.450819434</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>67.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3352,17 +3322,11 @@
         <v>-894063.450819434</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>66.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3391,17 +3355,11 @@
         <v>-889742.4520194341</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>66.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3430,17 +3388,11 @@
         <v>-889742.4520194341</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>66.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3469,17 +3421,11 @@
         <v>-889742.4520194341</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>66.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3513,12 +3459,10 @@
       <c r="I93" t="n">
         <v>66.78</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3552,10 +3496,12 @@
       <c r="I94" t="n">
         <v>66.2</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -3591,10 +3537,12 @@
       <c r="I95" t="n">
         <v>66.2</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -3630,10 +3578,12 @@
       <c r="I96" t="n">
         <v>66.59</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -3669,7 +3619,9 @@
       <c r="I97" t="n">
         <v>66.59</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3708,7 +3660,9 @@
       <c r="I98" t="n">
         <v>66.59</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3747,7 +3701,9 @@
       <c r="I99" t="n">
         <v>66.78</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3781,12 +3737,12 @@
         <v>-879638.8738651531</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3820,12 +3776,12 @@
         <v>-886965.5854651531</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>67.55</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3864,7 +3820,9 @@
       <c r="I102" t="n">
         <v>66.8</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3898,12 +3856,12 @@
         <v>-904073.5632651531</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3937,12 +3895,12 @@
         <v>-904073.5632651531</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3976,12 +3934,12 @@
         <v>-904073.5632651531</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4020,7 +3978,9 @@
       <c r="I106" t="n">
         <v>67.48999999999999</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4054,12 +4014,12 @@
         <v>-904073.5632651531</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4098,7 +4058,9 @@
       <c r="I108" t="n">
         <v>67.48999999999999</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4137,7 +4099,9 @@
       <c r="I109" t="n">
         <v>66.8</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4176,7 +4140,9 @@
       <c r="I110" t="n">
         <v>66.81</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4215,7 +4181,9 @@
       <c r="I111" t="n">
         <v>66.70999999999999</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4254,7 +4222,9 @@
       <c r="I112" t="n">
         <v>66.70999999999999</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4293,7 +4263,9 @@
       <c r="I113" t="n">
         <v>66.73</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4332,7 +4304,9 @@
       <c r="I114" t="n">
         <v>67.47</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4371,7 +4345,9 @@
       <c r="I115" t="n">
         <v>66.8</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4410,7 +4386,9 @@
       <c r="I116" t="n">
         <v>66.8</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4449,7 +4427,9 @@
       <c r="I117" t="n">
         <v>66.8</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4488,7 +4468,9 @@
       <c r="I118" t="n">
         <v>68.2</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4522,12 +4504,12 @@
         <v>-894302.0496614435</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4561,12 +4543,12 @@
         <v>-883756.3273651531</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4603,7 +4585,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4640,7 +4624,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4677,7 +4663,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4714,7 +4702,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4751,7 +4741,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4788,7 +4780,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4825,7 +4819,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4859,19 +4855,23 @@
         <v>-789908.3931568123</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>66.78</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>1.144895178197065</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1.124924471299094</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4896,15 +4896,11 @@
         <v>-850523.3535568123</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4933,15 +4929,11 @@
         <v>-876148.2728705297</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4970,15 +4962,11 @@
         <v>-897466.5237705297</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5007,15 +4995,11 @@
         <v>-905758.7674705297</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5048,11 +5032,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5085,11 +5065,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5122,11 +5098,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5159,11 +5131,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5196,11 +5164,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5233,11 +5197,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5270,11 +5230,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5307,11 +5263,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5340,17 +5292,11 @@
         <v>-923454.9726705297</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>70.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5379,17 +5325,11 @@
         <v>-925495.6410705297</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>70.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5422,11 +5362,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5459,11 +5395,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5496,11 +5428,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5529,17 +5457,11 @@
         <v>-925459.2774705297</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>70.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5568,17 +5490,11 @@
         <v>-933565.1273705297</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>71.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5607,17 +5523,11 @@
         <v>-936142.7834705297</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>70.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5646,17 +5556,11 @@
         <v>-936026.2998705297</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>70.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5685,17 +5589,11 @@
         <v>-947061.8298550146</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>71.94</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5724,15 +5622,11 @@
         <v>-945512.3300550146</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5761,17 +5655,11 @@
         <v>-929177.5059550146</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>70.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5800,15 +5688,11 @@
         <v>-932062.2191550146</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5837,15 +5721,11 @@
         <v>-932062.2191550146</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5874,15 +5754,11 @@
         <v>-932062.2191550146</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5911,15 +5787,11 @@
         <v>-933024.9681550146</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5948,17 +5820,11 @@
         <v>-936067.7752550145</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>70.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5987,15 +5853,11 @@
         <v>-936067.7752550145</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6024,15 +5886,11 @@
         <v>-873660.9585550146</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6061,15 +5919,11 @@
         <v>-872969.1227550146</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6098,15 +5952,11 @@
         <v>-872946.3111550146</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6135,15 +5985,11 @@
         <v>-882648.9874550146</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6176,11 +6022,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6213,11 +6055,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6246,17 +6084,11 @@
         <v>-884694.3296550146</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>70.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6285,17 +6117,11 @@
         <v>-886421.2129550145</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>70.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6324,17 +6150,11 @@
         <v>-886421.2129550145</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>69.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6363,17 +6183,11 @@
         <v>-884484.9391552812</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>69.59999999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6402,15 +6216,11 @@
         <v>-884484.9391552812</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6439,15 +6249,11 @@
         <v>-881606.6192066704</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6476,15 +6282,11 @@
         <v>-881606.6192066704</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6517,11 +6319,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6554,11 +6352,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6591,11 +6385,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6628,11 +6418,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6665,11 +6451,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6702,11 +6484,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6739,11 +6517,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6776,11 +6550,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6813,11 +6583,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6850,11 +6616,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6887,11 +6649,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6924,11 +6682,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6961,11 +6715,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6998,11 +6748,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7035,11 +6781,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7072,11 +6814,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7109,11 +6847,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7146,11 +6880,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7183,11 +6913,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7220,11 +6946,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7257,11 +6979,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7294,11 +7012,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7331,11 +7045,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7368,11 +7078,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7401,15 +7107,15 @@
         <v>-1008029.55300667</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>68.54000000000001</v>
+      </c>
+      <c r="J196" t="n">
+        <v>68.54000000000001</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7441,10 +7147,12 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L197" t="n">
@@ -7478,10 +7186,12 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L198" t="n">
@@ -7515,7 +7225,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7552,7 +7264,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7589,7 +7303,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7626,7 +7342,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7663,7 +7381,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7700,7 +7420,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7737,7 +7459,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7774,7 +7498,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7811,7 +7537,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7848,7 +7576,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7885,7 +7615,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7922,7 +7654,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7959,7 +7693,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7996,7 +7732,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8033,7 +7771,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8070,7 +7810,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8107,7 +7849,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8144,7 +7888,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8181,7 +7927,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8218,7 +7966,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8252,10 +8002,14 @@
         <v>-1126601.799152666</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="J219" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8292,7 +8046,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8326,10 +8082,14 @@
         <v>-1127819.014152665</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>68.34999999999999</v>
+      </c>
+      <c r="J221" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8363,10 +8123,14 @@
         <v>-1123659.608152665</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>68.36</v>
+      </c>
+      <c r="J222" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8403,7 +8167,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8440,7 +8206,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8477,7 +8245,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8514,7 +8284,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8551,7 +8323,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8588,7 +8362,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8625,7 +8401,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8662,7 +8440,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8699,7 +8479,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8736,7 +8518,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8773,7 +8557,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8810,7 +8596,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8847,7 +8635,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8884,7 +8674,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8921,7 +8713,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8958,7 +8752,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8995,7 +8791,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9032,7 +8830,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9069,7 +8869,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9106,7 +8908,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9143,7 +8947,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9180,7 +8986,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9217,7 +9025,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9254,7 +9064,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9291,7 +9103,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9328,7 +9142,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9365,7 +9181,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9402,7 +9220,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9439,7 +9259,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9476,7 +9298,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9513,7 +9337,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9550,7 +9376,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9587,7 +9415,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9624,7 +9454,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9661,7 +9493,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9698,7 +9532,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9735,7 +9571,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9772,7 +9610,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9809,7 +9649,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9846,7 +9688,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9883,7 +9727,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9920,7 +9766,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9957,7 +9805,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9994,7 +9844,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10031,7 +9883,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10068,7 +9922,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>68.54000000000001</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10080,6 +9936,6 @@
       <c r="M268" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest WOM.xlsx
+++ b/BackTest/2020-01-19 BackTest WOM.xlsx
@@ -682,7 +682,7 @@
         <v>189396.6310407723</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>189396.6310407723</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>189396.6310407723</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>189473.6310407723</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>178740.0287407723</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>108359.5993407723</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-171963.8368592277</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -3454,14 +3454,10 @@
         <v>-902332.1710194341</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="J93" t="n">
-        <v>66.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
@@ -3491,19 +3487,11 @@
         <v>-902332.1710194341</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3532,19 +3520,11 @@
         <v>-883655.9290194341</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="J95" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3573,19 +3553,11 @@
         <v>-883655.9290194341</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="J96" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3614,19 +3586,11 @@
         <v>-883655.9290194341</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="J97" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3661,13 +3625,9 @@
         <v>66.59</v>
       </c>
       <c r="J98" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>66.59</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3702,11 +3662,11 @@
         <v>66.78</v>
       </c>
       <c r="J99" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -3737,15 +3697,17 @@
         <v>-879638.8738651531</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>67.56999999999999</v>
+      </c>
       <c r="J100" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -3776,15 +3738,17 @@
         <v>-886965.5854651531</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>67.55</v>
+      </c>
       <c r="J101" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -3821,7 +3785,7 @@
         <v>66.8</v>
       </c>
       <c r="J102" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3856,11 +3820,13 @@
         <v>-904073.5632651531</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>66.59</v>
+      </c>
       <c r="J103" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -3895,11 +3861,13 @@
         <v>-904073.5632651531</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>67.48999999999999</v>
+      </c>
       <c r="J104" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -3934,11 +3902,13 @@
         <v>-904073.5632651531</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>67.48999999999999</v>
+      </c>
       <c r="J105" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -3973,13 +3943,11 @@
         <v>-904073.5632651531</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>67.48999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4014,11 +3982,13 @@
         <v>-904073.5632651531</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>67.48999999999999</v>
+      </c>
       <c r="J107" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4059,7 +4029,7 @@
         <v>67.48999999999999</v>
       </c>
       <c r="J108" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4100,7 +4070,7 @@
         <v>66.8</v>
       </c>
       <c r="J109" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4141,7 +4111,7 @@
         <v>66.81</v>
       </c>
       <c r="J110" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4182,7 +4152,7 @@
         <v>66.70999999999999</v>
       </c>
       <c r="J111" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4223,7 +4193,7 @@
         <v>66.70999999999999</v>
       </c>
       <c r="J112" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4264,7 +4234,7 @@
         <v>66.73</v>
       </c>
       <c r="J113" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4305,7 +4275,7 @@
         <v>67.47</v>
       </c>
       <c r="J114" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4346,7 +4316,7 @@
         <v>66.8</v>
       </c>
       <c r="J115" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4387,7 +4357,7 @@
         <v>66.8</v>
       </c>
       <c r="J116" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4428,7 +4398,7 @@
         <v>66.8</v>
       </c>
       <c r="J117" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4469,7 +4439,7 @@
         <v>68.2</v>
       </c>
       <c r="J118" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4504,11 +4474,13 @@
         <v>-894302.0496614435</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>68.2</v>
+      </c>
       <c r="J119" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4543,11 +4515,13 @@
         <v>-883756.3273651531</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>68.2</v>
+      </c>
       <c r="J120" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4586,7 +4560,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4625,7 +4599,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4664,7 +4638,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4703,7 +4677,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4742,7 +4716,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4781,7 +4755,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4820,7 +4794,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4855,23 +4829,21 @@
         <v>-789908.3931568123</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>66.78</v>
+        <v>66.59</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.144895178197065</v>
-      </c>
-      <c r="M128" t="n">
-        <v>1.124924471299094</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4896,11 +4868,17 @@
         <v>-850523.3535568123</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4929,11 +4907,17 @@
         <v>-876148.2728705297</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4962,11 +4946,17 @@
         <v>-897466.5237705297</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4995,11 +4985,17 @@
         <v>-905758.7674705297</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5031,8 +5027,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5064,8 +5066,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5097,8 +5105,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5130,8 +5144,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5163,8 +5183,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5196,8 +5222,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5229,8 +5261,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5262,8 +5300,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5295,8 +5339,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5328,8 +5378,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5361,8 +5417,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5394,8 +5456,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5427,8 +5495,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5460,8 +5534,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5493,8 +5573,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5526,8 +5612,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5559,8 +5651,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5589,11 +5687,17 @@
         <v>-947061.8298550146</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5622,11 +5726,17 @@
         <v>-945512.3300550146</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5655,11 +5765,17 @@
         <v>-929177.5059550146</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5688,11 +5804,17 @@
         <v>-932062.2191550146</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5721,11 +5843,17 @@
         <v>-932062.2191550146</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5754,11 +5882,17 @@
         <v>-932062.2191550146</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5787,11 +5921,17 @@
         <v>-933024.9681550146</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5820,11 +5960,17 @@
         <v>-936067.7752550145</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5853,11 +5999,17 @@
         <v>-936067.7752550145</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5886,11 +6038,17 @@
         <v>-873660.9585550146</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5919,11 +6077,17 @@
         <v>-872969.1227550146</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5952,11 +6116,17 @@
         <v>-872946.3111550146</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5985,11 +6155,17 @@
         <v>-882648.9874550146</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6021,8 +6197,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6054,8 +6236,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6087,8 +6275,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6120,8 +6314,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6153,8 +6353,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6183,11 +6389,17 @@
         <v>-884484.9391552812</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6216,11 +6428,17 @@
         <v>-884484.9391552812</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6249,11 +6467,17 @@
         <v>-881606.6192066704</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6282,11 +6506,17 @@
         <v>-881606.6192066704</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6318,8 +6548,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6351,8 +6587,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6384,8 +6626,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6417,8 +6665,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6450,8 +6704,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6483,8 +6743,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6516,8 +6782,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6549,8 +6821,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6582,8 +6860,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6615,8 +6899,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6648,8 +6938,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6681,8 +6977,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6714,8 +7016,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6747,8 +7055,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6780,8 +7094,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6813,8 +7133,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6846,8 +7172,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6879,8 +7211,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6912,8 +7250,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6945,8 +7289,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6978,8 +7328,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7011,8 +7367,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7044,8 +7406,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7077,8 +7445,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7107,15 +7481,17 @@
         <v>-1008029.55300667</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>68.54000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>68.54000000000001</v>
-      </c>
-      <c r="K196" t="inlineStr"/>
+        <v>66.59</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7148,11 +7524,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L197" t="n">
@@ -7187,11 +7563,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L198" t="n">
@@ -7226,7 +7602,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7265,7 +7641,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7304,7 +7680,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7343,7 +7719,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7382,7 +7758,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7421,7 +7797,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7460,7 +7836,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7499,7 +7875,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7538,7 +7914,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7577,7 +7953,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7616,7 +7992,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7655,7 +8031,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7694,7 +8070,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7733,7 +8109,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7772,7 +8148,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7811,7 +8187,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7850,7 +8226,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7889,7 +8265,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7928,7 +8304,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -7967,7 +8343,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8002,13 +8378,11 @@
         <v>-1126601.799152666</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>68.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8047,7 +8421,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8082,13 +8456,11 @@
         <v>-1127819.014152665</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>68.34999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8123,13 +8495,11 @@
         <v>-1123659.608152665</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>68.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8168,7 +8538,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8207,7 +8577,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8246,7 +8616,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8285,7 +8655,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8324,7 +8694,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8363,7 +8733,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8402,7 +8772,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8441,7 +8811,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8480,7 +8850,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8519,7 +8889,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8558,7 +8928,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8597,7 +8967,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8636,7 +9006,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8675,7 +9045,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8714,7 +9084,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8753,7 +9123,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8792,7 +9162,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8831,7 +9201,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8870,7 +9240,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8909,7 +9279,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8948,7 +9318,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8987,7 +9357,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9026,7 +9396,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9065,7 +9435,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9104,7 +9474,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9143,7 +9513,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9182,7 +9552,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9221,7 +9591,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9260,7 +9630,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9299,7 +9669,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9338,7 +9708,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9377,7 +9747,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9416,7 +9786,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9455,7 +9825,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9494,7 +9864,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9533,7 +9903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9572,7 +9942,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9611,7 +9981,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9650,7 +10020,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9689,7 +10059,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9728,7 +10098,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9767,7 +10137,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9806,7 +10176,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9845,7 +10215,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9884,7 +10254,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9923,7 +10293,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>68.54000000000001</v>
+        <v>66.59</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>

--- a/BackTest/2020-01-19 BackTest WOM.xlsx
+++ b/BackTest/2020-01-19 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M268"/>
+  <dimension ref="A1:L268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2540.9164</v>
       </c>
       <c r="G2" t="n">
-        <v>173682.6485407723</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>932.3524</v>
       </c>
       <c r="G3" t="n">
-        <v>174615.0009407723</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>19336.8261</v>
       </c>
       <c r="G4" t="n">
-        <v>193951.8270407723</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>10200</v>
       </c>
       <c r="G5" t="n">
-        <v>204151.8270407723</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>11358.7366</v>
       </c>
       <c r="G6" t="n">
-        <v>215510.5636407723</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>7421.6619</v>
       </c>
       <c r="G7" t="n">
-        <v>208088.9017407723</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>9.3468</v>
       </c>
       <c r="G8" t="n">
-        <v>208098.2485407723</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>18701.6175</v>
       </c>
       <c r="G9" t="n">
-        <v>189396.6310407723</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>516.0469000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>189396.6310407723</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>12847.5939</v>
       </c>
       <c r="G11" t="n">
-        <v>189396.6310407723</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>77</v>
       </c>
       <c r="G12" t="n">
-        <v>189473.6310407723</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>10733.6023</v>
       </c>
       <c r="G13" t="n">
-        <v>178740.0287407723</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>70380.42939999999</v>
       </c>
       <c r="G14" t="n">
-        <v>108359.5993407723</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>50026.1944</v>
       </c>
       <c r="G15" t="n">
-        <v>58333.40494077229</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>230387.6547</v>
       </c>
       <c r="G16" t="n">
-        <v>-172054.2497592277</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>26943.0336</v>
       </c>
       <c r="G17" t="n">
-        <v>-172054.2497592277</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>90.41289999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>-171963.8368592277</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>40.6858</v>
       </c>
       <c r="G19" t="n">
-        <v>-171923.1510592277</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>75.3704</v>
       </c>
       <c r="G20" t="n">
-        <v>-171847.7806592277</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>79.63079999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>-171927.4114592277</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>232118.2818</v>
       </c>
       <c r="G22" t="n">
-        <v>-404045.6932592277</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>120150.252416129</v>
       </c>
       <c r="G23" t="n">
-        <v>-524195.9456753567</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>53520.4047</v>
       </c>
       <c r="G24" t="n">
-        <v>-577716.3503753567</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>26.1</v>
       </c>
       <c r="G25" t="n">
-        <v>-577742.4503753567</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>4878.7687</v>
       </c>
       <c r="G26" t="n">
-        <v>-572863.6816753567</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1222</v>
       </c>
       <c r="G27" t="n">
-        <v>-574085.6816753567</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>39129.6428</v>
       </c>
       <c r="G28" t="n">
-        <v>-534956.0388753567</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>29762.6102</v>
       </c>
       <c r="G29" t="n">
-        <v>-564718.6490753567</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>4046.4494</v>
       </c>
       <c r="G30" t="n">
-        <v>-568765.0984753567</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>7.311</v>
       </c>
       <c r="G31" t="n">
-        <v>-568757.7874753567</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>4038.4494</v>
       </c>
       <c r="G32" t="n">
-        <v>-572796.2368753568</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>9803.153200000001</v>
       </c>
       <c r="G33" t="n">
-        <v>-562993.0836753568</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>8963.298000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>-562993.0836753568</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>7500</v>
       </c>
       <c r="G35" t="n">
-        <v>-570493.0836753568</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>7693.241</v>
       </c>
       <c r="G36" t="n">
-        <v>-578186.3246753569</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>13447.3705</v>
       </c>
       <c r="G37" t="n">
-        <v>-564738.9541753569</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>9333.3495</v>
       </c>
       <c r="G38" t="n">
-        <v>-564738.9541753569</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>7636.4254</v>
       </c>
       <c r="G39" t="n">
-        <v>-572375.3795753568</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>11274.617</v>
       </c>
       <c r="G40" t="n">
-        <v>-583649.9965753568</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>21064.8803</v>
       </c>
       <c r="G41" t="n">
-        <v>-604714.8768753568</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>6206.013</v>
       </c>
       <c r="G42" t="n">
-        <v>-610920.8898753568</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>2734.1608</v>
       </c>
       <c r="G43" t="n">
-        <v>-613655.0506753568</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>290.6976744186047</v>
       </c>
       <c r="G44" t="n">
-        <v>-613364.3530009382</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>15046.4285</v>
       </c>
       <c r="G45" t="n">
-        <v>-628410.7815009382</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>293.057</v>
       </c>
       <c r="G46" t="n">
-        <v>-628117.7245009382</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>2910.3649</v>
       </c>
       <c r="G47" t="n">
-        <v>-628117.7245009382</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>7693.2411</v>
       </c>
       <c r="G48" t="n">
-        <v>-635810.9656009382</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>8928.198399999999</v>
       </c>
       <c r="G49" t="n">
-        <v>-626882.7672009382</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>581.0145</v>
       </c>
       <c r="G50" t="n">
-        <v>-627463.7817009382</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>8347.1839</v>
       </c>
       <c r="G51" t="n">
-        <v>-635810.9656009382</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>8</v>
       </c>
       <c r="G52" t="n">
-        <v>-635802.9656009382</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>6259.9911</v>
       </c>
       <c r="G53" t="n">
-        <v>-642062.9567009382</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>8</v>
       </c>
       <c r="G54" t="n">
-        <v>-642054.9567009382</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>9545.538200000001</v>
       </c>
       <c r="G55" t="n">
-        <v>-651600.4949009381</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>457.4532</v>
       </c>
       <c r="G56" t="n">
-        <v>-651600.4949009381</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>1203.2026</v>
       </c>
       <c r="G57" t="n">
-        <v>-652803.6975009381</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>27054.4317</v>
       </c>
       <c r="G58" t="n">
-        <v>-679858.129200938</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>15609.2882</v>
       </c>
       <c r="G59" t="n">
-        <v>-679858.129200938</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>9440.854600000001</v>
       </c>
       <c r="G60" t="n">
-        <v>-689298.983800938</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>600</v>
       </c>
       <c r="G61" t="n">
-        <v>-689898.983800938</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>3000</v>
       </c>
       <c r="G62" t="n">
-        <v>-689898.983800938</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>9036.785900000001</v>
       </c>
       <c r="G63" t="n">
-        <v>-689898.983800938</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>40007.7963</v>
       </c>
       <c r="G64" t="n">
-        <v>-729906.780100938</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>10001.949</v>
       </c>
       <c r="G65" t="n">
-        <v>-729906.780100938</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>1205.8303</v>
       </c>
       <c r="G66" t="n">
-        <v>-728700.949800938</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1396.4119</v>
       </c>
       <c r="G67" t="n">
-        <v>-730097.361700938</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>25.516</v>
       </c>
       <c r="G68" t="n">
-        <v>-730071.845700938</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>9811.289000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>-730071.845700938</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>17560.1731</v>
       </c>
       <c r="G70" t="n">
-        <v>-730071.845700938</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>13611.3719</v>
       </c>
       <c r="G71" t="n">
-        <v>-730071.845700938</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>44236.7141</v>
       </c>
       <c r="G72" t="n">
-        <v>-774308.559800938</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>54.259</v>
       </c>
       <c r="G73" t="n">
-        <v>-774362.818800938</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>1602.2422</v>
       </c>
       <c r="G74" t="n">
-        <v>-775965.0610009379</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>11641.122</v>
       </c>
       <c r="G75" t="n">
-        <v>-787606.1830009379</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>3418.7448</v>
       </c>
       <c r="G76" t="n">
-        <v>-787606.1830009379</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>189.3495</v>
       </c>
       <c r="G77" t="n">
-        <v>-787795.5325009379</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>170.4383</v>
       </c>
       <c r="G78" t="n">
-        <v>-787965.970800938</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>10478.4959</v>
       </c>
       <c r="G79" t="n">
-        <v>-798444.4667009379</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>33210.2362</v>
       </c>
       <c r="G80" t="n">
-        <v>-831654.702900938</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>68284.4578</v>
       </c>
       <c r="G81" t="n">
-        <v>-899939.160700938</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>3844.7195</v>
       </c>
       <c r="G82" t="n">
-        <v>-899939.160700938</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>6268.719</v>
       </c>
       <c r="G83" t="n">
-        <v>-893670.4417009379</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>9305.6967</v>
       </c>
       <c r="G84" t="n">
-        <v>-893670.4417009379</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>4654.5436</v>
       </c>
       <c r="G85" t="n">
-        <v>-893670.4417009379</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>2884.8388</v>
       </c>
       <c r="G86" t="n">
-        <v>-893670.4417009379</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>1459.366881503915</v>
       </c>
       <c r="G87" t="n">
-        <v>-892211.074819434</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>1852.376</v>
       </c>
       <c r="G88" t="n">
-        <v>-894063.450819434</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>8</v>
       </c>
       <c r="G89" t="n">
-        <v>-894063.450819434</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>4320.9988</v>
       </c>
       <c r="G90" t="n">
-        <v>-889742.4520194341</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>738.1348</v>
       </c>
       <c r="G91" t="n">
-        <v>-889742.4520194341</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>0.8652</v>
       </c>
       <c r="G92" t="n">
-        <v>-889742.4520194341</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>12589.719</v>
       </c>
       <c r="G93" t="n">
-        <v>-902332.1710194341</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>28755.7513</v>
       </c>
       <c r="G94" t="n">
-        <v>-902332.1710194341</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>18676.242</v>
       </c>
       <c r="G95" t="n">
-        <v>-883655.9290194341</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>12926.0642</v>
       </c>
       <c r="G96" t="n">
-        <v>-883655.9290194341</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>13560.6064</v>
       </c>
       <c r="G97" t="n">
-        <v>-883655.9290194341</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,22 +3323,19 @@
         <v>616.8745</v>
       </c>
       <c r="G98" t="n">
-        <v>-883039.0545194341</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>66.59</v>
       </c>
       <c r="I98" t="n">
         <v>66.59</v>
       </c>
-      <c r="J98" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3653,26 +3357,23 @@
         <v>4439.840165754033</v>
       </c>
       <c r="G99" t="n">
-        <v>-878599.21435368</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>66.78</v>
       </c>
       <c r="I99" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="J99" t="n">
         <v>66.59</v>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3694,26 +3395,23 @@
         <v>1039.659511472983</v>
       </c>
       <c r="G100" t="n">
-        <v>-879638.8738651531</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="I100" t="n">
-        <v>67.56999999999999</v>
-      </c>
-      <c r="J100" t="n">
         <v>66.59</v>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3735,26 +3433,23 @@
         <v>7326.7116</v>
       </c>
       <c r="G101" t="n">
-        <v>-886965.5854651531</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>67.55</v>
       </c>
       <c r="I101" t="n">
-        <v>67.55</v>
-      </c>
-      <c r="J101" t="n">
         <v>66.59</v>
       </c>
-      <c r="K101" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3776,26 +3471,23 @@
         <v>17115.9778</v>
       </c>
       <c r="G102" t="n">
-        <v>-904081.5632651531</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>66.8</v>
       </c>
       <c r="I102" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="J102" t="n">
         <v>66.59</v>
       </c>
-      <c r="K102" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3817,26 +3509,23 @@
         <v>8</v>
       </c>
       <c r="G103" t="n">
-        <v>-904073.5632651531</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>66.59</v>
       </c>
       <c r="I103" t="n">
         <v>66.59</v>
       </c>
-      <c r="J103" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K103" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3858,26 +3547,23 @@
         <v>1000</v>
       </c>
       <c r="G104" t="n">
-        <v>-904073.5632651531</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="I104" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="J104" t="n">
         <v>66.59</v>
       </c>
-      <c r="K104" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3899,26 +3585,23 @@
         <v>5524.512</v>
       </c>
       <c r="G105" t="n">
-        <v>-904073.5632651531</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="I105" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="J105" t="n">
         <v>66.59</v>
       </c>
-      <c r="K105" t="inlineStr">
+      <c r="J105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3940,24 +3623,21 @@
         <v>1265.917</v>
       </c>
       <c r="G106" t="n">
-        <v>-904073.5632651531</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
         <v>66.59</v>
       </c>
-      <c r="K106" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3979,26 +3659,21 @@
         <v>7646.1965</v>
       </c>
       <c r="G107" t="n">
-        <v>-904073.5632651531</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="J107" t="n">
         <v>66.59</v>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="J107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4020,26 +3695,21 @@
         <v>1965.7939</v>
       </c>
       <c r="G108" t="n">
-        <v>-906039.3571651531</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="J108" t="n">
         <v>66.59</v>
       </c>
-      <c r="K108" t="inlineStr">
+      <c r="J108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4061,26 +3731,23 @@
         <v>3578.5808</v>
       </c>
       <c r="G109" t="n">
-        <v>-902460.7763651531</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>66.8</v>
       </c>
       <c r="I109" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="J109" t="n">
         <v>66.59</v>
       </c>
-      <c r="K109" t="inlineStr">
+      <c r="J109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4102,26 +3769,23 @@
         <v>19115.5142</v>
       </c>
       <c r="G110" t="n">
-        <v>-921576.2905651531</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>66.81</v>
       </c>
       <c r="I110" t="n">
-        <v>66.81</v>
-      </c>
-      <c r="J110" t="n">
         <v>66.59</v>
       </c>
-      <c r="K110" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4143,26 +3807,23 @@
         <v>7454.345</v>
       </c>
       <c r="G111" t="n">
-        <v>-921576.2905651531</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="I111" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="J111" t="n">
         <v>66.59</v>
       </c>
-      <c r="K111" t="inlineStr">
+      <c r="J111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4184,26 +3845,23 @@
         <v>1017.367</v>
       </c>
       <c r="G112" t="n">
-        <v>-920558.9235651531</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="I112" t="n">
-        <v>66.70999999999999</v>
-      </c>
-      <c r="J112" t="n">
         <v>66.59</v>
       </c>
-      <c r="K112" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4225,26 +3883,23 @@
         <v>10</v>
       </c>
       <c r="G113" t="n">
-        <v>-920548.9235651531</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>66.73</v>
       </c>
       <c r="I113" t="n">
-        <v>66.73</v>
-      </c>
-      <c r="J113" t="n">
         <v>66.59</v>
       </c>
-      <c r="K113" t="inlineStr">
+      <c r="J113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4266,26 +3921,21 @@
         <v>8967.812599999999</v>
       </c>
       <c r="G114" t="n">
-        <v>-929516.7361651531</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>67.47</v>
-      </c>
-      <c r="J114" t="n">
         <v>66.59</v>
       </c>
-      <c r="K114" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4307,26 +3957,21 @@
         <v>8045.618</v>
       </c>
       <c r="G115" t="n">
-        <v>-929516.7361651531</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="J115" t="n">
         <v>66.59</v>
       </c>
-      <c r="K115" t="inlineStr">
+      <c r="J115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4348,26 +3993,23 @@
         <v>971.749</v>
       </c>
       <c r="G116" t="n">
-        <v>-929516.7361651531</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>66.8</v>
       </c>
       <c r="I116" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="J116" t="n">
         <v>66.59</v>
       </c>
-      <c r="K116" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4389,26 +4031,21 @@
         <v>35214.68650370968</v>
       </c>
       <c r="G117" t="n">
-        <v>-894302.0496614435</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="J117" t="n">
         <v>66.59</v>
       </c>
-      <c r="K117" t="inlineStr">
+      <c r="J117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4430,26 +4067,23 @@
         <v>82.67829999999999</v>
       </c>
       <c r="G118" t="n">
-        <v>-894302.0496614435</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>68.2</v>
       </c>
       <c r="I118" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="J118" t="n">
         <v>66.59</v>
       </c>
-      <c r="K118" t="inlineStr">
+      <c r="J118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4471,26 +4105,21 @@
         <v>750</v>
       </c>
       <c r="G119" t="n">
-        <v>-894302.0496614435</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="J119" t="n">
         <v>66.59</v>
       </c>
-      <c r="K119" t="inlineStr">
+      <c r="J119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4512,26 +4141,21 @@
         <v>10545.72229629032</v>
       </c>
       <c r="G120" t="n">
-        <v>-883756.3273651531</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="J120" t="n">
         <v>66.59</v>
       </c>
-      <c r="K120" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4553,24 +4177,21 @@
         <v>16227.5785</v>
       </c>
       <c r="G121" t="n">
-        <v>-883756.3273651531</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
         <v>66.59</v>
       </c>
-      <c r="K121" t="inlineStr">
+      <c r="J121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4592,24 +4213,21 @@
         <v>2000</v>
       </c>
       <c r="G122" t="n">
-        <v>-881756.3273651531</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
         <v>66.59</v>
       </c>
-      <c r="K122" t="inlineStr">
+      <c r="J122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4631,24 +4249,21 @@
         <v>380</v>
       </c>
       <c r="G123" t="n">
-        <v>-881376.3273651531</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
         <v>66.59</v>
       </c>
-      <c r="K123" t="inlineStr">
+      <c r="J123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4670,24 +4285,21 @@
         <v>25640.2544</v>
       </c>
       <c r="G124" t="n">
-        <v>-855736.0729651531</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
         <v>66.59</v>
       </c>
-      <c r="K124" t="inlineStr">
+      <c r="J124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4709,24 +4321,21 @@
         <v>15741.9529</v>
       </c>
       <c r="G125" t="n">
-        <v>-839994.1200651531</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
         <v>66.59</v>
       </c>
-      <c r="K125" t="inlineStr">
+      <c r="J125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4748,24 +4357,21 @@
         <v>26759.22792119717</v>
       </c>
       <c r="G126" t="n">
-        <v>-813234.8921439559</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
         <v>66.59</v>
       </c>
-      <c r="K126" t="inlineStr">
+      <c r="J126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4787,24 +4393,21 @@
         <v>39932.12531034977</v>
       </c>
       <c r="G127" t="n">
-        <v>-773302.7668336062</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
         <v>66.59</v>
       </c>
-      <c r="K127" t="inlineStr">
+      <c r="J127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4826,24 +4429,23 @@
         <v>16605.62632320615</v>
       </c>
       <c r="G128" t="n">
-        <v>-789908.3931568123</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
+        <v>2</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
         <v>66.59</v>
       </c>
-      <c r="K128" t="inlineStr">
+      <c r="J128" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
+      <c r="K128" t="n">
+        <v>1.148176152575462</v>
+      </c>
       <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>1.124924471299094</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4865,24 +4467,15 @@
         <v>60614.9604</v>
       </c>
       <c r="G129" t="n">
-        <v>-850523.3535568123</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4904,24 +4497,15 @@
         <v>25624.91931371742</v>
       </c>
       <c r="G130" t="n">
-        <v>-876148.2728705297</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4943,24 +4527,15 @@
         <v>21318.2509</v>
       </c>
       <c r="G131" t="n">
-        <v>-897466.5237705297</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4982,24 +4557,15 @@
         <v>8292.243700000001</v>
       </c>
       <c r="G132" t="n">
-        <v>-905758.7674705297</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5021,24 +4587,15 @@
         <v>2510.3232</v>
       </c>
       <c r="G133" t="n">
-        <v>-903248.4442705297</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5060,24 +4617,15 @@
         <v>1358.0763</v>
       </c>
       <c r="G134" t="n">
-        <v>-901890.3679705297</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5099,24 +4647,15 @@
         <v>9</v>
       </c>
       <c r="G135" t="n">
-        <v>-901881.3679705297</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5138,24 +4677,15 @@
         <v>16</v>
       </c>
       <c r="G136" t="n">
-        <v>-901897.3679705297</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5177,24 +4707,15 @@
         <v>3157.6115</v>
       </c>
       <c r="G137" t="n">
-        <v>-905054.9794705297</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5216,24 +4737,15 @@
         <v>16791.2479</v>
       </c>
       <c r="G138" t="n">
-        <v>-905054.9794705297</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5255,24 +4767,15 @@
         <v>20500.3236</v>
       </c>
       <c r="G139" t="n">
-        <v>-925555.3030705297</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5294,24 +4797,15 @@
         <v>423.291</v>
       </c>
       <c r="G140" t="n">
-        <v>-925132.0120705297</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5333,24 +4827,15 @@
         <v>1677.0394</v>
       </c>
       <c r="G141" t="n">
-        <v>-923454.9726705297</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5372,24 +4857,15 @@
         <v>2040.6684</v>
       </c>
       <c r="G142" t="n">
-        <v>-925495.6410705297</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5411,24 +4887,15 @@
         <v>1332.7775</v>
       </c>
       <c r="G143" t="n">
-        <v>-925495.6410705297</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5450,24 +4917,15 @@
         <v>100</v>
       </c>
       <c r="G144" t="n">
-        <v>-925495.6410705297</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5489,24 +4947,15 @@
         <v>18.1818</v>
       </c>
       <c r="G145" t="n">
-        <v>-925477.4592705297</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5528,24 +4977,15 @@
         <v>18.1818</v>
       </c>
       <c r="G146" t="n">
-        <v>-925459.2774705297</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5567,24 +5007,15 @@
         <v>8105.8499</v>
       </c>
       <c r="G147" t="n">
-        <v>-933565.1273705297</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5606,24 +5037,15 @@
         <v>2577.6561</v>
       </c>
       <c r="G148" t="n">
-        <v>-936142.7834705297</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5645,24 +5067,15 @@
         <v>116.4836</v>
       </c>
       <c r="G149" t="n">
-        <v>-936026.2998705297</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5684,24 +5097,15 @@
         <v>11035.52998448492</v>
       </c>
       <c r="G150" t="n">
-        <v>-947061.8298550146</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5723,24 +5127,15 @@
         <v>1549.4998</v>
       </c>
       <c r="G151" t="n">
-        <v>-945512.3300550146</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5762,24 +5157,15 @@
         <v>16334.8241</v>
       </c>
       <c r="G152" t="n">
-        <v>-929177.5059550146</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5801,24 +5187,15 @@
         <v>2884.7132</v>
       </c>
       <c r="G153" t="n">
-        <v>-932062.2191550146</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5840,24 +5217,15 @@
         <v>364.1241</v>
       </c>
       <c r="G154" t="n">
-        <v>-932062.2191550146</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5879,24 +5247,15 @@
         <v>245.7929</v>
       </c>
       <c r="G155" t="n">
-        <v>-932062.2191550146</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5918,24 +5277,15 @@
         <v>962.749</v>
       </c>
       <c r="G156" t="n">
-        <v>-933024.9681550146</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5957,24 +5307,15 @@
         <v>3042.8071</v>
       </c>
       <c r="G157" t="n">
-        <v>-936067.7752550145</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5996,24 +5337,15 @@
         <v>1450.0641</v>
       </c>
       <c r="G158" t="n">
-        <v>-936067.7752550145</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6035,24 +5367,15 @@
         <v>62406.8167</v>
       </c>
       <c r="G159" t="n">
-        <v>-873660.9585550146</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6074,24 +5397,15 @@
         <v>691.8357999999999</v>
       </c>
       <c r="G160" t="n">
-        <v>-872969.1227550146</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6113,24 +5427,15 @@
         <v>22.8116</v>
       </c>
       <c r="G161" t="n">
-        <v>-872946.3111550146</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6152,24 +5457,15 @@
         <v>9702.676299999999</v>
       </c>
       <c r="G162" t="n">
-        <v>-882648.9874550146</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6191,24 +5487,15 @@
         <v>1135.5785</v>
       </c>
       <c r="G163" t="n">
-        <v>-883784.5659550146</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6230,24 +5517,15 @@
         <v>298.0617</v>
       </c>
       <c r="G164" t="n">
-        <v>-883784.5659550146</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6269,24 +5547,15 @@
         <v>909.7637</v>
       </c>
       <c r="G165" t="n">
-        <v>-884694.3296550146</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6308,24 +5577,15 @@
         <v>1726.8833</v>
       </c>
       <c r="G166" t="n">
-        <v>-886421.2129550145</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6347,24 +5607,15 @@
         <v>337.724</v>
       </c>
       <c r="G167" t="n">
-        <v>-886421.2129550145</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6386,24 +5637,15 @@
         <v>1936.273799733408</v>
       </c>
       <c r="G168" t="n">
-        <v>-884484.9391552812</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6425,24 +5667,15 @@
         <v>6072.880300266592</v>
       </c>
       <c r="G169" t="n">
-        <v>-884484.9391552812</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6464,24 +5697,15 @@
         <v>2878.319948610725</v>
       </c>
       <c r="G170" t="n">
-        <v>-881606.6192066704</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6503,24 +5727,15 @@
         <v>2314.905451389275</v>
       </c>
       <c r="G171" t="n">
-        <v>-881606.6192066704</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6542,24 +5757,15 @@
         <v>6144.2795</v>
       </c>
       <c r="G172" t="n">
-        <v>-887750.8987066704</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6581,24 +5787,15 @@
         <v>151.1953</v>
       </c>
       <c r="G173" t="n">
-        <v>-887902.0940066704</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6620,24 +5817,15 @@
         <v>3819.6014</v>
       </c>
       <c r="G174" t="n">
-        <v>-891721.6954066704</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6659,24 +5847,15 @@
         <v>423.8133</v>
       </c>
       <c r="G175" t="n">
-        <v>-891297.8821066704</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6698,24 +5877,15 @@
         <v>1775.6889</v>
       </c>
       <c r="G176" t="n">
-        <v>-893073.5710066704</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6737,24 +5907,15 @@
         <v>5619.8486</v>
       </c>
       <c r="G177" t="n">
-        <v>-893073.5710066704</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6776,24 +5937,15 @@
         <v>430.6108</v>
       </c>
       <c r="G178" t="n">
-        <v>-893073.5710066704</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6815,24 +5967,15 @@
         <v>8719.972900000001</v>
       </c>
       <c r="G179" t="n">
-        <v>-893073.5710066704</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6854,24 +5997,15 @@
         <v>58774.7716</v>
       </c>
       <c r="G180" t="n">
-        <v>-951848.3426066703</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6893,24 +6027,15 @@
         <v>4677.1205</v>
       </c>
       <c r="G181" t="n">
-        <v>-956525.4631066703</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6932,24 +6057,15 @@
         <v>523.6355</v>
       </c>
       <c r="G182" t="n">
-        <v>-957049.0986066703</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6971,24 +6087,15 @@
         <v>114515.9633</v>
       </c>
       <c r="G183" t="n">
-        <v>-1071565.06190667</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,24 +6117,15 @@
         <v>1329.5908</v>
       </c>
       <c r="G184" t="n">
-        <v>-1071565.06190667</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7049,24 +6147,15 @@
         <v>61841.7928</v>
       </c>
       <c r="G185" t="n">
-        <v>-1009723.26910667</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7088,24 +6177,15 @@
         <v>2093.3289</v>
       </c>
       <c r="G186" t="n">
-        <v>-1011816.59800667</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7127,24 +6207,15 @@
         <v>3876.052</v>
       </c>
       <c r="G187" t="n">
-        <v>-1011816.59800667</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7166,24 +6237,15 @@
         <v>717.4081</v>
       </c>
       <c r="G188" t="n">
-        <v>-1012534.00610667</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7205,24 +6267,15 @@
         <v>1855.7173</v>
       </c>
       <c r="G189" t="n">
-        <v>-1012534.00610667</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7244,24 +6297,15 @@
         <v>5602.1946</v>
       </c>
       <c r="G190" t="n">
-        <v>-1012534.00610667</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7283,24 +6327,15 @@
         <v>1842.6494</v>
       </c>
       <c r="G191" t="n">
-        <v>-1012534.00610667</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7322,24 +6357,15 @@
         <v>8409.532300000001</v>
       </c>
       <c r="G192" t="n">
-        <v>-1012534.00610667</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7361,24 +6387,15 @@
         <v>2238.3358</v>
       </c>
       <c r="G193" t="n">
-        <v>-1014772.34190667</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7400,24 +6417,15 @@
         <v>9725.9023</v>
       </c>
       <c r="G194" t="n">
-        <v>-1005046.43960667</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7439,24 +6447,15 @@
         <v>8905.0725</v>
       </c>
       <c r="G195" t="n">
-        <v>-1013951.51210667</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7478,24 +6477,15 @@
         <v>5921.9591</v>
       </c>
       <c r="G196" t="n">
-        <v>-1008029.55300667</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7517,24 +6507,15 @@
         <v>29.4965</v>
       </c>
       <c r="G197" t="n">
-        <v>-1008000.05650667</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7556,24 +6537,15 @@
         <v>92265.713</v>
       </c>
       <c r="G198" t="n">
-        <v>-1100265.76950667</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7595,24 +6567,15 @@
         <v>518.6989540048718</v>
       </c>
       <c r="G199" t="n">
-        <v>-1099747.070552666</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7634,24 +6597,15 @@
         <v>5001.6731</v>
       </c>
       <c r="G200" t="n">
-        <v>-1099747.070552666</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7673,24 +6627,15 @@
         <v>3268.4593</v>
       </c>
       <c r="G201" t="n">
-        <v>-1099747.070552666</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7712,24 +6657,15 @@
         <v>13401.5013</v>
       </c>
       <c r="G202" t="n">
-        <v>-1113148.571852665</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7751,24 +6687,15 @@
         <v>8</v>
       </c>
       <c r="G203" t="n">
-        <v>-1113140.571852665</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7790,24 +6717,15 @@
         <v>1459.7631</v>
       </c>
       <c r="G204" t="n">
-        <v>-1113140.571852665</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7829,24 +6747,15 @@
         <v>395.7399</v>
       </c>
       <c r="G205" t="n">
-        <v>-1113140.571852665</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7868,24 +6777,15 @@
         <v>3976.1255</v>
       </c>
       <c r="G206" t="n">
-        <v>-1113140.571852665</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7907,24 +6807,15 @@
         <v>2069.0102</v>
       </c>
       <c r="G207" t="n">
-        <v>-1111071.561652665</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7946,24 +6837,15 @@
         <v>12428.1659</v>
       </c>
       <c r="G208" t="n">
-        <v>-1123499.727552665</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7985,24 +6867,15 @@
         <v>29.6186</v>
       </c>
       <c r="G209" t="n">
-        <v>-1123470.108952665</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8024,24 +6897,15 @@
         <v>120</v>
       </c>
       <c r="G210" t="n">
-        <v>-1123590.108952665</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8063,24 +6927,15 @@
         <v>2404.7364</v>
       </c>
       <c r="G211" t="n">
-        <v>-1121185.372552665</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8102,24 +6957,15 @@
         <v>939.4596</v>
       </c>
       <c r="G212" t="n">
-        <v>-1120245.912952665</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8141,24 +6987,15 @@
         <v>251.9952</v>
       </c>
       <c r="G213" t="n">
-        <v>-1120497.908152665</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8180,24 +7017,15 @@
         <v>700</v>
       </c>
       <c r="G214" t="n">
-        <v>-1119797.908152665</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8219,24 +7047,15 @@
         <v>1400</v>
       </c>
       <c r="G215" t="n">
-        <v>-1119797.908152665</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8258,24 +7077,15 @@
         <v>4540.794</v>
       </c>
       <c r="G216" t="n">
-        <v>-1124338.702152665</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8297,24 +7107,15 @@
         <v>2270.397</v>
       </c>
       <c r="G217" t="n">
-        <v>-1126609.099152666</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8336,24 +7137,15 @@
         <v>13795.2514</v>
       </c>
       <c r="G218" t="n">
-        <v>-1126609.099152666</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8375,24 +7167,15 @@
         <v>7.3</v>
       </c>
       <c r="G219" t="n">
-        <v>-1126601.799152666</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8414,24 +7197,15 @@
         <v>14827.7606</v>
       </c>
       <c r="G220" t="n">
-        <v>-1141429.559752665</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8453,24 +7227,15 @@
         <v>13610.5456</v>
       </c>
       <c r="G221" t="n">
-        <v>-1127819.014152665</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8492,24 +7257,15 @@
         <v>4159.406</v>
       </c>
       <c r="G222" t="n">
-        <v>-1123659.608152665</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8531,24 +7287,15 @@
         <v>1840.2402</v>
       </c>
       <c r="G223" t="n">
-        <v>-1123659.608152665</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8570,24 +7317,15 @@
         <v>3355.8962</v>
       </c>
       <c r="G224" t="n">
-        <v>-1123659.608152665</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8609,24 +7347,15 @@
         <v>3998.964423298467</v>
       </c>
       <c r="G225" t="n">
-        <v>-1119660.643729367</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8648,24 +7377,15 @@
         <v>10445.4983</v>
       </c>
       <c r="G226" t="n">
-        <v>-1130106.142029367</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8687,24 +7407,15 @@
         <v>4989.5695</v>
       </c>
       <c r="G227" t="n">
-        <v>-1125116.572529367</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8726,24 +7437,15 @@
         <v>4010.0198</v>
       </c>
       <c r="G228" t="n">
-        <v>-1121106.552729367</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8765,24 +7467,15 @@
         <v>16085.51977670153</v>
       </c>
       <c r="G229" t="n">
-        <v>-1105021.032952666</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8804,24 +7497,15 @@
         <v>161.7863</v>
       </c>
       <c r="G230" t="n">
-        <v>-1104859.246652666</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8843,24 +7527,15 @@
         <v>661.6052</v>
       </c>
       <c r="G231" t="n">
-        <v>-1104859.246652666</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8882,24 +7557,15 @@
         <v>5571.1194</v>
       </c>
       <c r="G232" t="n">
-        <v>-1099288.127252666</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8921,24 +7587,15 @@
         <v>4591.0567</v>
       </c>
       <c r="G233" t="n">
-        <v>-1094697.070552666</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8960,24 +7617,15 @@
         <v>2151.9741</v>
       </c>
       <c r="G234" t="n">
-        <v>-1092545.096452666</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8999,24 +7647,15 @@
         <v>5948.249</v>
       </c>
       <c r="G235" t="n">
-        <v>-1092545.096452666</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9038,24 +7677,15 @@
         <v>1562.8465</v>
       </c>
       <c r="G236" t="n">
-        <v>-1094107.942952666</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9077,24 +7707,15 @@
         <v>12323.4002</v>
       </c>
       <c r="G237" t="n">
-        <v>-1106431.343152666</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9116,24 +7737,15 @@
         <v>6933.9776</v>
       </c>
       <c r="G238" t="n">
-        <v>-1113365.320752666</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9155,24 +7767,15 @@
         <v>1405.1364</v>
       </c>
       <c r="G239" t="n">
-        <v>-1111960.184352666</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9194,24 +7797,15 @@
         <v>6240.5798</v>
       </c>
       <c r="G240" t="n">
-        <v>-1118200.764152666</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9233,24 +7827,15 @@
         <v>42.14</v>
       </c>
       <c r="G241" t="n">
-        <v>-1118158.624152666</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9272,24 +7857,15 @@
         <v>20000</v>
       </c>
       <c r="G242" t="n">
-        <v>-1118158.624152666</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9311,24 +7887,15 @@
         <v>799.4788</v>
       </c>
       <c r="G243" t="n">
-        <v>-1118158.624152666</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9350,24 +7917,15 @@
         <v>1654.6165</v>
       </c>
       <c r="G244" t="n">
-        <v>-1116504.007652666</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9389,24 +7947,15 @@
         <v>10174.859</v>
       </c>
       <c r="G245" t="n">
-        <v>-1106329.148652666</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9428,24 +7977,15 @@
         <v>2265.508</v>
       </c>
       <c r="G246" t="n">
-        <v>-1106329.148652666</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9467,24 +8007,15 @@
         <v>5232.3445</v>
       </c>
       <c r="G247" t="n">
-        <v>-1111561.493152666</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9506,24 +8037,15 @@
         <v>5001.6731</v>
       </c>
       <c r="G248" t="n">
-        <v>-1106559.820052666</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9545,24 +8067,15 @@
         <v>21350.8964</v>
       </c>
       <c r="G249" t="n">
-        <v>-1085208.923652666</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9584,24 +8097,15 @@
         <v>14.1605</v>
       </c>
       <c r="G250" t="n">
-        <v>-1085223.084152666</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9623,24 +8127,15 @@
         <v>70.4036</v>
       </c>
       <c r="G251" t="n">
-        <v>-1085293.487752666</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9662,24 +8157,15 @@
         <v>2081.8941</v>
       </c>
       <c r="G252" t="n">
-        <v>-1083211.593652666</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9701,24 +8187,15 @@
         <v>4103.2685</v>
       </c>
       <c r="G253" t="n">
-        <v>-1079108.325152666</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9740,24 +8217,15 @@
         <v>6910.5479</v>
       </c>
       <c r="G254" t="n">
-        <v>-1079108.325152666</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9779,24 +8247,15 @@
         <v>1767.0671</v>
       </c>
       <c r="G255" t="n">
-        <v>-1079108.325152666</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9818,24 +8277,15 @@
         <v>5772.6384</v>
       </c>
       <c r="G256" t="n">
-        <v>-1073335.686752666</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9857,24 +8307,15 @@
         <v>8500</v>
       </c>
       <c r="G257" t="n">
-        <v>-1081835.686752666</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9896,24 +8337,15 @@
         <v>400</v>
       </c>
       <c r="G258" t="n">
-        <v>-1082235.686752666</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9935,24 +8367,15 @@
         <v>4191.0567</v>
       </c>
       <c r="G259" t="n">
-        <v>-1086426.743452666</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9974,24 +8397,15 @@
         <v>10</v>
       </c>
       <c r="G260" t="n">
-        <v>-1086416.743452666</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10013,24 +8427,15 @@
         <v>455.0835</v>
       </c>
       <c r="G261" t="n">
-        <v>-1086416.743452666</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10052,24 +8457,15 @@
         <v>10</v>
       </c>
       <c r="G262" t="n">
-        <v>-1086406.743452666</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10091,24 +8487,15 @@
         <v>10</v>
       </c>
       <c r="G263" t="n">
-        <v>-1086406.743452666</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10130,24 +8517,15 @@
         <v>10</v>
       </c>
       <c r="G264" t="n">
-        <v>-1086406.743452666</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10169,24 +8547,15 @@
         <v>1000</v>
       </c>
       <c r="G265" t="n">
-        <v>-1087406.743452666</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10208,24 +8577,15 @@
         <v>5772.6384</v>
       </c>
       <c r="G266" t="n">
-        <v>-1087406.743452666</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10247,24 +8607,15 @@
         <v>5616.5218</v>
       </c>
       <c r="G267" t="n">
-        <v>-1087406.743452666</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10286,24 +8637,15 @@
         <v>7109.87</v>
       </c>
       <c r="G268" t="n">
-        <v>-1080296.873452666</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>66.59</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
